--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -9639,7 +9639,7 @@
   <dimension ref="A1:BO1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V61" activeCellId="0" sqref="V61"/>
+      <selection pane="topLeft" activeCell="T61" activeCellId="0" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="3309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5678" uniqueCount="3323">
   <si>
     <t xml:space="preserve">Tag</t>
   </si>
@@ -6593,6 +6593,51 @@
     <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/enA22EPyzc2WQ1VVyY7zxresQQr.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">mickey_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mickey 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventure, Comedy, Fantasy, Sci-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bong Joon Ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Pattinson, Steven Yeun, Naomi Ackie, Mark Ruffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During a human expedition to colonize space, Mickey 17, a so-called "expendable" employee, is sent to explore an ice planet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/osYpGSz_0i4?si=ftJHktaeqoMpPDBZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/osYpGSz_0i4?si=p5rcAREFvD-K9fyq" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt12299608/?ref_=fn_all_ttl_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critics 77% / Audience 73%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/mickey_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/reviews/mickey-17-film-review-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christy Lemire (Roger Ebert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5/4 - With his third English-language feature, the South Korean auteur explores some of the same themes of the previous two, “Okja” and “Snowpiercer”: gaping economic disparities, humanity’s destruction of the planet and the dangers of authoritarianism. These topics are sadly more relevant than ever given the right-wing ideology that’s swept across the globe in recent years, and he depicts them with his signature high style and brash satire.  Still, for fans of 2019’s “Parasite,” “Mickey 17” may feel like a disappointment. Perhaps anything would be. Long gone is the exquisite mastery of tone and tension he displayed in his historic Best Picture winner. Writer-director Bong’s latest is more of a free-wheeling affair: heavy-handed in the points he’s making yet scattered in his narrative. At one point during a climactic swirl of visual effects, I wondered to myself: What exactly is happening, and how did we get here? ... What’s frustrating is that I totally agree with everything Bong is saying, I just wish he were saying it with a touch more finesse. Maybe they can do some fine-tuning in the lab for next time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/3tEeOhjTG6bowBzmsNYgKWSvpFW.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">mid_90s</t>
   </si>
   <si>
@@ -7446,9 +7491,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parasite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bong Joon Ho</t>
   </si>
   <si>
     <t xml:space="preserve">Song Kango-ho, Lee Sun-kyun, Cho Yeo-jeong</t>
@@ -9961,7 +10003,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10031,6 +10073,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -10080,7 +10128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10133,6 +10181,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10141,7 +10193,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10166,13 +10218,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO262"/>
+  <dimension ref="A1:BO263"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="A87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U162" activeCellId="0" sqref="U162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.52"/>
@@ -22005,7 +22057,7 @@
       </c>
       <c r="X160" s="5"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>2189</v>
       </c>
@@ -22016,22 +22068,22 @@
         <v>25</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E161" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E161" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F161" s="5" t="n">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>2055</v>
+        <v>198</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J161" s="5" t="s">
         <v>2191</v>
@@ -22052,7 +22104,7 @@
         <v>2196</v>
       </c>
       <c r="P161" s="5" t="s">
-        <v>629</v>
+        <v>305</v>
       </c>
       <c r="Q161" s="5" t="s">
         <v>2197</v>
@@ -22064,76 +22116,76 @@
         <v>2199</v>
       </c>
       <c r="T161" s="5" t="s">
-        <v>106</v>
+        <v>2200</v>
       </c>
       <c r="U161" s="5" t="s">
-        <v>106</v>
+        <v>2201</v>
       </c>
       <c r="V161" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W161" s="5" t="s">
-        <v>2200</v>
+        <v>2202</v>
+      </c>
+      <c r="W161" s="13" t="s">
+        <v>2203</v>
       </c>
       <c r="X161" s="5"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>26</v>
+        <v>1457</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>2203</v>
+        <v>2055</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>735</v>
+        <v>2207</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="P162" s="5" t="s">
-        <v>87</v>
+        <v>629</v>
       </c>
       <c r="Q162" s="5" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="R162" s="5" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="S162" s="5" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="T162" s="5" t="s">
         <v>106</v>
@@ -22145,16 +22197,16 @@
         <v>106</v>
       </c>
       <c r="W162" s="5" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="X162" s="5"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>25</v>
@@ -22165,47 +22217,47 @@
       <c r="E163" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F163" s="6" t="n">
-        <v>1990</v>
+      <c r="F163" s="5" t="n">
+        <v>2002</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>1967</v>
+        <v>2218</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>2216</v>
+        <v>735</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="M163" s="5" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="O163" s="5" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="P163" s="5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Q163" s="5" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="R163" s="5" t="s">
-        <v>1105</v>
+        <v>2225</v>
       </c>
       <c r="S163" s="5" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="T163" s="5" t="s">
         <v>106</v>
@@ -22217,67 +22269,67 @@
         <v>106</v>
       </c>
       <c r="W163" s="5" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="X163" s="5"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>2226</v>
-      </c>
-      <c r="E164" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F164" s="6" t="n">
-        <v>1966</v>
+        <v>1990</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>2079</v>
+        <v>27</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>2227</v>
+        <v>1967</v>
       </c>
       <c r="I164" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="O164" s="5" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="P164" s="5" t="s">
-        <v>365</v>
+        <v>107</v>
       </c>
       <c r="Q164" s="5" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="R164" s="5" t="s">
-        <v>2235</v>
+        <v>1105</v>
       </c>
       <c r="S164" s="5" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="T164" s="5" t="s">
         <v>106</v>
@@ -22289,67 +22341,67 @@
         <v>106</v>
       </c>
       <c r="W164" s="5" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="X164" s="5"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="E165" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F165" s="6" t="n">
-        <v>1996</v>
+        <v>1966</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>358</v>
+        <v>2079</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="I165" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>670</v>
+        <v>2243</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="N165" s="5" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="O165" s="5" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="P165" s="5" t="s">
-        <v>71</v>
+        <v>365</v>
       </c>
       <c r="Q165" s="5" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="R165" s="5" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="S165" s="5" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="T165" s="5" t="s">
         <v>106</v>
@@ -22361,34 +22413,34 @@
         <v>106</v>
       </c>
       <c r="W165" s="5" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="X165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>2240</v>
+        <v>2255</v>
       </c>
       <c r="E166" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" s="6" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>1379</v>
+        <v>2256</v>
       </c>
       <c r="I166" s="5" t="s">
         <v>29</v>
@@ -22397,31 +22449,31 @@
         <v>670</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
       <c r="M166" s="5" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="O166" s="5" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="P166" s="5" t="s">
-        <v>1711</v>
+        <v>71</v>
       </c>
       <c r="Q166" s="5" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="R166" s="5" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="S166" s="5" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="T166" s="5" t="s">
         <v>106</v>
@@ -22433,34 +22485,34 @@
         <v>106</v>
       </c>
       <c r="W166" s="5" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="X166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>2240</v>
+        <v>2255</v>
       </c>
       <c r="E167" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F167" s="6" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>2264</v>
+        <v>1379</v>
       </c>
       <c r="I167" s="5" t="s">
         <v>29</v>
@@ -22469,31 +22521,31 @@
         <v>670</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="P167" s="5" t="s">
-        <v>275</v>
+        <v>1711</v>
       </c>
       <c r="Q167" s="5" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="R167" s="5" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="S167" s="5" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="T167" s="5" t="s">
         <v>106</v>
@@ -22505,67 +22557,67 @@
         <v>106</v>
       </c>
       <c r="W167" s="5" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="X167" s="5"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>2240</v>
+        <v>2255</v>
       </c>
       <c r="E168" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F168" s="6" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>1849</v>
+        <v>2279</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J168" s="5" t="s">
         <v>670</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>1631</v>
+        <v>2280</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>2276</v>
+        <v>2281</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>2277</v>
+        <v>2282</v>
       </c>
       <c r="N168" s="5" t="s">
-        <v>2278</v>
+        <v>2283</v>
       </c>
       <c r="O168" s="5" t="s">
-        <v>2279</v>
+        <v>2284</v>
       </c>
       <c r="P168" s="5" t="s">
-        <v>629</v>
+        <v>275</v>
       </c>
       <c r="Q168" s="5" t="s">
-        <v>2280</v>
+        <v>2285</v>
       </c>
       <c r="R168" s="5" t="s">
-        <v>2281</v>
+        <v>2286</v>
       </c>
       <c r="S168" s="5" t="s">
-        <v>2282</v>
+        <v>2287</v>
       </c>
       <c r="T168" s="5" t="s">
         <v>106</v>
@@ -22577,67 +22629,67 @@
         <v>106</v>
       </c>
       <c r="W168" s="5" t="s">
-        <v>2283</v>
+        <v>2288</v>
       </c>
       <c r="X168" s="5"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>2284</v>
+        <v>2289</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>2285</v>
+        <v>2290</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>26</v>
+        <v>2255</v>
+      </c>
+      <c r="E169" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F169" s="6" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>2031</v>
+        <v>1849</v>
       </c>
       <c r="I169" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>360</v>
+        <v>670</v>
       </c>
       <c r="K169" s="5" t="s">
-        <v>2286</v>
+        <v>1631</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="O169" s="5" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="P169" s="5" t="s">
-        <v>107</v>
+        <v>629</v>
       </c>
       <c r="Q169" s="5" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="R169" s="5" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="S169" s="5" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="T169" s="5" t="s">
         <v>106</v>
@@ -22649,67 +22701,67 @@
         <v>106</v>
       </c>
       <c r="W169" s="5" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="X169" s="5"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>2296</v>
-      </c>
-      <c r="E170" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F170" s="5" t="n">
-        <v>1999</v>
+        <v>26</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F170" s="6" t="n">
+        <v>2009</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>2297</v>
+        <v>2031</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="K170" s="5" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>520</v>
+        <v>107</v>
       </c>
       <c r="Q170" s="5" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="R170" s="5" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="S170" s="5" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="T170" s="5" t="s">
         <v>106</v>
@@ -22721,67 +22773,67 @@
         <v>106</v>
       </c>
       <c r="W170" s="5" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="X170" s="5"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>2309</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>26</v>
+        <v>2311</v>
+      </c>
+      <c r="E171" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F171" s="5" t="n">
         <v>1999</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="I171" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>2311</v>
+        <v>900</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="M171" s="5" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="O171" s="5" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P171" s="5" t="s">
-        <v>234</v>
+        <v>520</v>
       </c>
       <c r="Q171" s="5" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="R171" s="5" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="S171" s="5" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="T171" s="5" t="s">
         <v>106</v>
@@ -22793,67 +22845,67 @@
         <v>106</v>
       </c>
       <c r="W171" s="5" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="X171" s="5"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E172" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F172" s="5" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>1956</v>
+        <v>2325</v>
       </c>
       <c r="I172" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>333</v>
+        <v>2326</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="O172" s="5" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="P172" s="5" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="Q172" s="5" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="R172" s="5" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="S172" s="5" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="T172" s="5" t="s">
         <v>106</v>
@@ -22865,25 +22917,25 @@
         <v>106</v>
       </c>
       <c r="W172" s="5" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
       <c r="X172" s="5"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>2333</v>
-      </c>
-      <c r="E173" s="4" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F173" s="5" t="n">
         <v>2004</v>
@@ -22892,40 +22944,40 @@
         <v>315</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>2334</v>
+        <v>1956</v>
       </c>
       <c r="I173" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>2335</v>
+        <v>333</v>
       </c>
       <c r="K173" s="5" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="O173" s="5" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="P173" s="5" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="Q173" s="5" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="R173" s="5" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="S173" s="5" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="T173" s="5" t="s">
         <v>106</v>
@@ -22937,67 +22989,67 @@
         <v>106</v>
       </c>
       <c r="W173" s="5" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="X173" s="5"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>26</v>
+        <v>2348</v>
+      </c>
+      <c r="E174" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>1984</v>
+        <v>2004</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>315</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>1380</v>
+        <v>29</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="K174" s="5" t="s">
-        <v>687</v>
+        <v>2351</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="M174" s="5" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="N174" s="5" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="O174" s="5" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="P174" s="5" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="Q174" s="5" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="R174" s="5" t="s">
-        <v>1771</v>
+        <v>2357</v>
       </c>
       <c r="S174" s="5" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="T174" s="5" t="s">
         <v>106</v>
@@ -23009,67 +23061,67 @@
         <v>106</v>
       </c>
       <c r="W174" s="5" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="X174" s="5"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E175" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F175" s="5" t="n">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>29</v>
+        <v>1380</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>597</v>
+        <v>2363</v>
       </c>
       <c r="K175" s="5" t="s">
-        <v>2359</v>
+        <v>687</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="M175" s="5" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="N175" s="5" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="O175" s="5" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="P175" s="5" t="s">
-        <v>434</v>
+        <v>36</v>
       </c>
       <c r="Q175" s="5" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="R175" s="5" t="s">
-        <v>1962</v>
+        <v>1771</v>
       </c>
       <c r="S175" s="5" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="T175" s="5" t="s">
         <v>106</v>
@@ -23081,16 +23133,16 @@
         <v>106</v>
       </c>
       <c r="W175" s="5" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="X175" s="5"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>25</v>
@@ -23102,46 +23154,46 @@
         <v>26</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>1967</v>
+        <v>2373</v>
       </c>
       <c r="I176" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>2369</v>
+        <v>597</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>490</v>
+        <v>2374</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>2370</v>
+        <v>2375</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>2371</v>
+        <v>2376</v>
       </c>
       <c r="N176" s="5" t="s">
-        <v>2372</v>
+        <v>2377</v>
       </c>
       <c r="O176" s="5" t="s">
-        <v>2373</v>
+        <v>2378</v>
       </c>
       <c r="P176" s="5" t="s">
-        <v>2374</v>
+        <v>434</v>
       </c>
       <c r="Q176" s="5" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="R176" s="5" t="s">
-        <v>2376</v>
+        <v>1962</v>
       </c>
       <c r="S176" s="5" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="T176" s="5" t="s">
         <v>106</v>
@@ -23153,43 +23205,43 @@
         <v>106</v>
       </c>
       <c r="W176" s="5" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="X176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>2381</v>
-      </c>
-      <c r="E177" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F177" s="6" t="n">
-        <v>1960</v>
+        <v>488</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F177" s="5" t="n">
+        <v>2000</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>118</v>
+        <v>358</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>2382</v>
+        <v>1967</v>
       </c>
       <c r="I177" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="K177" s="5" t="s">
-        <v>2384</v>
+        <v>490</v>
       </c>
       <c r="L177" s="5" t="s">
         <v>2385</v>
@@ -23204,16 +23256,16 @@
         <v>2388</v>
       </c>
       <c r="P177" s="5" t="s">
-        <v>290</v>
+        <v>2389</v>
       </c>
       <c r="Q177" s="5" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="R177" s="5" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="S177" s="5" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="T177" s="5" t="s">
         <v>106</v>
@@ -23225,67 +23277,67 @@
         <v>106</v>
       </c>
       <c r="W177" s="5" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="X177" s="5"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>2381</v>
+        <v>2395</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>2381</v>
+        <v>2396</v>
       </c>
       <c r="E178" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F178" s="6" t="n">
-        <v>2001</v>
+        <v>1960</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="I178" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>136</v>
+        <v>2398</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="N178" s="5" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="O178" s="5" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="P178" s="5" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="Q178" s="5" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="R178" s="5" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="S178" s="5" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="T178" s="5" t="s">
         <v>106</v>
@@ -23297,34 +23349,34 @@
         <v>106</v>
       </c>
       <c r="W178" s="5" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="X178" s="5"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>2405</v>
+        <v>2396</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>2381</v>
+        <v>2396</v>
       </c>
       <c r="E179" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F179" s="5" t="n">
-        <v>2004</v>
+        <v>2</v>
+      </c>
+      <c r="F179" s="6" t="n">
+        <v>2001</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="I179" s="5" t="s">
         <v>29</v>
@@ -23333,31 +23385,31 @@
         <v>136</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>2395</v>
+        <v>2410</v>
       </c>
       <c r="L179" s="5" t="s">
-        <v>2396</v>
+        <v>2411</v>
       </c>
       <c r="M179" s="5" t="s">
-        <v>2407</v>
+        <v>2412</v>
       </c>
       <c r="N179" s="5" t="s">
-        <v>2408</v>
+        <v>2413</v>
       </c>
       <c r="O179" s="5" t="s">
-        <v>2409</v>
+        <v>2414</v>
       </c>
       <c r="P179" s="5" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="Q179" s="5" t="s">
-        <v>2410</v>
+        <v>2415</v>
       </c>
       <c r="R179" s="5" t="s">
-        <v>2411</v>
+        <v>2416</v>
       </c>
       <c r="S179" s="5" t="s">
-        <v>2412</v>
+        <v>2417</v>
       </c>
       <c r="T179" s="5" t="s">
         <v>106</v>
@@ -23369,34 +23421,34 @@
         <v>106</v>
       </c>
       <c r="W179" s="5" t="s">
-        <v>2413</v>
+        <v>2418</v>
       </c>
       <c r="X179" s="5"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>2414</v>
+        <v>2419</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>2415</v>
+        <v>2420</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>2381</v>
+        <v>2396</v>
       </c>
       <c r="E180" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F180" s="5" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>2358</v>
+        <v>2421</v>
       </c>
       <c r="I180" s="5" t="s">
         <v>29</v>
@@ -23405,31 +23457,31 @@
         <v>136</v>
       </c>
       <c r="K180" s="5" t="s">
-        <v>2395</v>
+        <v>2410</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="M180" s="5" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="N180" s="5" t="s">
-        <v>2418</v>
+        <v>2423</v>
       </c>
       <c r="O180" s="5" t="s">
-        <v>2419</v>
+        <v>2424</v>
       </c>
       <c r="P180" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q180" s="5" t="s">
-        <v>2420</v>
+        <v>2425</v>
       </c>
       <c r="R180" s="5" t="s">
-        <v>2421</v>
+        <v>2426</v>
       </c>
       <c r="S180" s="5" t="s">
-        <v>2422</v>
+        <v>2427</v>
       </c>
       <c r="T180" s="5" t="s">
         <v>106</v>
@@ -23441,67 +23493,67 @@
         <v>106</v>
       </c>
       <c r="W180" s="5" t="s">
-        <v>2423</v>
+        <v>2428</v>
       </c>
       <c r="X180" s="5"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>2424</v>
+        <v>2429</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>2425</v>
+        <v>2430</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>26</v>
+        <v>2396</v>
+      </c>
+      <c r="E181" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F181" s="5" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>2426</v>
+        <v>2373</v>
       </c>
       <c r="I181" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>2427</v>
+        <v>2410</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="M181" s="5" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="N181" s="5" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="O181" s="5" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="P181" s="5" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="Q181" s="5" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="R181" s="5" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="S181" s="5" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="T181" s="5" t="s">
         <v>106</v>
@@ -23513,67 +23565,67 @@
         <v>106</v>
       </c>
       <c r="W181" s="5" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="X181" s="5"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E182" s="6" t="n">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="I182" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>2440</v>
+        <v>333</v>
       </c>
       <c r="K182" s="5" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="M182" s="5" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="N182" s="5" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="O182" s="5" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="P182" s="5" t="s">
-        <v>1600</v>
+        <v>87</v>
       </c>
       <c r="Q182" s="5" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="R182" s="5" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="S182" s="5" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="T182" s="5" t="s">
         <v>106</v>
@@ -23585,67 +23637,67 @@
         <v>106</v>
       </c>
       <c r="W182" s="5" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="X182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>26</v>
+        <v>2453</v>
+      </c>
+      <c r="E183" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F183" s="5" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>2079</v>
+        <v>27</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="I183" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="K183" s="5" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="M183" s="5" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="N183" s="5" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="O183" s="5" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="P183" s="5" t="s">
-        <v>338</v>
+        <v>1600</v>
       </c>
       <c r="Q183" s="5" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="R183" s="5" t="s">
-        <v>1233</v>
+        <v>2462</v>
       </c>
       <c r="S183" s="5" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="T183" s="5" t="s">
         <v>106</v>
@@ -23657,19 +23709,19 @@
         <v>106</v>
       </c>
       <c r="W183" s="5" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="X183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>26</v>
@@ -23678,46 +23730,46 @@
         <v>26</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>358</v>
+        <v>2079</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>2334</v>
+        <v>2467</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>669</v>
+        <v>29</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>1039</v>
+        <v>2468</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>530</v>
+        <v>2469</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>2464</v>
+        <v>2470</v>
       </c>
       <c r="M184" s="5" t="s">
-        <v>2465</v>
+        <v>2471</v>
       </c>
       <c r="N184" s="5" t="s">
-        <v>2466</v>
+        <v>2472</v>
       </c>
       <c r="O184" s="5" t="s">
-        <v>2467</v>
+        <v>2473</v>
       </c>
       <c r="P184" s="5" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Q184" s="5" t="s">
-        <v>2468</v>
+        <v>2474</v>
       </c>
       <c r="R184" s="5" t="s">
-        <v>2469</v>
+        <v>1233</v>
       </c>
       <c r="S184" s="5" t="s">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="T184" s="5" t="s">
         <v>106</v>
@@ -23729,16 +23781,16 @@
         <v>106</v>
       </c>
       <c r="W184" s="5" t="s">
-        <v>2471</v>
+        <v>2476</v>
       </c>
       <c r="X184" s="5"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>2472</v>
+        <v>2477</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>2473</v>
+        <v>2478</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>25</v>
@@ -23750,46 +23802,46 @@
         <v>26</v>
       </c>
       <c r="F185" s="5" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>1849</v>
+        <v>2349</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>64</v>
+        <v>669</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>2215</v>
+        <v>1039</v>
       </c>
       <c r="K185" s="5" t="s">
-        <v>2474</v>
+        <v>530</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="M185" s="5" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="N185" s="5" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="O185" s="5" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
       <c r="P185" s="5" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="Q185" s="5" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="R185" s="5" t="s">
-        <v>660</v>
+        <v>2484</v>
       </c>
       <c r="S185" s="5" t="s">
-        <v>2480</v>
+        <v>2485</v>
       </c>
       <c r="T185" s="5" t="s">
         <v>106</v>
@@ -23801,16 +23853,16 @@
         <v>106</v>
       </c>
       <c r="W185" s="5" t="s">
-        <v>2481</v>
+        <v>2486</v>
       </c>
       <c r="X185" s="5"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>2482</v>
+        <v>2487</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>2483</v>
+        <v>2488</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>25</v>
@@ -23822,46 +23874,46 @@
         <v>26</v>
       </c>
       <c r="F186" s="5" t="n">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>2484</v>
+        <v>1849</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>2485</v>
+        <v>2230</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>2486</v>
+        <v>2192</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="M186" s="5" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="N186" s="5" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="O186" s="5" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>379</v>
+        <v>189</v>
       </c>
       <c r="Q186" s="5" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="R186" s="5" t="s">
-        <v>2492</v>
+        <v>660</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="T186" s="5" t="s">
         <v>106</v>
@@ -23873,31 +23925,31 @@
         <v>106</v>
       </c>
       <c r="W186" s="5" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="X186" s="5"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>2497</v>
-      </c>
-      <c r="E187" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F187" s="5" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>2498</v>
@@ -23906,34 +23958,34 @@
         <v>29</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>900</v>
+        <v>2499</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="M187" s="5" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="N187" s="5" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="O187" s="5" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="P187" s="5" t="s">
-        <v>461</v>
+        <v>379</v>
       </c>
       <c r="Q187" s="5" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="R187" s="5" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="S187" s="5" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="T187" s="5" t="s">
         <v>106</v>
@@ -23945,67 +23997,67 @@
         <v>106</v>
       </c>
       <c r="W187" s="5" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="X187" s="5"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>26</v>
+        <v>2511</v>
+      </c>
+      <c r="E188" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F188" s="5" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="I188" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>2511</v>
+        <v>900</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="N188" s="5" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="O188" s="5" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="P188" s="5" t="s">
-        <v>141</v>
+        <v>461</v>
       </c>
       <c r="Q188" s="5" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="R188" s="5" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="S188" s="5" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="T188" s="5" t="s">
         <v>106</v>
@@ -24017,16 +24069,16 @@
         <v>106</v>
       </c>
       <c r="W188" s="5" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="X188" s="5"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>25</v>
@@ -24037,47 +24089,47 @@
       <c r="E189" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F189" s="6" t="n">
-        <v>1991</v>
+      <c r="F189" s="5" t="n">
+        <v>2007</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>2358</v>
+        <v>2524</v>
       </c>
       <c r="I189" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>623</v>
+        <v>2525</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="M189" s="5" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="O189" s="5" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="P189" s="5" t="s">
-        <v>1280</v>
+        <v>141</v>
       </c>
       <c r="Q189" s="5" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="R189" s="5" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="S189" s="5" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="T189" s="5" t="s">
         <v>106</v>
@@ -24089,67 +24141,67 @@
         <v>106</v>
       </c>
       <c r="W189" s="5" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="X189" s="5"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>2533</v>
-      </c>
-      <c r="E190" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F190" s="5" t="n">
-        <v>1987</v>
+        <v>26</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F190" s="6" t="n">
+        <v>1991</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>1967</v>
+        <v>2373</v>
       </c>
       <c r="I190" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>2534</v>
+        <v>623</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>48</v>
+        <v>2537</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="M190" s="5" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="N190" s="5" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="O190" s="5" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="P190" s="5" t="s">
-        <v>107</v>
+        <v>1280</v>
       </c>
       <c r="Q190" s="5" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="R190" s="5" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="S190" s="5" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="T190" s="5" t="s">
         <v>106</v>
@@ -24161,67 +24213,67 @@
         <v>106</v>
       </c>
       <c r="W190" s="5" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="X190" s="5"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>2533</v>
+        <v>2547</v>
       </c>
       <c r="E191" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191" s="5" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>2484</v>
+        <v>1967</v>
       </c>
       <c r="I191" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>214</v>
+        <v>2548</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>2545</v>
+        <v>48</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="M191" s="5" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="N191" s="5" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="O191" s="5" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="P191" s="5" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="Q191" s="5" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="R191" s="5" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="S191" s="5" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="T191" s="5" t="s">
         <v>106</v>
@@ -24233,67 +24285,67 @@
         <v>106</v>
       </c>
       <c r="W191" s="5" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="X191" s="5"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>2533</v>
+        <v>2547</v>
       </c>
       <c r="E192" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F192" s="5" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>1967</v>
+        <v>2498</v>
       </c>
       <c r="I192" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>1166</v>
+        <v>214</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="L192" s="5" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="M192" s="5" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="N192" s="5" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="O192" s="5" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="P192" s="5" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="Q192" s="5" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="R192" s="5" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="S192" s="5" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="T192" s="5" t="s">
         <v>106</v>
@@ -24305,28 +24357,28 @@
         <v>106</v>
       </c>
       <c r="W192" s="5" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="X192" s="5"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>2533</v>
+        <v>2547</v>
       </c>
       <c r="E193" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F193" s="5" t="n">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>27</v>
@@ -24341,31 +24393,31 @@
         <v>1166</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="L193" s="5" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="M193" s="5" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="N193" s="5" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="O193" s="5" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="P193" s="5" t="s">
-        <v>1759</v>
+        <v>219</v>
       </c>
       <c r="Q193" s="5" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="R193" s="5" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="S193" s="5" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="T193" s="5" t="s">
         <v>106</v>
@@ -24377,67 +24429,67 @@
         <v>106</v>
       </c>
       <c r="W193" s="5" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="X193" s="5"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>26</v>
+        <v>2547</v>
+      </c>
+      <c r="E194" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F194" s="5" t="n">
-        <v>1987</v>
+        <v>2018</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>2169</v>
+        <v>1967</v>
       </c>
       <c r="I194" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>2578</v>
+        <v>1166</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>2216</v>
+        <v>2581</v>
       </c>
       <c r="L194" s="5" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="M194" s="5" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="N194" s="5" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="O194" s="5" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="P194" s="5" t="s">
-        <v>36</v>
+        <v>1759</v>
       </c>
       <c r="Q194" s="5" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="R194" s="5" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="S194" s="5" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
       <c r="T194" s="5" t="s">
         <v>106</v>
@@ -24449,67 +24501,67 @@
         <v>106</v>
       </c>
       <c r="W194" s="5" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="X194" s="5"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="13" t="s">
-        <v>2587</v>
+      <c r="A195" s="1" t="s">
+        <v>2590</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>684</v>
+        <v>26</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F195" s="5" t="n">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>2589</v>
+        <v>2169</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>669</v>
+        <v>29</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>2591</v>
+        <v>2231</v>
       </c>
       <c r="L195" s="5" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="M195" s="5" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="N195" s="5" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="O195" s="5" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="P195" s="5" t="s">
-        <v>1131</v>
+        <v>36</v>
       </c>
       <c r="Q195" s="5" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="R195" s="5" t="s">
-        <v>191</v>
+        <v>2598</v>
       </c>
       <c r="S195" s="5" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="T195" s="5" t="s">
         <v>106</v>
@@ -24521,67 +24573,67 @@
         <v>106</v>
       </c>
       <c r="W195" s="5" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="X195" s="5"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
-        <v>2599</v>
+      <c r="A196" s="14" t="s">
+        <v>2601</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1009</v>
+        <v>684</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F196" s="5" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>29</v>
+        <v>669</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>1012</v>
+        <v>2605</v>
       </c>
       <c r="L196" s="5" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
       <c r="M196" s="5" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="N196" s="5" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="O196" s="5" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
       <c r="P196" s="5" t="s">
-        <v>1915</v>
+        <v>1131</v>
       </c>
       <c r="Q196" s="5" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
       <c r="R196" s="5" t="s">
-        <v>2608</v>
+        <v>191</v>
       </c>
       <c r="S196" s="5" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="T196" s="5" t="s">
         <v>106</v>
@@ -24593,67 +24645,67 @@
         <v>106</v>
       </c>
       <c r="W196" s="5" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="X196" s="5"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>26</v>
+        <v>1009</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F197" s="5" t="n">
-        <v>1981</v>
+        <v>1994</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>2144</v>
+        <v>2615</v>
       </c>
       <c r="I197" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>1086</v>
+        <v>2616</v>
       </c>
       <c r="K197" s="5" t="s">
-        <v>2613</v>
+        <v>1012</v>
       </c>
       <c r="L197" s="5" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="M197" s="5" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="N197" s="5" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="O197" s="5" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="P197" s="5" t="s">
-        <v>1280</v>
+        <v>1915</v>
       </c>
       <c r="Q197" s="5" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="R197" s="5" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="S197" s="5" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="T197" s="5" t="s">
         <v>106</v>
@@ -24665,16 +24717,16 @@
         <v>106</v>
       </c>
       <c r="W197" s="5" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
       <c r="X197" s="5"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>25</v>
@@ -24686,46 +24738,46 @@
         <v>26</v>
       </c>
       <c r="F198" s="5" t="n">
-        <v>2018</v>
+        <v>1981</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>2624</v>
+        <v>2144</v>
       </c>
       <c r="I198" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>2625</v>
+        <v>1086</v>
       </c>
       <c r="K198" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="L198" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="M198" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="N198" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="O198" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="P198" s="5" t="s">
-        <v>419</v>
+        <v>1280</v>
       </c>
       <c r="Q198" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="R198" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="S198" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="T198" s="5" t="s">
         <v>106</v>
@@ -24737,19 +24789,19 @@
         <v>106</v>
       </c>
       <c r="W198" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="X198" s="5"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>1273</v>
+        <v>25</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>26</v>
@@ -24758,46 +24810,46 @@
         <v>26</v>
       </c>
       <c r="F199" s="5" t="n">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>106</v>
+        <v>358</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="I199" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>1273</v>
+        <v>2639</v>
       </c>
       <c r="K199" s="5" t="s">
-        <v>106</v>
+        <v>2640</v>
       </c>
       <c r="L199" s="5" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="M199" s="5" t="s">
-        <v>106</v>
+        <v>2642</v>
       </c>
       <c r="N199" s="5" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="O199" s="5" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="P199" s="5" t="s">
-        <v>106</v>
+        <v>419</v>
       </c>
       <c r="Q199" s="5" t="s">
-        <v>106</v>
+        <v>2645</v>
       </c>
       <c r="R199" s="5" t="s">
-        <v>2235</v>
+        <v>2646</v>
       </c>
       <c r="S199" s="5" t="s">
-        <v>2641</v>
+        <v>2647</v>
       </c>
       <c r="T199" s="5" t="s">
         <v>106</v>
@@ -24809,19 +24861,19 @@
         <v>106</v>
       </c>
       <c r="W199" s="5" t="s">
-        <v>2642</v>
+        <v>2648</v>
       </c>
       <c r="X199" s="5"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>2643</v>
+        <v>2649</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>2644</v>
+        <v>2650</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>25</v>
+        <v>1273</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>26</v>
@@ -24830,46 +24882,46 @@
         <v>26</v>
       </c>
       <c r="F200" s="5" t="n">
-        <v>1954</v>
+        <v>2011</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>2645</v>
+        <v>2651</v>
       </c>
       <c r="I200" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>2646</v>
+        <v>1273</v>
       </c>
       <c r="K200" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>2647</v>
+        <v>2652</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>2648</v>
+        <v>106</v>
       </c>
       <c r="N200" s="5" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
       <c r="O200" s="5" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="P200" s="5" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="Q200" s="5" t="s">
-        <v>2651</v>
+        <v>106</v>
       </c>
       <c r="R200" s="5" t="s">
-        <v>2652</v>
+        <v>2250</v>
       </c>
       <c r="S200" s="5" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="T200" s="5" t="s">
         <v>106</v>
@@ -24880,17 +24932,17 @@
       <c r="V200" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W200" s="4" t="s">
-        <v>2654</v>
-      </c>
-      <c r="X200" s="4"/>
+      <c r="W200" s="5" t="s">
+        <v>2656</v>
+      </c>
+      <c r="X200" s="5"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>25</v>
@@ -24902,46 +24954,46 @@
         <v>26</v>
       </c>
       <c r="F201" s="5" t="n">
-        <v>2002</v>
+        <v>1954</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="I201" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="K201" s="5" t="s">
-        <v>2659</v>
+        <v>117</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="M201" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="N201" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="O201" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="P201" s="5" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="Q201" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="R201" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="S201" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="T201" s="5" t="s">
         <v>106</v>
@@ -24952,68 +25004,68 @@
       <c r="V201" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W201" s="5" t="s">
-        <v>2667</v>
-      </c>
-      <c r="X201" s="5"/>
+      <c r="W201" s="4" t="s">
+        <v>2668</v>
+      </c>
+      <c r="X201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1009</v>
+        <v>26</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F202" s="5" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>2439</v>
+        <v>2671</v>
       </c>
       <c r="I202" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>136</v>
+        <v>2672</v>
       </c>
       <c r="K202" s="5" t="s">
-        <v>1012</v>
+        <v>2673</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="M202" s="5" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="N202" s="5" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="O202" s="5" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="P202" s="5" t="s">
-        <v>1131</v>
+        <v>234</v>
       </c>
       <c r="Q202" s="5" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="R202" s="5" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="T202" s="5" t="s">
         <v>106</v>
@@ -25025,67 +25077,67 @@
         <v>106</v>
       </c>
       <c r="W202" s="5" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="X202" s="5"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E203" s="6" t="n">
-        <v>1</v>
+        <v>1009</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F203" s="5" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>63</v>
+        <v>2454</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="K203" s="5" t="s">
-        <v>2681</v>
+        <v>1012</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="M203" s="5" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="N203" s="5" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="O203" s="5" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="P203" s="5" t="s">
-        <v>141</v>
+        <v>1131</v>
       </c>
       <c r="Q203" s="5" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="R203" s="5" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="S203" s="5" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="T203" s="5" t="s">
         <v>106</v>
@@ -25097,67 +25149,67 @@
         <v>106</v>
       </c>
       <c r="W203" s="5" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="X203" s="5"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>2680</v>
+        <v>2694</v>
       </c>
       <c r="E204" s="6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F204" s="5" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>1342</v>
+        <v>27</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>2692</v>
+        <v>63</v>
       </c>
       <c r="I204" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>2693</v>
+        <v>256</v>
       </c>
       <c r="K204" s="5" t="s">
-        <v>102</v>
+        <v>2695</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="M204" s="5" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="N204" s="5" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="O204" s="5" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="P204" s="5" t="s">
-        <v>290</v>
+        <v>141</v>
       </c>
       <c r="Q204" s="5" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="R204" s="5" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="T204" s="5" t="s">
         <v>106</v>
@@ -25169,67 +25221,67 @@
         <v>106</v>
       </c>
       <c r="W204" s="5" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="X204" s="5"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>2680</v>
+        <v>2694</v>
       </c>
       <c r="E205" s="6" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F205" s="5" t="n">
         <v>2004</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>27</v>
+        <v>1342</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>1874</v>
+        <v>2706</v>
       </c>
       <c r="I205" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>1166</v>
+        <v>2707</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>2681</v>
+        <v>102</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="M205" s="5" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="N205" s="5" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
       <c r="O205" s="5" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="P205" s="5" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="Q205" s="5" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="R205" s="5" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="S205" s="5" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="T205" s="5" t="s">
         <v>106</v>
@@ -25241,67 +25293,67 @@
         <v>106</v>
       </c>
       <c r="W205" s="5" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="X205" s="5"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>2713</v>
+        <v>2694</v>
       </c>
       <c r="E206" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F206" s="5" t="n">
-        <v>1987</v>
+        <v>2004</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>2714</v>
+        <v>1874</v>
       </c>
       <c r="I206" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>2715</v>
+        <v>1166</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>2716</v>
+        <v>2695</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="M206" s="5" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="N206" s="5" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="O206" s="5" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="P206" s="5" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="Q206" s="5" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="R206" s="5" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="T206" s="5" t="s">
         <v>106</v>
@@ -25313,67 +25365,67 @@
         <v>106</v>
       </c>
       <c r="W206" s="5" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="X206" s="5"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>2713</v>
+        <v>2727</v>
       </c>
       <c r="E207" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F207" s="5" t="n">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="I207" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>2715</v>
+        <v>2729</v>
       </c>
       <c r="K207" s="5" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="M207" s="5" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="N207" s="5" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="O207" s="5" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="P207" s="5" t="s">
-        <v>2733</v>
+        <v>87</v>
       </c>
       <c r="Q207" s="5" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="R207" s="5" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="S207" s="5" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="T207" s="5" t="s">
         <v>106</v>
@@ -25385,40 +25437,40 @@
         <v>106</v>
       </c>
       <c r="W207" s="5" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="X207" s="5"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>26</v>
+        <v>2727</v>
+      </c>
+      <c r="E208" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F208" s="5" t="n">
-        <v>2023</v>
+        <v>1993</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="I208" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J208" s="5" t="s">
-        <v>2741</v>
+        <v>2729</v>
       </c>
       <c r="K208" s="5" t="s">
         <v>2742</v>
@@ -25436,16 +25488,16 @@
         <v>2746</v>
       </c>
       <c r="P208" s="5" t="s">
-        <v>87</v>
+        <v>2747</v>
       </c>
       <c r="Q208" s="5" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="R208" s="5" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="T208" s="5" t="s">
         <v>106</v>
@@ -25457,16 +25509,16 @@
         <v>106</v>
       </c>
       <c r="W208" s="5" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="X208" s="5"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>25</v>
@@ -25478,46 +25530,46 @@
         <v>26</v>
       </c>
       <c r="F209" s="5" t="n">
-        <v>1998</v>
+        <v>2023</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>2007</v>
+        <v>2754</v>
       </c>
       <c r="I209" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>474</v>
+        <v>2755</v>
       </c>
       <c r="K209" s="5" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="M209" s="5" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="N209" s="5" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="O209" s="5" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="P209" s="5" t="s">
-        <v>1280</v>
+        <v>87</v>
       </c>
       <c r="Q209" s="5" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="R209" s="5" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="S209" s="5" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="T209" s="5" t="s">
         <v>106</v>
@@ -25529,67 +25581,67 @@
         <v>106</v>
       </c>
       <c r="W209" s="5" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="X209" s="5"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>2763</v>
-      </c>
-      <c r="E210" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F210" s="5" t="n">
         <v>1998</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>2169</v>
+        <v>2007</v>
       </c>
       <c r="I210" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>2764</v>
+        <v>474</v>
       </c>
       <c r="K210" s="5" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="L210" s="5" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="M210" s="5" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="N210" s="5" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="O210" s="5" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="P210" s="5" t="s">
-        <v>141</v>
+        <v>1280</v>
       </c>
       <c r="Q210" s="5" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="R210" s="5" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="T210" s="5" t="s">
         <v>106</v>
@@ -25601,67 +25653,67 @@
         <v>106</v>
       </c>
       <c r="W210" s="5" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="X210" s="5"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>2763</v>
+        <v>2777</v>
       </c>
       <c r="E211" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F211" s="5" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>2624</v>
+        <v>2169</v>
       </c>
       <c r="I211" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>2764</v>
+        <v>2778</v>
       </c>
       <c r="K211" s="5" t="s">
-        <v>2765</v>
+        <v>2779</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="M211" s="5" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
       <c r="N211" s="5" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="O211" s="5" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="P211" s="5" t="s">
-        <v>379</v>
+        <v>141</v>
       </c>
       <c r="Q211" s="5" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="R211" s="5" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="S211" s="5" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="T211" s="5" t="s">
         <v>106</v>
@@ -25673,67 +25725,67 @@
         <v>106</v>
       </c>
       <c r="W211" s="5" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="X211" s="5"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>2763</v>
+        <v>2777</v>
       </c>
       <c r="E212" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F212" s="5" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>2786</v>
+        <v>2638</v>
       </c>
       <c r="I212" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J212" s="5" t="s">
-        <v>2764</v>
+        <v>2778</v>
       </c>
       <c r="K212" s="5" t="s">
-        <v>2765</v>
+        <v>2779</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="N212" s="5" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="O212" s="5" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="P212" s="5" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="Q212" s="5" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="R212" s="5" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="S212" s="5" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="T212" s="5" t="s">
         <v>106</v>
@@ -25745,67 +25797,67 @@
         <v>106</v>
       </c>
       <c r="W212" s="5" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="X212" s="5"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>26</v>
+        <v>2777</v>
+      </c>
+      <c r="E213" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F213" s="5" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>2297</v>
+        <v>2800</v>
       </c>
       <c r="I213" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>2797</v>
+        <v>2778</v>
       </c>
       <c r="K213" s="5" t="s">
-        <v>2798</v>
+        <v>2779</v>
       </c>
       <c r="L213" s="5" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="M213" s="5" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="N213" s="5" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="O213" s="5" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="P213" s="5" t="s">
-        <v>1711</v>
+        <v>234</v>
       </c>
       <c r="Q213" s="5" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="R213" s="5" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="S213" s="5" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="T213" s="5" t="s">
         <v>106</v>
@@ -25817,19 +25869,19 @@
         <v>106</v>
       </c>
       <c r="W213" s="5" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="X213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>26</v>
@@ -25838,13 +25890,13 @@
         <v>26</v>
       </c>
       <c r="F214" s="5" t="n">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>2809</v>
+        <v>358</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>2810</v>
+        <v>2312</v>
       </c>
       <c r="I214" s="5" t="s">
         <v>29</v>
@@ -25853,31 +25905,31 @@
         <v>2811</v>
       </c>
       <c r="K214" s="5" t="s">
-        <v>106</v>
+        <v>2812</v>
       </c>
       <c r="L214" s="5" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="M214" s="5" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="O214" s="5" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="P214" s="5" t="s">
-        <v>434</v>
+        <v>1711</v>
       </c>
       <c r="Q214" s="5" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="R214" s="5" t="s">
-        <v>2235</v>
+        <v>2818</v>
       </c>
       <c r="S214" s="5" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="T214" s="5" t="s">
         <v>106</v>
@@ -25889,19 +25941,19 @@
         <v>106</v>
       </c>
       <c r="W214" s="5" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="X214" s="5"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>26</v>
@@ -25910,46 +25962,46 @@
         <v>26</v>
       </c>
       <c r="F215" s="5" t="n">
-        <v>2010</v>
+        <v>1973</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>358</v>
+        <v>2823</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>2645</v>
+        <v>2824</v>
       </c>
       <c r="I215" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="K215" s="5" t="s">
-        <v>2822</v>
+        <v>106</v>
       </c>
       <c r="L215" s="5" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="M215" s="5" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="N215" s="5" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="O215" s="5" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="P215" s="5" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="Q215" s="5" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="R215" s="5" t="s">
-        <v>2828</v>
+        <v>2250</v>
       </c>
       <c r="S215" s="5" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="T215" s="5" t="s">
         <v>106</v>
@@ -25961,16 +26013,16 @@
         <v>106</v>
       </c>
       <c r="W215" s="5" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="X215" s="5"/>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>25</v>
@@ -25982,46 +26034,46 @@
         <v>26</v>
       </c>
       <c r="F216" s="5" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>2007</v>
+        <v>2659</v>
       </c>
       <c r="I216" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>361</v>
+        <v>2836</v>
       </c>
       <c r="L216" s="5" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="M216" s="5" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="N216" s="5" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="O216" s="5" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="P216" s="5" t="s">
-        <v>322</v>
+        <v>419</v>
       </c>
       <c r="Q216" s="5" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="R216" s="5" t="s">
-        <v>799</v>
+        <v>2842</v>
       </c>
       <c r="S216" s="5" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="T216" s="5" t="s">
         <v>106</v>
@@ -26033,16 +26085,16 @@
         <v>106</v>
       </c>
       <c r="W216" s="5" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="X216" s="5"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>25</v>
@@ -26054,67 +26106,67 @@
         <v>26</v>
       </c>
       <c r="F217" s="5" t="n">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>2843</v>
+        <v>2007</v>
       </c>
       <c r="I217" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>2845</v>
+        <v>361</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="M217" s="5" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="N217" s="5" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="O217" s="5" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="P217" s="5" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="Q217" s="5" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="R217" s="5" t="s">
-        <v>2851</v>
+        <v>799</v>
       </c>
       <c r="S217" s="5" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="T217" s="5" t="s">
-        <v>2853</v>
+        <v>106</v>
       </c>
       <c r="U217" s="5" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="V217" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W217" s="5" t="s">
         <v>2854</v>
-      </c>
-      <c r="W217" s="5" t="s">
-        <v>2855</v>
       </c>
       <c r="X217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>2856</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>2857</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>25</v>
@@ -26126,13 +26178,13 @@
         <v>26</v>
       </c>
       <c r="F218" s="5" t="n">
-        <v>1952</v>
+        <v>2002</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>2740</v>
+        <v>2857</v>
       </c>
       <c r="I218" s="5" t="s">
         <v>29</v>
@@ -26156,37 +26208,37 @@
         <v>2863</v>
       </c>
       <c r="P218" s="5" t="s">
-        <v>1131</v>
+        <v>305</v>
       </c>
       <c r="Q218" s="5" t="s">
         <v>2864</v>
       </c>
       <c r="R218" s="5" t="s">
-        <v>340</v>
+        <v>2865</v>
       </c>
       <c r="S218" s="5" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="T218" s="5" t="s">
-        <v>106</v>
+        <v>2867</v>
       </c>
       <c r="U218" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V218" s="5" t="s">
-        <v>106</v>
+        <v>2868</v>
       </c>
       <c r="W218" s="5" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="X218" s="5"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
@@ -26198,46 +26250,46 @@
         <v>26</v>
       </c>
       <c r="F219" s="5" t="n">
-        <v>2012</v>
+        <v>1952</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>2869</v>
+        <v>2754</v>
       </c>
       <c r="I219" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="L219" s="5" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="M219" s="5" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="N219" s="5" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="O219" s="5" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="P219" s="5" t="s">
-        <v>379</v>
+        <v>1131</v>
       </c>
       <c r="Q219" s="5" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="R219" s="5" t="s">
-        <v>2877</v>
+        <v>340</v>
       </c>
       <c r="S219" s="5" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="T219" s="5" t="s">
         <v>106</v>
@@ -26249,16 +26301,16 @@
         <v>106</v>
       </c>
       <c r="W219" s="5" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="X219" s="5"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>25</v>
@@ -26270,46 +26322,46 @@
         <v>26</v>
       </c>
       <c r="F220" s="5" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>2264</v>
+        <v>2883</v>
       </c>
       <c r="I220" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>996</v>
+        <v>2884</v>
       </c>
       <c r="K220" s="5" t="s">
-        <v>2474</v>
+        <v>2885</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="M220" s="5" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="N220" s="5" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="O220" s="5" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="P220" s="5" t="s">
-        <v>520</v>
+        <v>379</v>
       </c>
       <c r="Q220" s="5" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="R220" s="5" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="S220" s="5" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="T220" s="5" t="s">
         <v>106</v>
@@ -26321,19 +26373,19 @@
         <v>106</v>
       </c>
       <c r="W220" s="5" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="X220" s="5"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>26</v>
@@ -26342,22 +26394,22 @@
         <v>26</v>
       </c>
       <c r="F221" s="5" t="n">
-        <v>1967</v>
+        <v>2013</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>2892</v>
+        <v>27</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>2893</v>
+        <v>2279</v>
       </c>
       <c r="I221" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>2894</v>
+        <v>996</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>2895</v>
+        <v>2192</v>
       </c>
       <c r="L221" s="5" t="s">
         <v>2896</v>
@@ -26372,16 +26424,16 @@
         <v>2899</v>
       </c>
       <c r="P221" s="5" t="s">
-        <v>71</v>
+        <v>520</v>
       </c>
       <c r="Q221" s="5" t="s">
         <v>2900</v>
       </c>
       <c r="R221" s="5" t="s">
-        <v>2619</v>
+        <v>2901</v>
       </c>
       <c r="S221" s="5" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="T221" s="5" t="s">
         <v>106</v>
@@ -26393,67 +26445,67 @@
         <v>106</v>
       </c>
       <c r="W221" s="5" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="X221" s="5"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>2904</v>
-      </c>
-      <c r="E222" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F222" s="6" t="n">
-        <v>2002</v>
+        <v>26</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F222" s="5" t="n">
+        <v>1967</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>358</v>
+        <v>2906</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>2007</v>
+        <v>2907</v>
       </c>
       <c r="I222" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J222" s="5" t="s">
-        <v>1039</v>
+        <v>2908</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="M222" s="5" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="N222" s="5" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
       <c r="O222" s="5" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="P222" s="5" t="s">
-        <v>629</v>
+        <v>71</v>
       </c>
       <c r="Q222" s="5" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
       <c r="R222" s="5" t="s">
-        <v>2911</v>
+        <v>2633</v>
       </c>
       <c r="S222" s="5" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="T222" s="5" t="s">
         <v>106</v>
@@ -26465,34 +26517,34 @@
         <v>106</v>
       </c>
       <c r="W222" s="5" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
       <c r="X222" s="5"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>2904</v>
+        <v>2918</v>
       </c>
       <c r="E223" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F223" s="6" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>2382</v>
+        <v>2007</v>
       </c>
       <c r="I223" s="5" t="s">
         <v>29</v>
@@ -26501,31 +26553,31 @@
         <v>1039</v>
       </c>
       <c r="K223" s="5" t="s">
-        <v>2905</v>
+        <v>2919</v>
       </c>
       <c r="L223" s="5" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="M223" s="5" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="N223" s="5" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
       <c r="O223" s="5" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="P223" s="5" t="s">
-        <v>419</v>
+        <v>629</v>
       </c>
       <c r="Q223" s="5" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="R223" s="5" t="s">
-        <v>1892</v>
+        <v>2925</v>
       </c>
       <c r="S223" s="5" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="T223" s="5" t="s">
         <v>106</v>
@@ -26537,67 +26589,67 @@
         <v>106</v>
       </c>
       <c r="W223" s="5" t="s">
-        <v>2922</v>
+        <v>2927</v>
       </c>
       <c r="X223" s="5"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>2924</v>
+        <v>2929</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>2925</v>
+        <v>2918</v>
       </c>
       <c r="E224" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F224" s="5" t="n">
-        <v>2017</v>
+        <v>2</v>
+      </c>
+      <c r="F224" s="6" t="n">
+        <v>2004</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>2589</v>
+        <v>2397</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>1380</v>
+        <v>29</v>
       </c>
       <c r="J224" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>2926</v>
+        <v>2919</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="M224" s="5" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="N224" s="5" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="O224" s="5" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="P224" s="5" t="s">
-        <v>629</v>
+        <v>419</v>
       </c>
       <c r="Q224" s="5" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
       <c r="R224" s="5" t="s">
-        <v>2932</v>
+        <v>1892</v>
       </c>
       <c r="S224" s="5" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="T224" s="5" t="s">
         <v>106</v>
@@ -26609,67 +26661,67 @@
         <v>106</v>
       </c>
       <c r="W224" s="5" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="X224" s="5"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E225" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F225" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>183</v>
+        <v>2603</v>
       </c>
       <c r="I225" s="5" t="s">
         <v>1380</v>
       </c>
       <c r="J225" s="5" t="s">
-        <v>2145</v>
+        <v>1039</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="M225" s="5" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="N225" s="5" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="O225" s="5" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="P225" s="5" t="s">
-        <v>204</v>
+        <v>629</v>
       </c>
       <c r="Q225" s="5" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="R225" s="5" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="S225" s="5" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="T225" s="5" t="s">
         <v>106</v>
@@ -26681,67 +26733,67 @@
         <v>106</v>
       </c>
       <c r="W225" s="5" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="X225" s="5"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>26</v>
+        <v>2951</v>
+      </c>
+      <c r="E226" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F226" s="5" t="n">
-        <v>1994</v>
+        <v>2018</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>2394</v>
+        <v>183</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>29</v>
+        <v>1380</v>
       </c>
       <c r="J226" s="5" t="s">
-        <v>1039</v>
+        <v>2145</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="M226" s="5" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="N226" s="5" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="O226" s="5" t="s">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="P226" s="5" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="Q226" s="5" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="R226" s="5" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="S226" s="5" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="T226" s="5" t="s">
         <v>106</v>
@@ -26753,40 +26805,40 @@
         <v>106</v>
       </c>
       <c r="W226" s="5" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="X226" s="5"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>2960</v>
+        <v>26</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="F227" s="5" t="n">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>2079</v>
+        <v>358</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>2961</v>
+        <v>2409</v>
       </c>
       <c r="I227" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J227" s="5" t="s">
-        <v>2962</v>
+        <v>1039</v>
       </c>
       <c r="K227" s="5" t="s">
         <v>2963</v>
@@ -26804,7 +26856,7 @@
         <v>2967</v>
       </c>
       <c r="P227" s="5" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="Q227" s="5" t="s">
         <v>2968</v>
@@ -26837,55 +26889,55 @@
         <v>2973</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>2973</v>
-      </c>
-      <c r="E228" s="5" t="n">
-        <v>1</v>
+        <v>2974</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="F228" s="5" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>27</v>
+        <v>2079</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>2134</v>
+        <v>2975</v>
       </c>
       <c r="I228" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>1166</v>
+        <v>2976</v>
       </c>
       <c r="K228" s="5" t="s">
-        <v>2716</v>
+        <v>2977</v>
       </c>
       <c r="L228" s="5" t="s">
-        <v>2974</v>
+        <v>2978</v>
       </c>
       <c r="M228" s="5" t="s">
-        <v>2975</v>
+        <v>2979</v>
       </c>
       <c r="N228" s="5" t="s">
-        <v>2976</v>
+        <v>2980</v>
       </c>
       <c r="O228" s="5" t="s">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="P228" s="5" t="s">
-        <v>1280</v>
+        <v>87</v>
       </c>
       <c r="Q228" s="5" t="s">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="R228" s="5" t="s">
-        <v>2979</v>
+        <v>2983</v>
       </c>
       <c r="S228" s="5" t="s">
-        <v>2980</v>
+        <v>2984</v>
       </c>
       <c r="T228" s="5" t="s">
         <v>106</v>
@@ -26897,67 +26949,67 @@
         <v>106</v>
       </c>
       <c r="W228" s="5" t="s">
-        <v>2981</v>
+        <v>2985</v>
       </c>
       <c r="X228" s="5"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>2982</v>
+        <v>2986</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F229" s="6" t="n">
-        <v>2009</v>
+        <v>2987</v>
+      </c>
+      <c r="E229" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" s="5" t="n">
+        <v>1997</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>2382</v>
+        <v>2134</v>
       </c>
       <c r="I229" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>1039</v>
+        <v>1166</v>
       </c>
       <c r="K229" s="5" t="s">
-        <v>2265</v>
+        <v>2730</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>2984</v>
+        <v>2988</v>
       </c>
       <c r="M229" s="5" t="s">
-        <v>2985</v>
+        <v>2989</v>
       </c>
       <c r="N229" s="5" t="s">
-        <v>2986</v>
+        <v>2990</v>
       </c>
       <c r="O229" s="5" t="s">
-        <v>2987</v>
+        <v>2991</v>
       </c>
       <c r="P229" s="5" t="s">
-        <v>365</v>
+        <v>1280</v>
       </c>
       <c r="Q229" s="5" t="s">
-        <v>2988</v>
+        <v>2992</v>
       </c>
       <c r="R229" s="5" t="s">
-        <v>2989</v>
+        <v>2993</v>
       </c>
       <c r="S229" s="5" t="s">
-        <v>2990</v>
+        <v>2994</v>
       </c>
       <c r="T229" s="5" t="s">
         <v>106</v>
@@ -26969,67 +27021,67 @@
         <v>106</v>
       </c>
       <c r="W229" s="5" t="s">
-        <v>2991</v>
+        <v>2995</v>
       </c>
       <c r="X229" s="5"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>2992</v>
+        <v>2996</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>2993</v>
+        <v>2997</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>2994</v>
-      </c>
-      <c r="E230" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F230" s="5" t="n">
-        <v>2016</v>
+      <c r="E230" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F230" s="6" t="n">
+        <v>2009</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>2995</v>
+        <v>2397</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J230" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="K230" s="5" t="s">
-        <v>1382</v>
+        <v>2280</v>
       </c>
       <c r="L230" s="5" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
       <c r="M230" s="5" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="N230" s="5" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
       <c r="O230" s="5" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="P230" s="5" t="s">
-        <v>107</v>
+        <v>365</v>
       </c>
       <c r="Q230" s="5" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="R230" s="5" t="s">
-        <v>1614</v>
+        <v>3003</v>
       </c>
       <c r="S230" s="5" t="s">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="T230" s="5" t="s">
         <v>106</v>
@@ -27041,139 +27093,139 @@
         <v>106</v>
       </c>
       <c r="W230" s="5" t="s">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="X230" s="5"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>2994</v>
+        <v>3008</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>3005</v>
+        <v>26</v>
       </c>
       <c r="F231" s="5" t="n">
-        <v>1977</v>
+        <v>2016</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>2007</v>
+        <v>3009</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>3006</v>
+        <v>64</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>3007</v>
+        <v>1039</v>
       </c>
       <c r="K231" s="5" t="s">
-        <v>3008</v>
+        <v>1382</v>
       </c>
       <c r="L231" s="5" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="M231" s="5" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="N231" s="5" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="O231" s="5" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="P231" s="5" t="s">
-        <v>3013</v>
+        <v>107</v>
       </c>
       <c r="Q231" s="5" t="s">
         <v>3014</v>
       </c>
       <c r="R231" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="S231" s="5" t="s">
         <v>3015</v>
       </c>
-      <c r="S231" s="5" t="s">
+      <c r="T231" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U231" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V231" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W231" s="5" t="s">
         <v>3016</v>
-      </c>
-      <c r="T231" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U231" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V231" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W231" s="5" t="s">
-        <v>3017</v>
       </c>
       <c r="X231" s="5"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>3018</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>3019</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>2994</v>
+        <v>3008</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="F232" s="5" t="n">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>315</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>2297</v>
+        <v>2007</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>3006</v>
+        <v>3020</v>
       </c>
       <c r="J232" s="5" t="s">
-        <v>3007</v>
+        <v>3021</v>
       </c>
       <c r="K232" s="5" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="L232" s="5" t="s">
-        <v>3009</v>
+        <v>3023</v>
       </c>
       <c r="M232" s="5" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="N232" s="5" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="O232" s="5" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="P232" s="5" t="s">
-        <v>338</v>
+        <v>3027</v>
       </c>
       <c r="Q232" s="5" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="R232" s="5" t="s">
-        <v>3026</v>
+        <v>3029</v>
       </c>
       <c r="S232" s="5" t="s">
-        <v>3027</v>
+        <v>3030</v>
       </c>
       <c r="T232" s="5" t="s">
         <v>106</v>
@@ -27185,67 +27237,67 @@
         <v>106</v>
       </c>
       <c r="W232" s="5" t="s">
-        <v>3028</v>
+        <v>3031</v>
       </c>
       <c r="X232" s="5"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>3029</v>
+        <v>3032</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>3030</v>
+        <v>3033</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>2994</v>
+        <v>3008</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="F233" s="5" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>315</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>2334</v>
+        <v>2312</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>3006</v>
+        <v>3020</v>
       </c>
       <c r="J233" s="5" t="s">
-        <v>3007</v>
+        <v>3021</v>
       </c>
       <c r="K233" s="5" t="s">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>3009</v>
+        <v>3023</v>
       </c>
       <c r="M233" s="5" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="N233" s="5" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="O233" s="5" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="P233" s="5" t="s">
-        <v>1131</v>
+        <v>338</v>
       </c>
       <c r="Q233" s="5" t="s">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="R233" s="5" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="S233" s="5" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="T233" s="5" t="s">
         <v>106</v>
@@ -27257,67 +27309,67 @@
         <v>106</v>
       </c>
       <c r="W233" s="5" t="s">
-        <v>3039</v>
+        <v>3042</v>
       </c>
       <c r="X233" s="5"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>2994</v>
+        <v>3008</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="F234" s="5" t="n">
-        <v>2015</v>
+        <v>1983</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>2099</v>
+        <v>2349</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>29</v>
+        <v>3020</v>
       </c>
       <c r="J234" s="5" t="s">
-        <v>1039</v>
+        <v>3021</v>
       </c>
       <c r="K234" s="5" t="s">
-        <v>2265</v>
+        <v>3046</v>
       </c>
       <c r="L234" s="5" t="s">
-        <v>3043</v>
+        <v>3023</v>
       </c>
       <c r="M234" s="5" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="N234" s="5" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="O234" s="5" t="s">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="P234" s="5" t="s">
-        <v>107</v>
+        <v>1131</v>
       </c>
       <c r="Q234" s="5" t="s">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="R234" s="5" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="S234" s="5" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="T234" s="5" t="s">
         <v>106</v>
@@ -27329,67 +27381,67 @@
         <v>106</v>
       </c>
       <c r="W234" s="5" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="X234" s="5"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>1685</v>
+        <v>25</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>2994</v>
-      </c>
-      <c r="E235" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>106</v>
+        <v>3008</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>3056</v>
+      </c>
+      <c r="F235" s="5" t="n">
+        <v>2015</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>106</v>
+        <v>358</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>106</v>
+        <v>2099</v>
       </c>
       <c r="I235" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>106</v>
+        <v>1039</v>
       </c>
       <c r="K235" s="5" t="s">
-        <v>106</v>
+        <v>2280</v>
       </c>
       <c r="L235" s="5" t="s">
-        <v>106</v>
+        <v>3057</v>
       </c>
       <c r="M235" s="5" t="s">
-        <v>106</v>
+        <v>3058</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>3053</v>
+        <v>3059</v>
       </c>
       <c r="O235" s="5" t="s">
-        <v>3054</v>
+        <v>3060</v>
       </c>
       <c r="P235" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q235" s="5" t="s">
-        <v>106</v>
+        <v>3061</v>
       </c>
       <c r="R235" s="5" t="s">
-        <v>2235</v>
+        <v>3062</v>
       </c>
       <c r="S235" s="5" t="s">
-        <v>3016</v>
+        <v>3063</v>
       </c>
       <c r="T235" s="5" t="s">
         <v>106</v>
@@ -27401,67 +27453,67 @@
         <v>106</v>
       </c>
       <c r="W235" s="5" t="s">
-        <v>3055</v>
+        <v>3064</v>
       </c>
       <c r="X235" s="5"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>3056</v>
+        <v>3065</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>3057</v>
+        <v>3066</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>25</v>
+        <v>1685</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>3058</v>
+        <v>3008</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F236" s="5" t="n">
-        <v>1999</v>
+      <c r="F236" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>1342</v>
+        <v>106</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>3059</v>
+        <v>106</v>
       </c>
       <c r="I236" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="K236" s="5" t="s">
-        <v>3060</v>
+        <v>106</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>3061</v>
+        <v>106</v>
       </c>
       <c r="M236" s="5" t="s">
-        <v>3062</v>
+        <v>106</v>
       </c>
       <c r="N236" s="5" t="s">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="O236" s="5" t="s">
-        <v>3064</v>
+        <v>3068</v>
       </c>
       <c r="P236" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="Q236" s="5" t="s">
-        <v>3065</v>
+        <v>106</v>
       </c>
       <c r="R236" s="5" t="s">
-        <v>3066</v>
+        <v>2250</v>
       </c>
       <c r="S236" s="5" t="s">
-        <v>3067</v>
+        <v>3030</v>
       </c>
       <c r="T236" s="5" t="s">
         <v>106</v>
@@ -27473,67 +27525,67 @@
         <v>106</v>
       </c>
       <c r="W236" s="5" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="X236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>26</v>
+        <v>3072</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F237" s="5" t="n">
-        <v>1983</v>
+        <v>1999</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>315</v>
+        <v>1342</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>2624</v>
+        <v>3073</v>
       </c>
       <c r="I237" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>3071</v>
+        <v>389</v>
       </c>
       <c r="K237" s="5" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>3073</v>
+        <v>3075</v>
       </c>
       <c r="M237" s="5" t="s">
-        <v>3074</v>
+        <v>3076</v>
       </c>
       <c r="N237" s="5" t="s">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="O237" s="5" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="P237" s="5" t="s">
         <v>53</v>
       </c>
       <c r="Q237" s="5" t="s">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="R237" s="5" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
       <c r="S237" s="5" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="T237" s="5" t="s">
         <v>106</v>
@@ -27545,67 +27597,67 @@
         <v>106</v>
       </c>
       <c r="W237" s="5" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="X237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>3083</v>
-      </c>
-      <c r="E238" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F238" s="5" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>1967</v>
+        <v>2638</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J238" s="5" t="s">
-        <v>1039</v>
+        <v>3085</v>
       </c>
       <c r="K238" s="5" t="s">
-        <v>200</v>
+        <v>3086</v>
       </c>
       <c r="L238" s="5" t="s">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="M238" s="5" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="N238" s="5" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="O238" s="5" t="s">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="P238" s="5" t="s">
-        <v>461</v>
+        <v>53</v>
       </c>
       <c r="Q238" s="5" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
       <c r="R238" s="5" t="s">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="S238" s="5" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="T238" s="5" t="s">
         <v>106</v>
@@ -27617,67 +27669,67 @@
         <v>106</v>
       </c>
       <c r="W238" s="5" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="X238" s="5"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>3093</v>
+        <v>3096</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>3083</v>
+        <v>3097</v>
       </c>
       <c r="E239" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F239" s="5" t="n">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>1825</v>
+        <v>1967</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J239" s="5" t="s">
-        <v>3094</v>
+        <v>1039</v>
       </c>
       <c r="K239" s="5" t="s">
         <v>200</v>
       </c>
       <c r="L239" s="5" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="M239" s="5" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="N239" s="5" t="s">
-        <v>3097</v>
+        <v>3100</v>
       </c>
       <c r="O239" s="5" t="s">
-        <v>3098</v>
+        <v>3101</v>
       </c>
       <c r="P239" s="5" t="s">
-        <v>3013</v>
+        <v>461</v>
       </c>
       <c r="Q239" s="5" t="s">
-        <v>3099</v>
+        <v>3102</v>
       </c>
       <c r="R239" s="5" t="s">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="S239" s="5" t="s">
-        <v>3101</v>
+        <v>3104</v>
       </c>
       <c r="T239" s="5" t="s">
         <v>106</v>
@@ -27689,43 +27741,43 @@
         <v>106</v>
       </c>
       <c r="W239" s="5" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="X239" s="5"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>3105</v>
-      </c>
-      <c r="E240" s="5" t="n">
-        <v>3</v>
+        <v>3097</v>
+      </c>
+      <c r="E240" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F240" s="5" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>3106</v>
+        <v>1825</v>
       </c>
       <c r="I240" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J240" s="5" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="K240" s="5" t="s">
-        <v>3108</v>
+        <v>200</v>
       </c>
       <c r="L240" s="5" t="s">
         <v>3109</v>
@@ -27740,7 +27792,7 @@
         <v>3112</v>
       </c>
       <c r="P240" s="5" t="s">
-        <v>365</v>
+        <v>3027</v>
       </c>
       <c r="Q240" s="5" t="s">
         <v>3113</v>
@@ -27776,52 +27828,52 @@
         <v>25</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>26</v>
+        <v>3119</v>
+      </c>
+      <c r="E241" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F241" s="5" t="n">
-        <v>1990</v>
+        <v>2017</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="I241" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>1039</v>
+        <v>3121</v>
       </c>
       <c r="K241" s="5" t="s">
-        <v>2716</v>
+        <v>3122</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="M241" s="5" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="N241" s="5" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="O241" s="5" t="s">
-        <v>3123</v>
+        <v>3126</v>
       </c>
       <c r="P241" s="5" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="Q241" s="5" t="s">
-        <v>3124</v>
+        <v>3127</v>
       </c>
       <c r="R241" s="5" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="S241" s="5" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="T241" s="5" t="s">
         <v>106</v>
@@ -27833,16 +27885,16 @@
         <v>106</v>
       </c>
       <c r="W241" s="5" t="s">
-        <v>3127</v>
+        <v>3130</v>
       </c>
       <c r="X241" s="5"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>25</v>
@@ -27857,43 +27909,43 @@
         <v>1990</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>1956</v>
+        <v>3133</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>3130</v>
+        <v>1039</v>
       </c>
       <c r="K242" s="5" t="s">
-        <v>3131</v>
+        <v>2730</v>
       </c>
       <c r="L242" s="5" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="M242" s="5" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
       <c r="N242" s="5" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="O242" s="5" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="P242" s="5" t="s">
-        <v>71</v>
+        <v>419</v>
       </c>
       <c r="Q242" s="5" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="R242" s="5" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="S242" s="5" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="T242" s="5" t="s">
         <v>106</v>
@@ -27905,16 +27957,16 @@
         <v>106</v>
       </c>
       <c r="W242" s="5" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="X242" s="5"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>25</v>
@@ -27926,46 +27978,46 @@
         <v>26</v>
       </c>
       <c r="F243" s="5" t="n">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>2144</v>
+        <v>1956</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J243" s="5" t="s">
-        <v>996</v>
+        <v>3144</v>
       </c>
       <c r="K243" s="5" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="M243" s="5" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="N243" s="5" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="O243" s="5" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="P243" s="5" t="s">
-        <v>419</v>
+        <v>71</v>
       </c>
       <c r="Q243" s="5" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="R243" s="5" t="s">
-        <v>38</v>
+        <v>3151</v>
       </c>
       <c r="S243" s="5" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="T243" s="5" t="s">
         <v>106</v>
@@ -27977,67 +28029,67 @@
         <v>106</v>
       </c>
       <c r="W243" s="5" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="X243" s="5"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1457</v>
+        <v>26</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F244" s="5" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>3152</v>
+        <v>2144</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J244" s="5" t="s">
-        <v>3153</v>
+        <v>996</v>
       </c>
       <c r="K244" s="5" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="L244" s="5" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="M244" s="5" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="N244" s="5" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="O244" s="5" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="P244" s="5" t="s">
-        <v>141</v>
+        <v>419</v>
       </c>
       <c r="Q244" s="5" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="R244" s="5" t="s">
-        <v>3160</v>
+        <v>38</v>
       </c>
       <c r="S244" s="5" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="T244" s="5" t="s">
         <v>106</v>
@@ -28048,68 +28100,68 @@
       <c r="V244" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W244" s="4" t="s">
-        <v>3162</v>
-      </c>
-      <c r="X244" s="4"/>
+      <c r="W244" s="5" t="s">
+        <v>3163</v>
+      </c>
+      <c r="X244" s="5"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>26</v>
+        <v>1457</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F245" s="5" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>2169</v>
+        <v>3166</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J245" s="5" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="K245" s="5" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="L245" s="5" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="O245" s="5" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="P245" s="5" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="Q245" s="5" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="R245" s="5" t="s">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="S245" s="5" t="s">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="T245" s="5" t="s">
         <v>106</v>
@@ -28120,17 +28172,17 @@
       <c r="V245" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W245" s="5" t="s">
-        <v>3174</v>
-      </c>
-      <c r="X245" s="5"/>
+      <c r="W245" s="4" t="s">
+        <v>3176</v>
+      </c>
+      <c r="X245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>25</v>
@@ -28142,46 +28194,46 @@
         <v>26</v>
       </c>
       <c r="F246" s="5" t="n">
-        <v>1979</v>
+        <v>2008</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>3177</v>
+        <v>2169</v>
       </c>
       <c r="I246" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>623</v>
+        <v>3179</v>
       </c>
       <c r="K246" s="5" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="O246" s="5" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="P246" s="5" t="s">
-        <v>419</v>
+        <v>204</v>
       </c>
       <c r="Q246" s="5" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="R246" s="5" t="s">
-        <v>38</v>
+        <v>3186</v>
       </c>
       <c r="S246" s="5" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="T246" s="5" t="s">
         <v>106</v>
@@ -28193,31 +28245,31 @@
         <v>106</v>
       </c>
       <c r="W246" s="5" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="X246" s="5"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>3188</v>
+        <v>25</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>3189</v>
+        <v>26</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F247" s="5" t="n">
-        <v>2008</v>
+        <v>1979</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>3190</v>
+        <v>27</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>3191</v>
@@ -28226,34 +28278,34 @@
         <v>29</v>
       </c>
       <c r="J247" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="K247" s="5" t="s">
         <v>3192</v>
       </c>
-      <c r="K247" s="5" t="s">
+      <c r="L247" s="5" t="s">
         <v>3193</v>
       </c>
-      <c r="L247" s="5" t="s">
+      <c r="M247" s="5" t="s">
         <v>3194</v>
       </c>
-      <c r="M247" s="5" t="s">
+      <c r="N247" s="5" t="s">
         <v>3195</v>
       </c>
-      <c r="N247" s="5" t="s">
+      <c r="O247" s="5" t="s">
         <v>3196</v>
       </c>
-      <c r="O247" s="5" t="s">
+      <c r="P247" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q247" s="5" t="s">
         <v>3197</v>
       </c>
-      <c r="P247" s="5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Q247" s="5" t="s">
+      <c r="R247" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S247" s="5" t="s">
         <v>3198</v>
-      </c>
-      <c r="R247" s="5" t="s">
-        <v>2235</v>
-      </c>
-      <c r="S247" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="T247" s="5" t="s">
         <v>106</v>
@@ -28277,55 +28329,55 @@
         <v>3201</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>25</v>
+        <v>3202</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>26</v>
+        <v>3203</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F248" s="5" t="n">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>315</v>
+        <v>3204</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>2727</v>
+        <v>3205</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>1380</v>
+        <v>29</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="K248" s="5" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="N248" s="5" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="O248" s="5" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>322</v>
+        <v>1199</v>
       </c>
       <c r="Q248" s="5" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="R248" s="5" t="s">
-        <v>158</v>
+        <v>2250</v>
       </c>
       <c r="S248" s="5" t="s">
-        <v>3209</v>
+        <v>106</v>
       </c>
       <c r="T248" s="5" t="s">
         <v>106</v>
@@ -28337,16 +28389,16 @@
         <v>106</v>
       </c>
       <c r="W248" s="5" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="X248" s="5"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>25</v>
@@ -28358,46 +28410,46 @@
         <v>26</v>
       </c>
       <c r="F249" s="5" t="n">
-        <v>1971</v>
+        <v>1988</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>2144</v>
+        <v>2741</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>29</v>
+        <v>1380</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="K249" s="5" t="s">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="M249" s="5" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
       <c r="N249" s="5" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="O249" s="5" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>107</v>
+        <v>322</v>
       </c>
       <c r="Q249" s="5" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="R249" s="5" t="s">
-        <v>2932</v>
+        <v>158</v>
       </c>
       <c r="S249" s="5" t="s">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="T249" s="5" t="s">
         <v>106</v>
@@ -28409,16 +28461,16 @@
         <v>106</v>
       </c>
       <c r="W249" s="5" t="s">
-        <v>3221</v>
+        <v>3224</v>
       </c>
       <c r="X249" s="5"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>25</v>
@@ -28430,46 +28482,46 @@
         <v>26</v>
       </c>
       <c r="F250" s="5" t="n">
-        <v>2017</v>
+        <v>1971</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>3224</v>
+        <v>2144</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J250" s="5" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>3227</v>
+        <v>3229</v>
       </c>
       <c r="M250" s="5" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="N250" s="5" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="O250" s="5" t="s">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="P250" s="5" t="s">
-        <v>1280</v>
+        <v>107</v>
       </c>
       <c r="Q250" s="5" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="R250" s="5" t="s">
-        <v>3232</v>
+        <v>2946</v>
       </c>
       <c r="S250" s="5" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="T250" s="5" t="s">
         <v>106</v>
@@ -28481,67 +28533,67 @@
         <v>106</v>
       </c>
       <c r="W250" s="5" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="X250" s="5"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>1457</v>
+        <v>26</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F251" s="5" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>2510</v>
+        <v>3238</v>
       </c>
       <c r="I251" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>3239</v>
+        <v>3241</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="N251" s="5" t="s">
-        <v>3241</v>
+        <v>3243</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>290</v>
+        <v>1280</v>
       </c>
       <c r="Q251" s="5" t="s">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="R251" s="5" t="s">
-        <v>2281</v>
+        <v>3246</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>3244</v>
+        <v>3247</v>
       </c>
       <c r="T251" s="5" t="s">
         <v>106</v>
@@ -28552,68 +28604,68 @@
       <c r="V251" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W251" s="4" t="s">
-        <v>3245</v>
-      </c>
-      <c r="X251" s="4"/>
+      <c r="W251" s="5" t="s">
+        <v>3248</v>
+      </c>
+      <c r="X251" s="5"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>3246</v>
+        <v>3249</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>3247</v>
+        <v>3250</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>3247</v>
-      </c>
-      <c r="E252" s="6" t="n">
-        <v>1</v>
+        <v>1457</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F252" s="5" t="n">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>2727</v>
+        <v>2524</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>1039</v>
+        <v>3251</v>
       </c>
       <c r="K252" s="5" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="M252" s="5" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="N252" s="5" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="O252" s="5" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>1280</v>
+        <v>290</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
       <c r="R252" s="5" t="s">
-        <v>3254</v>
+        <v>2296</v>
       </c>
       <c r="S252" s="5" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="T252" s="5" t="s">
         <v>106</v>
@@ -28624,68 +28676,68 @@
       <c r="V252" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W252" s="5" t="s">
-        <v>3256</v>
-      </c>
-      <c r="X252" s="5"/>
+      <c r="W252" s="4" t="s">
+        <v>3259</v>
+      </c>
+      <c r="X252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>3258</v>
+        <v>3261</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>3247</v>
+        <v>3261</v>
       </c>
       <c r="E253" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F253" s="5" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>3259</v>
+        <v>2741</v>
       </c>
       <c r="I253" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>996</v>
+        <v>1039</v>
       </c>
       <c r="K253" s="5" t="s">
-        <v>3248</v>
+        <v>3262</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>3261</v>
+        <v>3264</v>
       </c>
       <c r="N253" s="5" t="s">
-        <v>3262</v>
+        <v>3265</v>
       </c>
       <c r="O253" s="5" t="s">
-        <v>3263</v>
+        <v>3266</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>629</v>
+        <v>1280</v>
       </c>
       <c r="Q253" s="5" t="s">
-        <v>3264</v>
+        <v>3267</v>
       </c>
       <c r="R253" s="5" t="s">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="S253" s="5" t="s">
-        <v>3266</v>
+        <v>3269</v>
       </c>
       <c r="T253" s="5" t="s">
         <v>106</v>
@@ -28697,67 +28749,67 @@
         <v>106</v>
       </c>
       <c r="W253" s="5" t="s">
-        <v>3267</v>
+        <v>3270</v>
       </c>
       <c r="X253" s="5"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>3268</v>
+        <v>3271</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>3247</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>26</v>
+        <v>3261</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F254" s="5" t="n">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1825</v>
+        <v>3273</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>567</v>
+        <v>996</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>82</v>
+        <v>3262</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="N254" s="5" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
       <c r="O254" s="5" t="s">
-        <v>3273</v>
+        <v>3277</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>461</v>
+        <v>629</v>
       </c>
       <c r="Q254" s="5" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="R254" s="5" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="S254" s="5" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="T254" s="5" t="s">
         <v>106</v>
@@ -28769,67 +28821,67 @@
         <v>106</v>
       </c>
       <c r="W254" s="5" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="X254" s="5"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D255" s="5" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E255" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E255" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F255" s="5" t="n">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>1944</v>
+        <v>1825</v>
       </c>
       <c r="I255" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J255" s="5" t="s">
-        <v>3280</v>
+        <v>567</v>
       </c>
       <c r="K255" s="5" t="s">
-        <v>3281</v>
+        <v>82</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="O255" s="5" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="Q255" s="5" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="R255" s="5" t="s">
-        <v>89</v>
+        <v>3289</v>
       </c>
       <c r="S255" s="5" t="s">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="T255" s="5" t="s">
         <v>106</v>
@@ -28841,16 +28893,16 @@
         <v>106</v>
       </c>
       <c r="W255" s="5" t="s">
-        <v>3288</v>
+        <v>3291</v>
       </c>
       <c r="X255" s="5"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>25</v>
@@ -28862,46 +28914,46 @@
         <v>26</v>
       </c>
       <c r="F256" s="5" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>2624</v>
+        <v>1944</v>
       </c>
       <c r="I256" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>333</v>
+        <v>3294</v>
       </c>
       <c r="K256" s="5" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="Q256" s="5" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="R256" s="5" t="s">
-        <v>3297</v>
+        <v>89</v>
       </c>
       <c r="S256" s="5" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="T256" s="5" t="s">
         <v>106</v>
@@ -28913,111 +28965,183 @@
         <v>106</v>
       </c>
       <c r="W256" s="5" t="s">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="X256" s="5"/>
     </row>
-    <row r="257" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14" t="s">
-        <v>3300</v>
-      </c>
-      <c r="B257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="S257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="V257" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="W257" s="14" t="s">
-        <v>106</v>
-      </c>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F257" s="5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I257" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J257" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K257" s="5" t="s">
+        <v>3305</v>
+      </c>
+      <c r="L257" s="5" t="s">
+        <v>3306</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>3307</v>
+      </c>
+      <c r="N257" s="5" t="s">
+        <v>3308</v>
+      </c>
+      <c r="O257" s="5" t="s">
+        <v>3309</v>
+      </c>
+      <c r="P257" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q257" s="5" t="s">
+        <v>3310</v>
+      </c>
+      <c r="R257" s="5" t="s">
+        <v>3311</v>
+      </c>
+      <c r="S257" s="5" t="s">
+        <v>3312</v>
+      </c>
+      <c r="T257" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U257" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V257" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W257" s="5" t="s">
+        <v>3313</v>
+      </c>
+      <c r="X257" s="5"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="15" t="s">
-        <v>3301</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>3302</v>
+    <row r="258" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A258" s="15" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="T258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="U258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="V258" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="W258" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="15" t="s">
-        <v>3303</v>
+      <c r="A260" s="16" t="s">
+        <v>3315</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3304</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
-        <v>3305</v>
+      <c r="A261" s="16" t="s">
+        <v>3317</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3306</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="16" t="s">
-        <v>3307</v>
+      <c r="A262" s="1" t="s">
+        <v>3319</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3308</v>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A263" s="17" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>3322</v>
       </c>
     </row>
   </sheetData>
@@ -29155,7 +29279,7 @@
     <hyperlink ref="T91" r:id="rId131" display="https://www.rogerebert.com/reviews/godzilla-2014"/>
     <hyperlink ref="N116" r:id="rId132" display="https://youtu.be/ZmNsn-kiogE?si=V0kDtE6Ob-Le_ZJa"/>
     <hyperlink ref="Q133" r:id="rId133" display="https://www.imdb.com/title/tt1276104/?ref_=fn_all_ttl_1"/>
-    <hyperlink ref="W217" r:id="rId134" display="https://xl.movieposterdb.com/06_05/2002/0286106/xl_116531_0286106_64875aa4.jpg?v=2024-07-07%2004:58:53"/>
+    <hyperlink ref="W218" r:id="rId134" display="https://xl.movieposterdb.com/06_05/2002/0286106/xl_116531_0286106_64875aa4.jpg?v=2024-07-07%2004:58:53"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="3363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="3404">
   <si>
     <t xml:space="preserve">Tag</t>
   </si>
@@ -9500,6 +9500,130 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.themoviedb.org/t/p/w600_and_h900_bestv2/5M0j0B18abtBI5gi2RhfjjurTqb.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the_thing_from_another_world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Thing From Another World!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h 27m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Nyby, Howard Hawks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth Tobey, Margaret Sheridan, James Arness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientists and American Air Force officials fend off a bloodthirsty alien organism while at a remote arctic outpost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/T5dwbZKd64Y?si=Uy2rA9_U3Dlj6i0E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/T5dwbZKd64Y?si=Uy2rA9_U3Dlj6i0E" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0044121/?ref_=nv_sr_srsg_0_tt_8_nm_0_in_0_q_the%2520thing%2520from%2520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critics 87% / Audience 73%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/1021242-thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.slantmagazine.com/film/the-thing-from-another-world/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Schager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 – Legend has it that Christian Nyby’s The Thing from Another World was actually helmed by producer Howard Hawks. The film certainly provides ample evidence to suggest that such a covert switch occurred, given the controlled atmosphere of dread and the rapid-fire repartee between the primary players. Nonetheless, what’s most remarkable about The Thing from Another World (remade in 1982 by John Carpenter as The Thing) is its continued ability to function as both a taut science-fiction thriller and a telling snapshot of the Cold War paranoia that was beginning to sweep the country in post-WWII America.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/rm2w8dEhOGDuckB6i0Spz9lTzpR.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the_thing_john_carpenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horror, Mystery, Sci-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Carpenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurt Russell, Wilford Brimley, Keith David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A research team in Antarctica is hunted by a shape-shifting alien that assumes the appearance of its victims.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/5ftmr17M-a4?si=ywTfWv_z_1fd0_ua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/5ftmr17M-a4?si=ywTfWv_z_1fd0_ua" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0084787/?ref_=fn_all_ttl_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critics 85% / Audience 92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/1021244-thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/reviews/the-thing-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5/4 - “The Thing” is a great barf-bag movie, all right, but is it any good? I found it disappointing, for two reasons: the superficial characterizations and the implausible behavior of the scientists on that icy outpost. Characters have never been Carpenter’s strong point; he says he likes his movies to create emotions in his audiences, and I guess he’d rather see us jump six inches than get involved in the personalities of his characters. This time, though, despite some roughed-out typecasting and a few reliable stereotypes (the drunk, the psycho, the hero), he has populated his ice station with people whose primary purpose in life is to get jumped on from behind. The few scenes that develop characterizations are overwhelmed by the scenes in which the men are just setups for an attack by the Thing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/a9RjXOIIB56k2rGoL3Fk3nRHHHQ.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the_thing_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthijs van Heijninger Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Elizabeth Winstead, Joel Edgerton, Ulrich Thomsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A group of scientists researching an alien spaceship found in the Antarctic come face to face with the ship's, not quite dead, occupant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/Txjm94GnrPA?si=a7ikn_v6SPvNfgM_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/Txjm94GnrPA?si=a7ikn_v6SPvNfgM_" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0905372/?ref_=fn_all_ttl_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critics 34% / Audience 43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/the_thing_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/reviews/the-thing-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5/4 - Imagine a creature that can exactly imitate the body and behavior of another life form — so well it could fool you into thinking it was your best friend. This Thing journeys the cosmos and mimics the aliens it encounters. Then it reveals its true appearance, which is a hideous and leaky smorgasbord of palpitating organs, claws, teeth, crab legs, lobster tails, beaks, snaky appendages and gooey dripping eyeballs. It doesn’t say much for life in the universe that with whole galaxies to choose from, that’s the best body it could come up with.
+The source is one of the most durable science-fiction stories of all time. Written as “Who Goes There?” by John W. Campbell Jr., it inspired a 1951 film by Howard Hawks, and a 1982 remake by John Carpenter. Its idea for an alien also transmuted into two versions of “Invasion of the Body Snatchers” and all of the “Alien” movies. In the 1950s, the earlier movies were read as allegories of the communist menace: Ordinary Americans were infested with Marxism, and although they continued to resemble your husband, cousin or boss, secretly they were a manifestation of an alien ideology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/dmn2nVo8h7LMnk694JxCRIwK06p.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">thor_3_ragnarok</t>
@@ -10335,18 +10459,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO266"/>
+  <dimension ref="A1:BO269"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A161" activeCellId="0" sqref="A161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O231" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W244" activeCellId="0" sqref="W244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.63"/>
@@ -14861,7 +14985,7 @@
       <c r="J59" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="K59" s="0" t="s">
+      <c r="K59" s="10" t="s">
         <v>943</v>
       </c>
       <c r="L59" s="5" t="s">
@@ -28078,7 +28202,7 @@
       </c>
       <c r="X242" s="5"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>3147</v>
       </c>
@@ -28150,7 +28274,7 @@
       </c>
       <c r="X243" s="5"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>3158</v>
       </c>
@@ -28163,14 +28287,14 @@
       <c r="D244" s="5" t="s">
         <v>3160</v>
       </c>
-      <c r="E244" s="5" t="n">
-        <v>3</v>
+      <c r="E244" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F244" s="5" t="n">
-        <v>2017</v>
+        <v>1951</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="H244" s="5" t="s">
         <v>3161</v>
@@ -28179,250 +28303,250 @@
         <v>29</v>
       </c>
       <c r="J244" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K244" s="5" t="s">
         <v>3162</v>
       </c>
-      <c r="K244" s="5" t="s">
+      <c r="L244" s="5" t="s">
         <v>3163</v>
       </c>
-      <c r="L244" s="5" t="s">
+      <c r="M244" s="5" t="s">
         <v>3164</v>
       </c>
-      <c r="M244" s="5" t="s">
+      <c r="N244" s="5" t="s">
         <v>3165</v>
       </c>
-      <c r="N244" s="5" t="s">
+      <c r="O244" s="5" t="s">
         <v>3166</v>
       </c>
-      <c r="O244" s="5" t="s">
+      <c r="P244" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q244" s="5" t="s">
         <v>3167</v>
       </c>
-      <c r="P244" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q244" s="5" t="s">
+      <c r="R244" s="5" t="s">
         <v>3168</v>
       </c>
-      <c r="R244" s="5" t="s">
+      <c r="S244" s="5" t="s">
         <v>3169</v>
       </c>
-      <c r="S244" s="5" t="s">
+      <c r="T244" s="5" t="s">
         <v>3170</v>
       </c>
-      <c r="T244" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="U244" s="5" t="s">
-        <v>106</v>
+        <v>3171</v>
       </c>
       <c r="V244" s="5" t="s">
-        <v>106</v>
+        <v>3172</v>
       </c>
       <c r="W244" s="5" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="X244" s="5"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>3173</v>
+        <v>3160</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D245" s="5" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E245" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E245" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F245" s="5" t="n">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>3174</v>
+        <v>229</v>
       </c>
       <c r="I245" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J245" s="5" t="s">
-        <v>1067</v>
+        <v>3175</v>
       </c>
       <c r="K245" s="5" t="s">
-        <v>2771</v>
+        <v>3176</v>
       </c>
       <c r="L245" s="5" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="O245" s="5" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="P245" s="5" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="Q245" s="5" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="R245" s="5" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="S245" s="5" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="T245" s="5" t="s">
-        <v>106</v>
+        <v>3184</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V245" s="5" t="s">
-        <v>106</v>
+        <v>3185</v>
       </c>
       <c r="W245" s="5" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="X245" s="5"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="884.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>3184</v>
+        <v>3160</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D246" s="5" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E246" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F246" s="5" t="n">
-        <v>1990</v>
+        <v>2011</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>1984</v>
+        <v>870</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>3185</v>
+        <v>3175</v>
       </c>
       <c r="K246" s="5" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="O246" s="5" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="P246" s="5" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="Q246" s="5" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="R246" s="5" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="S246" s="5" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
       <c r="T246" s="5" t="s">
-        <v>106</v>
+        <v>3196</v>
       </c>
       <c r="U246" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V246" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
+      </c>
+      <c r="V246" s="8" t="s">
+        <v>3197</v>
       </c>
       <c r="W246" s="5" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="X246" s="5"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>26</v>
+        <v>3201</v>
+      </c>
+      <c r="E247" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F247" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>2172</v>
+        <v>3202</v>
       </c>
       <c r="I247" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>1024</v>
+        <v>3203</v>
       </c>
       <c r="K247" s="5" t="s">
-        <v>3197</v>
+        <v>3204</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>3198</v>
+        <v>3205</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>3199</v>
+        <v>3206</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>3200</v>
+        <v>3207</v>
       </c>
       <c r="O247" s="5" t="s">
-        <v>3201</v>
+        <v>3208</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="Q247" s="5" t="s">
-        <v>3202</v>
+        <v>3209</v>
       </c>
       <c r="R247" s="5" t="s">
-        <v>38</v>
+        <v>3210</v>
       </c>
       <c r="S247" s="5" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
       <c r="T247" s="5" t="s">
         <v>106</v>
@@ -28434,67 +28558,67 @@
         <v>106</v>
       </c>
       <c r="W247" s="5" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
       <c r="X247" s="5"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>3206</v>
+        <v>3214</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1485</v>
+        <v>26</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F248" s="5" t="n">
-        <v>2015</v>
+        <v>1990</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>3207</v>
+        <v>3215</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>3208</v>
+        <v>1067</v>
       </c>
       <c r="K248" s="5" t="s">
-        <v>3209</v>
+        <v>2771</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>3210</v>
+        <v>3216</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>3211</v>
+        <v>3217</v>
       </c>
       <c r="N248" s="5" t="s">
-        <v>3212</v>
+        <v>3218</v>
       </c>
       <c r="O248" s="5" t="s">
-        <v>3213</v>
+        <v>3219</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>141</v>
+        <v>419</v>
       </c>
       <c r="Q248" s="5" t="s">
-        <v>3214</v>
+        <v>3220</v>
       </c>
       <c r="R248" s="5" t="s">
-        <v>3215</v>
+        <v>3221</v>
       </c>
       <c r="S248" s="5" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="T248" s="5" t="s">
         <v>106</v>
@@ -28505,17 +28629,17 @@
       <c r="V248" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W248" s="4" t="s">
-        <v>3217</v>
-      </c>
-      <c r="X248" s="4"/>
+      <c r="W248" s="5" t="s">
+        <v>3223</v>
+      </c>
+      <c r="X248" s="5"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>3218</v>
+        <v>3224</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>3219</v>
+        <v>3225</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>25</v>
@@ -28527,46 +28651,46 @@
         <v>26</v>
       </c>
       <c r="F249" s="5" t="n">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>2210</v>
+        <v>1984</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>3220</v>
+        <v>3226</v>
       </c>
       <c r="K249" s="5" t="s">
-        <v>3221</v>
+        <v>3227</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>3222</v>
+        <v>3228</v>
       </c>
       <c r="M249" s="5" t="s">
-        <v>3223</v>
+        <v>3229</v>
       </c>
       <c r="N249" s="5" t="s">
-        <v>3224</v>
+        <v>3230</v>
       </c>
       <c r="O249" s="5" t="s">
-        <v>3225</v>
+        <v>3231</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="Q249" s="5" t="s">
-        <v>3226</v>
+        <v>3232</v>
       </c>
       <c r="R249" s="5" t="s">
-        <v>3227</v>
+        <v>3233</v>
       </c>
       <c r="S249" s="5" t="s">
-        <v>3228</v>
+        <v>3234</v>
       </c>
       <c r="T249" s="5" t="s">
         <v>106</v>
@@ -28578,16 +28702,16 @@
         <v>106</v>
       </c>
       <c r="W249" s="5" t="s">
-        <v>3229</v>
+        <v>3235</v>
       </c>
       <c r="X249" s="5"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>3230</v>
+        <v>3236</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>3231</v>
+        <v>3237</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>25</v>
@@ -28599,46 +28723,46 @@
         <v>26</v>
       </c>
       <c r="F250" s="5" t="n">
-        <v>1979</v>
+        <v>2018</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>3232</v>
+        <v>2172</v>
       </c>
       <c r="I250" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J250" s="5" t="s">
-        <v>623</v>
+        <v>1024</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>3233</v>
+        <v>3238</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>3234</v>
+        <v>3239</v>
       </c>
       <c r="M250" s="5" t="s">
-        <v>3235</v>
+        <v>3240</v>
       </c>
       <c r="N250" s="5" t="s">
-        <v>3236</v>
+        <v>3241</v>
       </c>
       <c r="O250" s="5" t="s">
-        <v>3237</v>
+        <v>3242</v>
       </c>
       <c r="P250" s="5" t="s">
         <v>419</v>
       </c>
       <c r="Q250" s="5" t="s">
-        <v>3238</v>
+        <v>3243</v>
       </c>
       <c r="R250" s="5" t="s">
         <v>38</v>
       </c>
       <c r="S250" s="5" t="s">
-        <v>3239</v>
+        <v>3244</v>
       </c>
       <c r="T250" s="5" t="s">
         <v>106</v>
@@ -28650,67 +28774,67 @@
         <v>106</v>
       </c>
       <c r="W250" s="5" t="s">
-        <v>3240</v>
+        <v>3245</v>
       </c>
       <c r="X250" s="5"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>3241</v>
+        <v>3246</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>3242</v>
+        <v>3247</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>3243</v>
+        <v>25</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>3244</v>
+        <v>1485</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F251" s="5" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>3245</v>
+        <v>27</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="N251" s="5" t="s">
-        <v>3251</v>
+        <v>3253</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>3252</v>
+        <v>3254</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1227</v>
+        <v>141</v>
       </c>
       <c r="Q251" s="5" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="R251" s="5" t="s">
-        <v>2291</v>
+        <v>3256</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>106</v>
+        <v>3257</v>
       </c>
       <c r="T251" s="5" t="s">
         <v>106</v>
@@ -28721,17 +28845,17 @@
       <c r="V251" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W251" s="5" t="s">
-        <v>3254</v>
-      </c>
-      <c r="X251" s="5"/>
+      <c r="W251" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="X251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>3256</v>
+        <v>3260</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>25</v>
@@ -28743,46 +28867,46 @@
         <v>26</v>
       </c>
       <c r="F252" s="5" t="n">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>2782</v>
+        <v>2210</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>1408</v>
+        <v>29</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
       <c r="K252" s="5" t="s">
-        <v>916</v>
+        <v>3262</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>3258</v>
+        <v>3263</v>
       </c>
       <c r="M252" s="5" t="s">
-        <v>3259</v>
+        <v>3264</v>
       </c>
       <c r="N252" s="5" t="s">
-        <v>3260</v>
+        <v>3265</v>
       </c>
       <c r="O252" s="5" t="s">
-        <v>3261</v>
+        <v>3266</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>322</v>
+        <v>204</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>3262</v>
+        <v>3267</v>
       </c>
       <c r="R252" s="5" t="s">
-        <v>158</v>
+        <v>3268</v>
       </c>
       <c r="S252" s="5" t="s">
-        <v>3263</v>
+        <v>3269</v>
       </c>
       <c r="T252" s="5" t="s">
         <v>106</v>
@@ -28794,16 +28918,16 @@
         <v>106</v>
       </c>
       <c r="W252" s="5" t="s">
-        <v>3264</v>
+        <v>3270</v>
       </c>
       <c r="X252" s="5"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>3265</v>
+        <v>3271</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>3266</v>
+        <v>3272</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>25</v>
@@ -28815,46 +28939,46 @@
         <v>26</v>
       </c>
       <c r="F253" s="5" t="n">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>2172</v>
+        <v>3273</v>
       </c>
       <c r="I253" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>3267</v>
+        <v>623</v>
       </c>
       <c r="K253" s="5" t="s">
-        <v>3268</v>
+        <v>3274</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>3269</v>
+        <v>3275</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>3270</v>
+        <v>3276</v>
       </c>
       <c r="N253" s="5" t="s">
-        <v>3271</v>
+        <v>3277</v>
       </c>
       <c r="O253" s="5" t="s">
-        <v>3272</v>
+        <v>3278</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>107</v>
+        <v>419</v>
       </c>
       <c r="Q253" s="5" t="s">
-        <v>3273</v>
+        <v>3279</v>
       </c>
       <c r="R253" s="5" t="s">
-        <v>2987</v>
+        <v>38</v>
       </c>
       <c r="S253" s="5" t="s">
-        <v>3274</v>
+        <v>3280</v>
       </c>
       <c r="T253" s="5" t="s">
         <v>106</v>
@@ -28866,67 +28990,67 @@
         <v>106</v>
       </c>
       <c r="W253" s="5" t="s">
-        <v>3275</v>
+        <v>3281</v>
       </c>
       <c r="X253" s="5"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>3276</v>
+        <v>3282</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>3277</v>
+        <v>3283</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>25</v>
+        <v>3284</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>26</v>
+        <v>3285</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F254" s="5" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>358</v>
+        <v>3286</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>3278</v>
+        <v>3287</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>3279</v>
+        <v>3288</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>3280</v>
+        <v>3289</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>3281</v>
+        <v>3290</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>3282</v>
+        <v>3291</v>
       </c>
       <c r="N254" s="5" t="s">
-        <v>3283</v>
+        <v>3292</v>
       </c>
       <c r="O254" s="5" t="s">
-        <v>3284</v>
+        <v>3293</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>1308</v>
+        <v>1227</v>
       </c>
       <c r="Q254" s="5" t="s">
-        <v>3285</v>
+        <v>3294</v>
       </c>
       <c r="R254" s="5" t="s">
-        <v>3286</v>
+        <v>2291</v>
       </c>
       <c r="S254" s="5" t="s">
-        <v>3287</v>
+        <v>106</v>
       </c>
       <c r="T254" s="5" t="s">
         <v>106</v>
@@ -28938,67 +29062,67 @@
         <v>106</v>
       </c>
       <c r="W254" s="5" t="s">
-        <v>3288</v>
+        <v>3295</v>
       </c>
       <c r="X254" s="5"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>3289</v>
+        <v>3296</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>3290</v>
+        <v>3297</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1485</v>
+        <v>26</v>
       </c>
       <c r="E255" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F255" s="5" t="n">
-        <v>2022</v>
+        <v>1988</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>2565</v>
+        <v>2782</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>64</v>
+        <v>1408</v>
       </c>
       <c r="J255" s="5" t="s">
-        <v>3291</v>
+        <v>3298</v>
       </c>
       <c r="K255" s="5" t="s">
-        <v>3292</v>
+        <v>916</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>3293</v>
+        <v>3299</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>3294</v>
+        <v>3300</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>3295</v>
+        <v>3301</v>
       </c>
       <c r="O255" s="5" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="Q255" s="5" t="s">
-        <v>3297</v>
+        <v>3303</v>
       </c>
       <c r="R255" s="5" t="s">
-        <v>2337</v>
+        <v>158</v>
       </c>
       <c r="S255" s="5" t="s">
-        <v>3298</v>
+        <v>3304</v>
       </c>
       <c r="T255" s="5" t="s">
         <v>106</v>
@@ -29009,68 +29133,68 @@
       <c r="V255" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W255" s="4" t="s">
-        <v>3299</v>
-      </c>
-      <c r="X255" s="4"/>
+      <c r="W255" s="5" t="s">
+        <v>3305</v>
+      </c>
+      <c r="X255" s="5"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>3300</v>
+        <v>3306</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>3301</v>
+        <v>3307</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>3301</v>
-      </c>
-      <c r="E256" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F256" s="5" t="n">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>2782</v>
+        <v>2172</v>
       </c>
       <c r="I256" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>1067</v>
+        <v>3308</v>
       </c>
       <c r="K256" s="5" t="s">
-        <v>3302</v>
+        <v>3309</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>3303</v>
+        <v>3310</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>3304</v>
+        <v>3311</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>3305</v>
+        <v>3312</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>3306</v>
+        <v>3313</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>1308</v>
+        <v>107</v>
       </c>
       <c r="Q256" s="5" t="s">
-        <v>3307</v>
+        <v>3314</v>
       </c>
       <c r="R256" s="5" t="s">
-        <v>3308</v>
+        <v>2987</v>
       </c>
       <c r="S256" s="5" t="s">
-        <v>3309</v>
+        <v>3315</v>
       </c>
       <c r="T256" s="5" t="s">
         <v>106</v>
@@ -29082,67 +29206,67 @@
         <v>106</v>
       </c>
       <c r="W256" s="5" t="s">
-        <v>3310</v>
+        <v>3316</v>
       </c>
       <c r="X256" s="5"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>3311</v>
+        <v>3317</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>3312</v>
+        <v>3318</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>3301</v>
-      </c>
-      <c r="E257" s="6" t="n">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F257" s="5" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>358</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>3313</v>
+        <v>3319</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>1024</v>
+        <v>3320</v>
       </c>
       <c r="K257" s="5" t="s">
-        <v>3302</v>
+        <v>3321</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>3314</v>
+        <v>3322</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>3315</v>
+        <v>3323</v>
       </c>
       <c r="N257" s="5" t="s">
-        <v>3316</v>
+        <v>3324</v>
       </c>
       <c r="O257" s="5" t="s">
-        <v>3317</v>
+        <v>3325</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>629</v>
+        <v>1308</v>
       </c>
       <c r="Q257" s="5" t="s">
-        <v>3318</v>
+        <v>3326</v>
       </c>
       <c r="R257" s="5" t="s">
-        <v>3319</v>
+        <v>3327</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>3320</v>
+        <v>3328</v>
       </c>
       <c r="T257" s="5" t="s">
         <v>106</v>
@@ -29154,67 +29278,67 @@
         <v>106</v>
       </c>
       <c r="W257" s="5" t="s">
-        <v>3321</v>
+        <v>3329</v>
       </c>
       <c r="X257" s="5"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>3322</v>
+        <v>3330</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>3323</v>
+        <v>3331</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>3301</v>
-      </c>
-      <c r="E258" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E258" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F258" s="5" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>1853</v>
+        <v>2565</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J258" s="5" t="s">
-        <v>567</v>
+        <v>3332</v>
       </c>
       <c r="K258" s="5" t="s">
-        <v>82</v>
+        <v>3333</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>3324</v>
+        <v>3334</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>3326</v>
+        <v>3336</v>
       </c>
       <c r="O258" s="5" t="s">
-        <v>3327</v>
+        <v>3337</v>
       </c>
       <c r="P258" s="5" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="Q258" s="5" t="s">
-        <v>3328</v>
+        <v>3338</v>
       </c>
       <c r="R258" s="5" t="s">
-        <v>3329</v>
+        <v>2337</v>
       </c>
       <c r="S258" s="5" t="s">
-        <v>3330</v>
+        <v>3339</v>
       </c>
       <c r="T258" s="5" t="s">
         <v>106</v>
@@ -29225,68 +29349,68 @@
       <c r="V258" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W258" s="5" t="s">
-        <v>3331</v>
-      </c>
-      <c r="X258" s="5"/>
+      <c r="W258" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="X258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>3332</v>
+        <v>3341</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>3333</v>
+        <v>3342</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>26</v>
+        <v>3342</v>
+      </c>
+      <c r="E259" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F259" s="5" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>1972</v>
+        <v>2782</v>
       </c>
       <c r="I259" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>3334</v>
+        <v>1067</v>
       </c>
       <c r="K259" s="5" t="s">
-        <v>3335</v>
+        <v>3343</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>3336</v>
+        <v>3344</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>3337</v>
+        <v>3345</v>
       </c>
       <c r="N259" s="5" t="s">
-        <v>3338</v>
+        <v>3346</v>
       </c>
       <c r="O259" s="5" t="s">
-        <v>3339</v>
+        <v>3347</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>419</v>
+        <v>1308</v>
       </c>
       <c r="Q259" s="5" t="s">
-        <v>3340</v>
+        <v>3348</v>
       </c>
       <c r="R259" s="5" t="s">
-        <v>89</v>
+        <v>3349</v>
       </c>
       <c r="S259" s="5" t="s">
-        <v>3341</v>
+        <v>3350</v>
       </c>
       <c r="T259" s="5" t="s">
         <v>106</v>
@@ -29298,67 +29422,67 @@
         <v>106</v>
       </c>
       <c r="W259" s="5" t="s">
-        <v>3342</v>
+        <v>3351</v>
       </c>
       <c r="X259" s="5"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>3343</v>
+        <v>3352</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>3344</v>
+        <v>3353</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>26</v>
+        <v>3342</v>
+      </c>
+      <c r="E260" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F260" s="5" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>2679</v>
+        <v>3354</v>
       </c>
       <c r="I260" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>333</v>
+        <v>1024</v>
       </c>
       <c r="K260" s="5" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>3346</v>
+        <v>3355</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>3347</v>
+        <v>3356</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>3348</v>
+        <v>3357</v>
       </c>
       <c r="O260" s="5" t="s">
-        <v>3349</v>
+        <v>3358</v>
       </c>
       <c r="P260" s="5" t="s">
-        <v>290</v>
+        <v>629</v>
       </c>
       <c r="Q260" s="5" t="s">
-        <v>3350</v>
+        <v>3359</v>
       </c>
       <c r="R260" s="5" t="s">
-        <v>3351</v>
+        <v>3360</v>
       </c>
       <c r="S260" s="5" t="s">
-        <v>3352</v>
+        <v>3361</v>
       </c>
       <c r="T260" s="5" t="s">
         <v>106</v>
@@ -29370,111 +29494,327 @@
         <v>106</v>
       </c>
       <c r="W260" s="5" t="s">
-        <v>3353</v>
+        <v>3362</v>
       </c>
       <c r="X260" s="5"/>
     </row>
-    <row r="261" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="15" t="s">
-        <v>3354</v>
-      </c>
-      <c r="B261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="M261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="O261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="R261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="S261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="T261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="U261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="V261" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="W261" s="15" t="s">
-        <v>106</v>
-      </c>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F261" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="K261" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L261" s="5" t="s">
+        <v>3365</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>3366</v>
+      </c>
+      <c r="N261" s="5" t="s">
+        <v>3367</v>
+      </c>
+      <c r="O261" s="5" t="s">
+        <v>3368</v>
+      </c>
+      <c r="P261" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q261" s="5" t="s">
+        <v>3369</v>
+      </c>
+      <c r="R261" s="5" t="s">
+        <v>3370</v>
+      </c>
+      <c r="S261" s="5" t="s">
+        <v>3371</v>
+      </c>
+      <c r="T261" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U261" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V261" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W261" s="5" t="s">
+        <v>3372</v>
+      </c>
+      <c r="X261" s="5"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="16" t="s">
-        <v>3355</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>3356</v>
-      </c>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F262" s="5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>3375</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>3376</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>3377</v>
+      </c>
+      <c r="M262" s="5" t="s">
+        <v>3378</v>
+      </c>
+      <c r="N262" s="5" t="s">
+        <v>3379</v>
+      </c>
+      <c r="O262" s="5" t="s">
+        <v>3380</v>
+      </c>
+      <c r="P262" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q262" s="5" t="s">
+        <v>3381</v>
+      </c>
+      <c r="R262" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S262" s="5" t="s">
+        <v>3382</v>
+      </c>
+      <c r="T262" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U262" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V262" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W262" s="5" t="s">
+        <v>3383</v>
+      </c>
+      <c r="X262" s="5"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="16" t="s">
-        <v>3357</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>3358</v>
-      </c>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F263" s="5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>2679</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J263" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K263" s="5" t="s">
+        <v>3386</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>3387</v>
+      </c>
+      <c r="M263" s="5" t="s">
+        <v>3388</v>
+      </c>
+      <c r="N263" s="5" t="s">
+        <v>3389</v>
+      </c>
+      <c r="O263" s="5" t="s">
+        <v>3390</v>
+      </c>
+      <c r="P263" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q263" s="5" t="s">
+        <v>3391</v>
+      </c>
+      <c r="R263" s="5" t="s">
+        <v>3392</v>
+      </c>
+      <c r="S263" s="5" t="s">
+        <v>3393</v>
+      </c>
+      <c r="T263" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U263" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V263" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W263" s="5" t="s">
+        <v>3394</v>
+      </c>
+      <c r="X263" s="5"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
-        <v>3359</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>3360</v>
+    <row r="264" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="15" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="T264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="U264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="V264" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="W264" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="17" t="s">
-        <v>3361</v>
+      <c r="A266" s="16" t="s">
+        <v>3396</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3362</v>
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A267" s="16" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="17" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>3403</v>
       </c>
     </row>
   </sheetData>

--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="3407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="3449">
   <si>
     <t xml:space="preserve">Tag</t>
   </si>
@@ -8356,6 +8356,42 @@
     <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/xJ9NnZK0PHJN48G4NH35C01xQ81.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">run_lola_run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Lola Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Tykwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franka Potente, Moritz Bleibtreu, Herbert Knaup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a botched money delivery, Lola has 20 minutes to come up with 100,000 Deutschmarks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/ZCYnsUdO6H0?si=hXUI7OB-hlumoHWB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/ZCYnsUdO6H0?si=hXUI7OB-hlumoHWB" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0130827/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/run_lola_run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/reviews/run-lola-run-1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 - Run Lola Run is essentially a film about itself, a closed loop of style. Movies about characters on the run usually involve a linear story The Fugitive comes to mind), but this one is basically about running–and about the way that movie action sequences have a life and logic of their own. I would not want to see a sequel to the film, and at 81 minutes it isn’t a second too short, but what it does, it does cheerfully, with great energy, and very well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/v0giIi4bTILVhNhJajet3WWY3FA.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">rush_hour_1</t>
   </si>
   <si>
@@ -9353,6 +9389,48 @@
   </si>
   <si>
     <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/rScplcvRHX7o7XK88SFb5mddo8y.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strange_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 25m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime, Drama, Sci-Fi, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralph Fiennes, Angela Bassett, Juliette Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A former cop turned street-hustler accidentally uncovers a conspiracy in Los Angeles in 1999.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/_DnLmuCcKRk?si=tDMyyHUFLcMYwsgW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/_DnLmuCcKRk?si=tDMyyHUFLcMYwsgW" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0114558/?ref_=fn_all_ttl_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critics 69% / Audience 73%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/strange_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/reviews/strange-days-1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/4 - It creates a convincing future landscape; it populates it with a hero who comes out of the noir tradition and is flawed and complex rather than simply heroic, and it provides a vocabulary. Look for &amp;quot;tapehead,&amp;quot; &amp;quot;jacking in&amp;quot; and the movie’s spin on &amp;quot;playback&amp;quot; to appear in the vernacular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/rY5BrDRcYAKE0BYmmT66YG6Uy5Q.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">terminator_1</t>
@@ -9654,6 +9732,54 @@
   </si>
   <si>
     <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/9mdwzm0vQpBfg6y5H43vs67XAi9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twilight_zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Twilight Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume 9, Episodes: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43, 57, 73, 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama, Fantasy, Horror, Mystery, Sci-Fi, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rod Sterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rod Sterling, Rovert McCord, Jay Overholts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinary people find themselves in extraordinarily astounding situations, which they each try to solve in a remarkable manner.  Episodes: 43 &amp;quot;Nick of Time&amp;quot;, 57 &amp;quot;The Prime Mover&amp;quot;, 73 &amp;quot;It&amp;$39;s a Good Life&amp;quot;, 63 &amp;quot;The Mind and the Master&amp;quot;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/ORbseYAkzRM?si=Kmi9lVFsGOqGC0qF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/ORbseYAkzRM?si=cH3Pv75Un6o9CfOV" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0052520/?ref_=fn_all_ttl_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/tv/the_twilight_zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/features/the-metaphor-years-writing-lessons-from-the-twilight-zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today, &amp;quot;The Twilight Zone&amp;quot; is thought of first as a sci-fi and fantasy anthology, with a dash of the &amp;quot;morality play&amp;quot; and cool twist endings. The show was definitely that. But it was also a vehicle for Serling and his collaborators to critique the United State&amp;#39; reactionary, xenophobic, and materialistic behavior, which included the censure and even blacklisting of citizens with socialist or communist sympathies, and the enforcement of racial segregation through violence. The late 1950s and early 1960s were a time of lingering McCarthyism, Cold War paranoia, rampant racism, and relentless pressure to conform to a middle American, white, heterosexual, three-kids-and-a-suburban-house idea of normalcy. Serling knew how to make accessible, entertaining, politically astute art in an era that was repressive and conformist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/coWkN4uvxP41T0JFZHttUhS2PBj.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">upgrade</t>
@@ -10468,13 +10594,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO274"/>
+  <dimension ref="A1:BO277"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W254" activeCellId="0" sqref="W254"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D255" activeCellId="0" sqref="D255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.52"/>
@@ -14056,7 +14182,7 @@
       <c r="V49" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="W49" s="0" t="s">
+      <c r="W49" s="10" t="s">
         <v>742</v>
       </c>
     </row>
@@ -26044,7 +26170,7 @@
       </c>
       <c r="X215" s="5"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>2776</v>
       </c>
@@ -26055,61 +26181,61 @@
         <v>25</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>2777</v>
-      </c>
-      <c r="E216" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F216" s="5" t="n">
         <v>1998</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>2154</v>
+        <v>183</v>
       </c>
       <c r="I216" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J216" s="5" t="s">
+      <c r="J216" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="K216" s="5" t="s">
         <v>2778</v>
       </c>
-      <c r="K216" s="5" t="s">
+      <c r="L216" s="5" t="s">
         <v>2779</v>
       </c>
-      <c r="L216" s="5" t="s">
+      <c r="M216" s="5" t="s">
         <v>2780</v>
       </c>
-      <c r="M216" s="5" t="s">
+      <c r="N216" s="5" t="s">
         <v>2781</v>
       </c>
-      <c r="N216" s="5" t="s">
+      <c r="O216" s="5" t="s">
         <v>2782</v>
       </c>
-      <c r="O216" s="5" t="s">
+      <c r="P216" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q216" s="5" t="s">
         <v>2783</v>
       </c>
-      <c r="P216" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q216" s="5" t="s">
+      <c r="R216" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="S216" s="5" t="s">
         <v>2784</v>
       </c>
-      <c r="R216" s="5" t="s">
+      <c r="T216" s="5" t="s">
         <v>2785</v>
       </c>
-      <c r="S216" s="5" t="s">
+      <c r="U216" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V216" s="5" t="s">
         <v>2786</v>
-      </c>
-      <c r="T216" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U216" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V216" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="W216" s="5" t="s">
         <v>2787</v>
@@ -26127,52 +26253,52 @@
         <v>25</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>2777</v>
+        <v>2789</v>
       </c>
       <c r="E217" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F217" s="5" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>2638</v>
+        <v>2154</v>
       </c>
       <c r="I217" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>2778</v>
+        <v>2790</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>2779</v>
+        <v>2791</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="M217" s="5" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="N217" s="5" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="O217" s="5" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="P217" s="5" t="s">
-        <v>394</v>
+        <v>157</v>
       </c>
       <c r="Q217" s="5" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="R217" s="5" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="S217" s="5" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="T217" s="5" t="s">
         <v>106</v>
@@ -26184,67 +26310,67 @@
         <v>106</v>
       </c>
       <c r="W217" s="5" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="X217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>2777</v>
+        <v>2789</v>
       </c>
       <c r="E218" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F218" s="5" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>2800</v>
+        <v>2638</v>
       </c>
       <c r="I218" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>2778</v>
+        <v>2790</v>
       </c>
       <c r="K218" s="5" t="s">
-        <v>2779</v>
+        <v>2791</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="M218" s="5" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="N218" s="5" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="O218" s="5" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="P218" s="5" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="Q218" s="5" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="R218" s="5" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="S218" s="5" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="T218" s="5" t="s">
         <v>106</v>
@@ -26256,43 +26382,43 @@
         <v>106</v>
       </c>
       <c r="W218" s="5" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="X218" s="5"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>26</v>
+        <v>2789</v>
+      </c>
+      <c r="E219" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F219" s="5" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>2297</v>
+        <v>2812</v>
       </c>
       <c r="I219" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>2811</v>
+        <v>2790</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>2812</v>
+        <v>2791</v>
       </c>
       <c r="L219" s="5" t="s">
         <v>2813</v>
@@ -26307,7 +26433,7 @@
         <v>2816</v>
       </c>
       <c r="P219" s="5" t="s">
-        <v>1683</v>
+        <v>250</v>
       </c>
       <c r="Q219" s="5" t="s">
         <v>2817</v>
@@ -26340,7 +26466,7 @@
         <v>2822</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>26</v>
@@ -26349,43 +26475,43 @@
         <v>26</v>
       </c>
       <c r="F220" s="5" t="n">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>2823</v>
+        <v>117</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>2824</v>
+        <v>2297</v>
       </c>
       <c r="I220" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J220" s="5" t="s">
+        <v>2823</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>2824</v>
+      </c>
+      <c r="L220" s="5" t="s">
         <v>2825</v>
       </c>
-      <c r="K220" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L220" s="5" t="s">
+      <c r="M220" s="5" t="s">
         <v>2826</v>
       </c>
-      <c r="M220" s="5" t="s">
+      <c r="N220" s="5" t="s">
         <v>2827</v>
       </c>
-      <c r="N220" s="5" t="s">
+      <c r="O220" s="5" t="s">
         <v>2828</v>
       </c>
-      <c r="O220" s="5" t="s">
+      <c r="P220" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="Q220" s="5" t="s">
         <v>2829</v>
       </c>
-      <c r="P220" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q220" s="5" t="s">
+      <c r="R220" s="5" t="s">
         <v>2830</v>
-      </c>
-      <c r="R220" s="5" t="s">
-        <v>2235</v>
       </c>
       <c r="S220" s="5" t="s">
         <v>2831</v>
@@ -26412,7 +26538,7 @@
         <v>2834</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>26</v>
@@ -26421,43 +26547,43 @@
         <v>26</v>
       </c>
       <c r="F221" s="5" t="n">
-        <v>2010</v>
+        <v>1973</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>117</v>
+        <v>2835</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>2659</v>
+        <v>2836</v>
       </c>
       <c r="I221" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>2836</v>
+        <v>106</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="M221" s="5" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="N221" s="5" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="O221" s="5" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="P221" s="5" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="Q221" s="5" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="R221" s="5" t="s">
-        <v>2842</v>
+        <v>2235</v>
       </c>
       <c r="S221" s="5" t="s">
         <v>2843</v>
@@ -26476,7 +26602,7 @@
       </c>
       <c r="X221" s="5"/>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>2845</v>
       </c>
@@ -26493,13 +26619,13 @@
         <v>26</v>
       </c>
       <c r="F222" s="5" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>1979</v>
+        <v>2659</v>
       </c>
       <c r="I222" s="5" t="s">
         <v>29</v>
@@ -26508,31 +26634,31 @@
         <v>2847</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>376</v>
+        <v>2848</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="M222" s="5" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="N222" s="5" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O222" s="5" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="P222" s="5" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="Q222" s="5" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="R222" s="5" t="s">
-        <v>766</v>
+        <v>2854</v>
       </c>
       <c r="S222" s="5" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="T222" s="5" t="s">
         <v>106</v>
@@ -26544,43 +26670,43 @@
         <v>106</v>
       </c>
       <c r="W222" s="5" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="X222" s="5"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>2857</v>
+        <v>26</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F223" s="5" t="n">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>429</v>
+        <v>1979</v>
       </c>
       <c r="I223" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J223" s="5" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="K223" s="5" t="s">
-        <v>2859</v>
+        <v>376</v>
       </c>
       <c r="L223" s="5" t="s">
         <v>2860</v>
@@ -26595,109 +26721,109 @@
         <v>2863</v>
       </c>
       <c r="P223" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q223" s="5" t="s">
         <v>2864</v>
       </c>
-      <c r="Q223" s="5" t="s">
+      <c r="R223" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="S223" s="5" t="s">
         <v>2865</v>
       </c>
-      <c r="R223" s="5" t="s">
-        <v>1900</v>
-      </c>
-      <c r="S223" s="5" t="s">
+      <c r="T223" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U223" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V223" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W223" s="5" t="s">
         <v>2866</v>
-      </c>
-      <c r="T223" s="5" t="s">
-        <v>2867</v>
-      </c>
-      <c r="U223" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V223" s="5" t="s">
-        <v>2868</v>
-      </c>
-      <c r="W223" s="5" t="s">
-        <v>2869</v>
       </c>
       <c r="X223" s="5"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>26</v>
+        <v>2869</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F224" s="5" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>2872</v>
+        <v>429</v>
       </c>
       <c r="I224" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J224" s="5" t="s">
+        <v>2870</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>2871</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>2872</v>
+      </c>
+      <c r="M224" s="5" t="s">
         <v>2873</v>
       </c>
-      <c r="K224" s="5" t="s">
+      <c r="N224" s="5" t="s">
         <v>2874</v>
       </c>
-      <c r="L224" s="5" t="s">
+      <c r="O224" s="5" t="s">
         <v>2875</v>
       </c>
-      <c r="M224" s="5" t="s">
+      <c r="P224" s="5" t="s">
         <v>2876</v>
       </c>
-      <c r="N224" s="5" t="s">
+      <c r="Q224" s="5" t="s">
         <v>2877</v>
       </c>
-      <c r="O224" s="5" t="s">
+      <c r="R224" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="S224" s="5" t="s">
         <v>2878</v>
       </c>
-      <c r="P224" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q224" s="5" t="s">
+      <c r="T224" s="5" t="s">
         <v>2879</v>
-      </c>
-      <c r="R224" s="5" t="s">
-        <v>2880</v>
-      </c>
-      <c r="S224" s="5" t="s">
-        <v>2881</v>
-      </c>
-      <c r="T224" s="5" t="s">
-        <v>2882</v>
       </c>
       <c r="U224" s="5" t="s">
         <v>41</v>
       </c>
       <c r="V224" s="5" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="W224" s="5" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="X224" s="5"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>25</v>
@@ -26709,67 +26835,67 @@
         <v>26</v>
       </c>
       <c r="F225" s="5" t="n">
-        <v>1952</v>
+        <v>2002</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>2754</v>
+        <v>2884</v>
       </c>
       <c r="I225" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J225" s="5" t="s">
+        <v>2885</v>
+      </c>
+      <c r="K225" s="5" t="s">
+        <v>2886</v>
+      </c>
+      <c r="L225" s="5" t="s">
         <v>2887</v>
       </c>
-      <c r="K225" s="5" t="s">
+      <c r="M225" s="5" t="s">
         <v>2888</v>
       </c>
-      <c r="L225" s="5" t="s">
+      <c r="N225" s="5" t="s">
         <v>2889</v>
       </c>
-      <c r="M225" s="5" t="s">
+      <c r="O225" s="5" t="s">
         <v>2890</v>
       </c>
-      <c r="N225" s="5" t="s">
+      <c r="P225" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q225" s="5" t="s">
         <v>2891</v>
       </c>
-      <c r="O225" s="5" t="s">
+      <c r="R225" s="5" t="s">
         <v>2892</v>
       </c>
-      <c r="P225" s="5" t="s">
-        <v>1104</v>
-      </c>
-      <c r="Q225" s="5" t="s">
+      <c r="S225" s="5" t="s">
         <v>2893</v>
       </c>
-      <c r="R225" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="S225" s="5" t="s">
+      <c r="T225" s="5" t="s">
         <v>2894</v>
       </c>
-      <c r="T225" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="U225" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V225" s="5" t="s">
-        <v>106</v>
+        <v>2895</v>
       </c>
       <c r="W225" s="5" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="X225" s="5"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>25</v>
@@ -26781,13 +26907,13 @@
         <v>26</v>
       </c>
       <c r="F226" s="5" t="n">
-        <v>2012</v>
+        <v>1952</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>2898</v>
+        <v>2754</v>
       </c>
       <c r="I226" s="5" t="s">
         <v>29</v>
@@ -26811,37 +26937,37 @@
         <v>2904</v>
       </c>
       <c r="P226" s="5" t="s">
-        <v>394</v>
+        <v>1104</v>
       </c>
       <c r="Q226" s="5" t="s">
         <v>2905</v>
       </c>
       <c r="R226" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="S226" s="5" t="s">
         <v>2906</v>
       </c>
-      <c r="S226" s="5" t="s">
+      <c r="T226" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U226" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V226" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W226" s="5" t="s">
         <v>2907</v>
-      </c>
-      <c r="T226" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U226" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V226" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W226" s="5" t="s">
-        <v>2908</v>
       </c>
       <c r="X226" s="5"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>2909</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>2910</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>25</v>
@@ -26853,46 +26979,46 @@
         <v>26</v>
       </c>
       <c r="F227" s="5" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>2264</v>
+        <v>2910</v>
       </c>
       <c r="I227" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J227" s="5" t="s">
-        <v>969</v>
+        <v>2911</v>
       </c>
       <c r="K227" s="5" t="s">
-        <v>2177</v>
+        <v>2912</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="M227" s="5" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="N227" s="5" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="O227" s="5" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="P227" s="5" t="s">
-        <v>535</v>
+        <v>394</v>
       </c>
       <c r="Q227" s="5" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="R227" s="5" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="S227" s="5" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="T227" s="5" t="s">
         <v>106</v>
@@ -26904,19 +27030,19 @@
         <v>106</v>
       </c>
       <c r="W227" s="5" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="X227" s="5"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>26</v>
@@ -26925,118 +27051,118 @@
         <v>26</v>
       </c>
       <c r="F228" s="5" t="n">
-        <v>1967</v>
+        <v>2013</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>2921</v>
+        <v>27</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>2922</v>
+        <v>2264</v>
       </c>
       <c r="I228" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J228" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>2177</v>
+      </c>
+      <c r="L228" s="5" t="s">
         <v>2923</v>
       </c>
-      <c r="K228" s="5" t="s">
+      <c r="M228" s="5" t="s">
         <v>2924</v>
       </c>
-      <c r="L228" s="5" t="s">
+      <c r="N228" s="5" t="s">
         <v>2925</v>
       </c>
-      <c r="M228" s="5" t="s">
+      <c r="O228" s="5" t="s">
         <v>2926</v>
       </c>
-      <c r="N228" s="5" t="s">
+      <c r="P228" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q228" s="5" t="s">
         <v>2927</v>
       </c>
-      <c r="O228" s="5" t="s">
+      <c r="R228" s="5" t="s">
         <v>2928</v>
       </c>
-      <c r="P228" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q228" s="5" t="s">
+      <c r="S228" s="5" t="s">
         <v>2929</v>
       </c>
-      <c r="R228" s="5" t="s">
-        <v>2633</v>
-      </c>
-      <c r="S228" s="5" t="s">
+      <c r="T228" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U228" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V228" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W228" s="5" t="s">
         <v>2930</v>
-      </c>
-      <c r="T228" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U228" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V228" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W228" s="5" t="s">
-        <v>2931</v>
       </c>
       <c r="X228" s="5"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>2932</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="C229" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229" s="5" t="n">
+        <v>1967</v>
+      </c>
+      <c r="G229" s="5" t="s">
         <v>2933</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>2933</v>
-      </c>
-      <c r="E229" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F229" s="6" t="n">
-        <v>2002</v>
-      </c>
-      <c r="G229" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="H229" s="5" t="s">
-        <v>1979</v>
+        <v>2934</v>
       </c>
       <c r="I229" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>1012</v>
+        <v>2935</v>
       </c>
       <c r="K229" s="5" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="M229" s="5" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="N229" s="5" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="O229" s="5" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="P229" s="5" t="s">
-        <v>644</v>
+        <v>71</v>
       </c>
       <c r="Q229" s="5" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="R229" s="5" t="s">
-        <v>2940</v>
+        <v>2633</v>
       </c>
       <c r="S229" s="5" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="T229" s="5" t="s">
         <v>106</v>
@@ -27048,34 +27174,34 @@
         <v>106</v>
       </c>
       <c r="W229" s="5" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="X229" s="5"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>2933</v>
+        <v>2945</v>
       </c>
       <c r="E230" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F230" s="6" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>2382</v>
+        <v>1979</v>
       </c>
       <c r="I230" s="5" t="s">
         <v>29</v>
@@ -27084,31 +27210,31 @@
         <v>1012</v>
       </c>
       <c r="K230" s="5" t="s">
-        <v>2934</v>
+        <v>2946</v>
       </c>
       <c r="L230" s="5" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="M230" s="5" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="N230" s="5" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="O230" s="5" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="P230" s="5" t="s">
-        <v>434</v>
+        <v>644</v>
       </c>
       <c r="Q230" s="5" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="R230" s="5" t="s">
-        <v>1864</v>
+        <v>2952</v>
       </c>
       <c r="S230" s="5" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="T230" s="5" t="s">
         <v>106</v>
@@ -27120,64 +27246,64 @@
         <v>106</v>
       </c>
       <c r="W230" s="5" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="X230" s="5"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>2954</v>
+        <v>2945</v>
       </c>
       <c r="E231" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" s="5" t="n">
-        <v>2017</v>
+        <v>2</v>
+      </c>
+      <c r="F231" s="6" t="n">
+        <v>2004</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>2603</v>
+        <v>2382</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>1352</v>
+        <v>29</v>
       </c>
       <c r="J231" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="K231" s="5" t="s">
-        <v>2955</v>
+        <v>2946</v>
       </c>
       <c r="L231" s="5" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="M231" s="5" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="N231" s="5" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="O231" s="5" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="P231" s="5" t="s">
-        <v>644</v>
+        <v>434</v>
       </c>
       <c r="Q231" s="5" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="R231" s="5" t="s">
-        <v>2961</v>
+        <v>1864</v>
       </c>
       <c r="S231" s="5" t="s">
         <v>2962</v>
@@ -27213,19 +27339,19 @@
         <v>1</v>
       </c>
       <c r="F232" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>199</v>
+        <v>2603</v>
       </c>
       <c r="I232" s="5" t="s">
         <v>1352</v>
       </c>
       <c r="J232" s="5" t="s">
-        <v>2117</v>
+        <v>1012</v>
       </c>
       <c r="K232" s="5" t="s">
         <v>2967</v>
@@ -27243,7 +27369,7 @@
         <v>2971</v>
       </c>
       <c r="P232" s="5" t="s">
-        <v>220</v>
+        <v>644</v>
       </c>
       <c r="Q232" s="5" t="s">
         <v>2972</v>
@@ -27279,52 +27405,52 @@
         <v>25</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>26</v>
+        <v>2978</v>
+      </c>
+      <c r="E233" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F233" s="5" t="n">
-        <v>1994</v>
+        <v>2018</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>2394</v>
+        <v>199</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>29</v>
+        <v>1352</v>
       </c>
       <c r="J233" s="5" t="s">
-        <v>1012</v>
+        <v>2117</v>
       </c>
       <c r="K233" s="5" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="M233" s="5" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="N233" s="5" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="O233" s="5" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="P233" s="5" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="Q233" s="5" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="R233" s="5" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="S233" s="5" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="T233" s="5" t="s">
         <v>106</v>
@@ -27336,139 +27462,139 @@
         <v>106</v>
       </c>
       <c r="W233" s="5" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="X233" s="5"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>2989</v>
+        <v>26</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="F234" s="5" t="n">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>2051</v>
+        <v>117</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>2990</v>
+        <v>2394</v>
       </c>
       <c r="I234" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J234" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L234" s="5" t="s">
         <v>2991</v>
       </c>
-      <c r="K234" s="5" t="s">
+      <c r="M234" s="5" t="s">
         <v>2992</v>
       </c>
-      <c r="L234" s="5" t="s">
+      <c r="N234" s="5" t="s">
         <v>2993</v>
       </c>
-      <c r="M234" s="5" t="s">
+      <c r="O234" s="5" t="s">
         <v>2994</v>
       </c>
-      <c r="N234" s="5" t="s">
+      <c r="P234" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q234" s="5" t="s">
         <v>2995</v>
       </c>
-      <c r="O234" s="5" t="s">
+      <c r="R234" s="5" t="s">
         <v>2996</v>
       </c>
-      <c r="P234" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q234" s="5" t="s">
+      <c r="S234" s="5" t="s">
         <v>2997</v>
       </c>
-      <c r="R234" s="5" t="s">
+      <c r="T234" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U234" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V234" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W234" s="5" t="s">
         <v>2998</v>
-      </c>
-      <c r="S234" s="5" t="s">
-        <v>2999</v>
-      </c>
-      <c r="T234" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U234" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V234" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W234" s="5" t="s">
-        <v>3000</v>
       </c>
       <c r="X234" s="5"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D235" s="5" t="s">
         <v>3001</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="E235" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F235" s="5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H235" s="5" t="s">
         <v>3002</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>3002</v>
-      </c>
-      <c r="E235" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F235" s="5" t="n">
-        <v>1997</v>
-      </c>
-      <c r="G235" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H235" s="5" t="s">
-        <v>2106</v>
       </c>
       <c r="I235" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>1139</v>
+        <v>3003</v>
       </c>
       <c r="K235" s="5" t="s">
-        <v>2730</v>
+        <v>3004</v>
       </c>
       <c r="L235" s="5" t="s">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="M235" s="5" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="O235" s="5" t="s">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="P235" s="5" t="s">
-        <v>1252</v>
+        <v>87</v>
       </c>
       <c r="Q235" s="5" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="R235" s="5" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="S235" s="5" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="T235" s="5" t="s">
         <v>106</v>
@@ -27480,67 +27606,67 @@
         <v>106</v>
       </c>
       <c r="W235" s="5" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="X235" s="5"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F236" s="6" t="n">
-        <v>2009</v>
+        <v>3014</v>
+      </c>
+      <c r="E236" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" s="5" t="n">
+        <v>1997</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>2382</v>
+        <v>2106</v>
       </c>
       <c r="I236" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>1012</v>
+        <v>1139</v>
       </c>
       <c r="K236" s="5" t="s">
-        <v>2265</v>
+        <v>2730</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="M236" s="5" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="N236" s="5" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="O236" s="5" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="P236" s="5" t="s">
-        <v>380</v>
+        <v>1252</v>
       </c>
       <c r="Q236" s="5" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="R236" s="5" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="S236" s="5" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="T236" s="5" t="s">
         <v>106</v>
@@ -27552,43 +27678,43 @@
         <v>106</v>
       </c>
       <c r="W236" s="5" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="X236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>3023</v>
-      </c>
-      <c r="E237" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F237" s="5" t="n">
-        <v>2016</v>
+      <c r="E237" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F237" s="6" t="n">
+        <v>2009</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>3024</v>
+        <v>2382</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J237" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="K237" s="5" t="s">
-        <v>1354</v>
+        <v>2265</v>
       </c>
       <c r="L237" s="5" t="s">
         <v>3025</v>
@@ -27603,16 +27729,16 @@
         <v>3028</v>
       </c>
       <c r="P237" s="5" t="s">
-        <v>107</v>
+        <v>380</v>
       </c>
       <c r="Q237" s="5" t="s">
         <v>3029</v>
       </c>
       <c r="R237" s="5" t="s">
-        <v>1586</v>
+        <v>3030</v>
       </c>
       <c r="S237" s="5" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="T237" s="5" t="s">
         <v>106</v>
@@ -27624,139 +27750,139 @@
         <v>106</v>
       </c>
       <c r="W237" s="5" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="X237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>3023</v>
+        <v>3035</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>3034</v>
+        <v>26</v>
       </c>
       <c r="F238" s="5" t="n">
-        <v>1977</v>
+        <v>2016</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>1979</v>
+        <v>3036</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>3035</v>
+        <v>64</v>
       </c>
       <c r="J238" s="5" t="s">
-        <v>3036</v>
+        <v>1012</v>
       </c>
       <c r="K238" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L238" s="5" t="s">
         <v>3037</v>
       </c>
-      <c r="L238" s="5" t="s">
+      <c r="M238" s="5" t="s">
         <v>3038</v>
       </c>
-      <c r="M238" s="5" t="s">
+      <c r="N238" s="5" t="s">
         <v>3039</v>
       </c>
-      <c r="N238" s="5" t="s">
+      <c r="O238" s="5" t="s">
         <v>3040</v>
       </c>
-      <c r="O238" s="5" t="s">
+      <c r="P238" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q238" s="5" t="s">
         <v>3041</v>
       </c>
-      <c r="P238" s="5" t="s">
-        <v>2864</v>
-      </c>
-      <c r="Q238" s="5" t="s">
+      <c r="R238" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="S238" s="5" t="s">
         <v>3042</v>
       </c>
-      <c r="R238" s="5" t="s">
+      <c r="T238" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U238" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V238" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W238" s="5" t="s">
         <v>3043</v>
-      </c>
-      <c r="S238" s="5" t="s">
-        <v>3044</v>
-      </c>
-      <c r="T238" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U238" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V238" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W238" s="5" t="s">
-        <v>3045</v>
       </c>
       <c r="X238" s="5"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>3023</v>
+        <v>3035</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="F239" s="5" t="n">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>331</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>2297</v>
+        <v>1979</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>3035</v>
+        <v>3047</v>
       </c>
       <c r="J239" s="5" t="s">
-        <v>3036</v>
+        <v>3048</v>
       </c>
       <c r="K239" s="5" t="s">
         <v>3049</v>
       </c>
       <c r="L239" s="5" t="s">
-        <v>3038</v>
+        <v>3050</v>
       </c>
       <c r="M239" s="5" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="N239" s="5" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="O239" s="5" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="P239" s="5" t="s">
-        <v>354</v>
+        <v>2876</v>
       </c>
       <c r="Q239" s="5" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="R239" s="5" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="S239" s="5" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="T239" s="5" t="s">
         <v>106</v>
@@ -27768,67 +27894,67 @@
         <v>106</v>
       </c>
       <c r="W239" s="5" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="X239" s="5"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>3023</v>
+        <v>3035</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="F240" s="5" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>331</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>2334</v>
+        <v>2297</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>3035</v>
+        <v>3047</v>
       </c>
       <c r="J240" s="5" t="s">
-        <v>3036</v>
+        <v>3048</v>
       </c>
       <c r="K240" s="5" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="L240" s="5" t="s">
-        <v>3038</v>
+        <v>3050</v>
       </c>
       <c r="M240" s="5" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="N240" s="5" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="O240" s="5" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="P240" s="5" t="s">
-        <v>1104</v>
+        <v>354</v>
       </c>
       <c r="Q240" s="5" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="R240" s="5" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="S240" s="5" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="T240" s="5" t="s">
         <v>106</v>
@@ -27840,67 +27966,67 @@
         <v>106</v>
       </c>
       <c r="W240" s="5" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="X240" s="5"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>3023</v>
+        <v>3035</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="F241" s="5" t="n">
-        <v>2015</v>
+        <v>1983</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>2071</v>
+        <v>2334</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>29</v>
+        <v>3047</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>1012</v>
+        <v>3048</v>
       </c>
       <c r="K241" s="5" t="s">
-        <v>2265</v>
+        <v>3072</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>3071</v>
+        <v>3050</v>
       </c>
       <c r="M241" s="5" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="N241" s="5" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="O241" s="5" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="P241" s="5" t="s">
-        <v>107</v>
+        <v>1104</v>
       </c>
       <c r="Q241" s="5" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="R241" s="5" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="S241" s="5" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="T241" s="5" t="s">
         <v>106</v>
@@ -27912,67 +28038,67 @@
         <v>106</v>
       </c>
       <c r="W241" s="5" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="X241" s="5"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>1657</v>
+        <v>25</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>3023</v>
-      </c>
-      <c r="E242" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F242" s="5" t="s">
-        <v>106</v>
+        <v>3035</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>3082</v>
+      </c>
+      <c r="F242" s="5" t="n">
+        <v>2015</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>106</v>
+        <v>2071</v>
       </c>
       <c r="I242" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>106</v>
+        <v>1012</v>
       </c>
       <c r="K242" s="5" t="s">
-        <v>106</v>
+        <v>2265</v>
       </c>
       <c r="L242" s="5" t="s">
-        <v>106</v>
+        <v>3083</v>
       </c>
       <c r="M242" s="5" t="s">
-        <v>106</v>
+        <v>3084</v>
       </c>
       <c r="N242" s="5" t="s">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="O242" s="5" t="s">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="P242" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q242" s="5" t="s">
-        <v>106</v>
+        <v>3087</v>
       </c>
       <c r="R242" s="5" t="s">
-        <v>2235</v>
+        <v>3088</v>
       </c>
       <c r="S242" s="5" t="s">
-        <v>3044</v>
+        <v>3089</v>
       </c>
       <c r="T242" s="5" t="s">
         <v>106</v>
@@ -27984,112 +28110,112 @@
         <v>106</v>
       </c>
       <c r="W242" s="5" t="s">
-        <v>3083</v>
+        <v>3090</v>
       </c>
       <c r="X242" s="5"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>3084</v>
+        <v>3091</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>3085</v>
+        <v>3092</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>25</v>
+        <v>1657</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>3086</v>
+        <v>3035</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F243" s="5" t="n">
-        <v>1999</v>
+      <c r="F243" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1314</v>
+        <v>106</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>3087</v>
+        <v>106</v>
       </c>
       <c r="I243" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J243" s="5" t="s">
-        <v>404</v>
+        <v>106</v>
       </c>
       <c r="K243" s="5" t="s">
-        <v>3088</v>
+        <v>106</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>3089</v>
+        <v>106</v>
       </c>
       <c r="M243" s="5" t="s">
-        <v>3090</v>
+        <v>106</v>
       </c>
       <c r="N243" s="5" t="s">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="O243" s="5" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="P243" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="Q243" s="5" t="s">
-        <v>3093</v>
+        <v>106</v>
       </c>
       <c r="R243" s="5" t="s">
-        <v>3094</v>
+        <v>2235</v>
       </c>
       <c r="S243" s="5" t="s">
+        <v>3056</v>
+      </c>
+      <c r="T243" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U243" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V243" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W243" s="5" t="s">
         <v>3095</v>
-      </c>
-      <c r="T243" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U243" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V243" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W243" s="5" t="s">
-        <v>3096</v>
       </c>
       <c r="X243" s="5"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>3097</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>3098</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>26</v>
+        <v>3098</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F244" s="5" t="n">
-        <v>1983</v>
+        <v>1999</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>331</v>
+        <v>1314</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>2638</v>
+        <v>3099</v>
       </c>
       <c r="I244" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J244" s="5" t="s">
-        <v>3099</v>
+        <v>404</v>
       </c>
       <c r="K244" s="5" t="s">
         <v>3100</v>
@@ -28143,52 +28269,52 @@
         <v>25</v>
       </c>
       <c r="D245" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" s="5" t="n">
+        <v>1983</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J245" s="5" t="s">
         <v>3111</v>
       </c>
-      <c r="E245" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F245" s="5" t="n">
-        <v>1984</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>1939</v>
-      </c>
-      <c r="I245" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J245" s="5" t="s">
-        <v>1012</v>
-      </c>
       <c r="K245" s="5" t="s">
-        <v>216</v>
+        <v>3112</v>
       </c>
       <c r="L245" s="5" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="O245" s="5" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="P245" s="5" t="s">
-        <v>476</v>
+        <v>53</v>
       </c>
       <c r="Q245" s="5" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="R245" s="5" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="S245" s="5" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="T245" s="5" t="s">
         <v>106</v>
@@ -28200,178 +28326,178 @@
         <v>106</v>
       </c>
       <c r="W245" s="5" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="X245" s="5"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>3111</v>
-      </c>
-      <c r="E246" s="6" t="n">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F246" s="5" t="n">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>1797</v>
+        <v>3123</v>
       </c>
       <c r="I246" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="K246" s="5" t="s">
-        <v>216</v>
+        <v>2537</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>3124</v>
+        <v>3126</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
       <c r="O246" s="5" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="P246" s="5" t="s">
-        <v>2864</v>
+        <v>71</v>
       </c>
       <c r="Q246" s="5" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
       <c r="R246" s="5" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="S246" s="5" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="T246" s="5" t="s">
-        <v>106</v>
+        <v>3132</v>
       </c>
       <c r="U246" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V246" s="5" t="s">
-        <v>106</v>
+        <v>3133</v>
       </c>
       <c r="W246" s="5" t="s">
-        <v>3130</v>
+        <v>3134</v>
       </c>
       <c r="X246" s="5"/>
     </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>26</v>
+        <v>3137</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F247" s="5" t="n">
-        <v>1951</v>
+        <v>1984</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>3134</v>
+        <v>1939</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>200</v>
+        <v>1012</v>
       </c>
       <c r="K247" s="5" t="s">
-        <v>3135</v>
+        <v>216</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="O247" s="5" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>157</v>
+        <v>476</v>
       </c>
       <c r="Q247" s="5" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="R247" s="5" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="S247" s="5" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="T247" s="5" t="s">
-        <v>3143</v>
+        <v>106</v>
       </c>
       <c r="U247" s="5" t="s">
-        <v>3144</v>
+        <v>106</v>
       </c>
       <c r="V247" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W247" s="5" t="s">
         <v>3145</v>
-      </c>
-      <c r="W247" s="5" t="s">
-        <v>3146</v>
       </c>
       <c r="X247" s="5"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>3147</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>3133</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E248" s="10" t="s">
-        <v>26</v>
+        <v>3137</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F248" s="5" t="n">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>245</v>
+        <v>1797</v>
       </c>
       <c r="I248" s="5" t="s">
         <v>29</v>
@@ -28380,76 +28506,76 @@
         <v>3148</v>
       </c>
       <c r="K248" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L248" s="5" t="s">
         <v>3149</v>
       </c>
-      <c r="L248" s="5" t="s">
+      <c r="M248" s="5" t="s">
         <v>3150</v>
       </c>
-      <c r="M248" s="5" t="s">
+      <c r="N248" s="5" t="s">
         <v>3151</v>
       </c>
-      <c r="N248" s="5" t="s">
+      <c r="O248" s="5" t="s">
         <v>3152</v>
       </c>
-      <c r="O248" s="5" t="s">
+      <c r="P248" s="5" t="s">
+        <v>2876</v>
+      </c>
+      <c r="Q248" s="5" t="s">
         <v>3153</v>
       </c>
-      <c r="P248" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q248" s="5" t="s">
+      <c r="R248" s="5" t="s">
         <v>3154</v>
       </c>
-      <c r="R248" s="5" t="s">
+      <c r="S248" s="5" t="s">
         <v>3155</v>
       </c>
-      <c r="S248" s="5" t="s">
+      <c r="T248" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U248" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V248" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W248" s="5" t="s">
         <v>3156</v>
-      </c>
-      <c r="T248" s="5" t="s">
-        <v>3157</v>
-      </c>
-      <c r="U248" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V248" s="5" t="s">
-        <v>3158</v>
-      </c>
-      <c r="W248" s="5" t="s">
-        <v>3159</v>
       </c>
       <c r="X248" s="5"/>
     </row>
-    <row r="249" customFormat="false" ht="884.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>3133</v>
+        <v>3158</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>3133</v>
+        <v>3159</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F249" s="5" t="n">
-        <v>2011</v>
+        <v>1951</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>815</v>
+        <v>3160</v>
       </c>
       <c r="I249" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>3148</v>
+        <v>200</v>
       </c>
       <c r="K249" s="5" t="s">
         <v>3161</v>
@@ -28467,7 +28593,7 @@
         <v>3165</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="Q249" s="5" t="s">
         <v>3166</v>
@@ -28482,217 +28608,217 @@
         <v>3169</v>
       </c>
       <c r="U249" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V249" s="8" t="s">
         <v>3170</v>
       </c>
+      <c r="V249" s="5" t="s">
+        <v>3171</v>
+      </c>
       <c r="W249" s="5" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="X249" s="5"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>3173</v>
+        <v>3159</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>3174</v>
-      </c>
-      <c r="E250" s="5" t="n">
-        <v>3</v>
+        <v>3159</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F250" s="5" t="n">
-        <v>2017</v>
+        <v>1982</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>3175</v>
+        <v>245</v>
       </c>
       <c r="I250" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J250" s="5" t="s">
+        <v>3174</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="L250" s="5" t="s">
         <v>3176</v>
       </c>
-      <c r="K250" s="5" t="s">
+      <c r="M250" s="5" t="s">
         <v>3177</v>
       </c>
-      <c r="L250" s="5" t="s">
+      <c r="N250" s="5" t="s">
         <v>3178</v>
       </c>
-      <c r="M250" s="5" t="s">
+      <c r="O250" s="5" t="s">
         <v>3179</v>
       </c>
-      <c r="N250" s="5" t="s">
+      <c r="P250" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q250" s="5" t="s">
         <v>3180</v>
       </c>
-      <c r="O250" s="5" t="s">
+      <c r="R250" s="5" t="s">
         <v>3181</v>
       </c>
-      <c r="P250" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q250" s="5" t="s">
+      <c r="S250" s="5" t="s">
         <v>3182</v>
       </c>
-      <c r="R250" s="5" t="s">
+      <c r="T250" s="5" t="s">
         <v>3183</v>
       </c>
-      <c r="S250" s="5" t="s">
+      <c r="U250" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V250" s="5" t="s">
         <v>3184</v>
-      </c>
-      <c r="T250" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U250" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V250" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="W250" s="5" t="s">
         <v>3185</v>
       </c>
       <c r="X250" s="5"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="884.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>3186</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>3187</v>
+        <v>3159</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="5" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E251" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E251" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F251" s="5" t="n">
-        <v>1990</v>
+        <v>2011</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>3188</v>
+        <v>815</v>
       </c>
       <c r="I251" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>1012</v>
+        <v>3174</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>2730</v>
+        <v>3187</v>
       </c>
       <c r="L251" s="5" t="s">
+        <v>3188</v>
+      </c>
+      <c r="M251" s="5" t="s">
         <v>3189</v>
       </c>
-      <c r="M251" s="5" t="s">
+      <c r="N251" s="5" t="s">
         <v>3190</v>
       </c>
-      <c r="N251" s="5" t="s">
+      <c r="O251" s="5" t="s">
         <v>3191</v>
       </c>
-      <c r="O251" s="5" t="s">
+      <c r="P251" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q251" s="5" t="s">
         <v>3192</v>
       </c>
-      <c r="P251" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q251" s="5" t="s">
+      <c r="R251" s="5" t="s">
         <v>3193</v>
       </c>
-      <c r="R251" s="5" t="s">
+      <c r="S251" s="5" t="s">
         <v>3194</v>
       </c>
-      <c r="S251" s="5" t="s">
+      <c r="T251" s="5" t="s">
         <v>3195</v>
       </c>
-      <c r="T251" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="U251" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V251" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
+      </c>
+      <c r="V251" s="8" t="s">
+        <v>3196</v>
       </c>
       <c r="W251" s="5" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="X251" s="5"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E252" s="5" t="s">
-        <v>26</v>
+        <v>3200</v>
+      </c>
+      <c r="E252" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F252" s="5" t="n">
-        <v>1990</v>
+        <v>2017</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>1928</v>
+        <v>3201</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="K252" s="5" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="M252" s="5" t="s">
-        <v>3202</v>
+        <v>3205</v>
       </c>
       <c r="N252" s="5" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="O252" s="5" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>3205</v>
+        <v>3208</v>
       </c>
       <c r="R252" s="5" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="S252" s="5" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="T252" s="5" t="s">
         <v>106</v>
@@ -28704,16 +28830,16 @@
         <v>106</v>
       </c>
       <c r="W252" s="5" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="X252" s="5"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>25</v>
@@ -28725,46 +28851,46 @@
         <v>26</v>
       </c>
       <c r="F253" s="5" t="n">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>2116</v>
+        <v>3214</v>
       </c>
       <c r="I253" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>969</v>
+        <v>1012</v>
       </c>
       <c r="K253" s="5" t="s">
-        <v>3211</v>
+        <v>2730</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="N253" s="5" t="s">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="O253" s="5" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="P253" s="5" t="s">
         <v>434</v>
       </c>
       <c r="Q253" s="5" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
       <c r="R253" s="5" t="s">
-        <v>38</v>
+        <v>3220</v>
       </c>
       <c r="S253" s="5" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="T253" s="5" t="s">
         <v>106</v>
@@ -28776,16 +28902,16 @@
         <v>106</v>
       </c>
       <c r="W253" s="5" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="X253" s="5"/>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>25</v>
@@ -28797,139 +28923,139 @@
         <v>26</v>
       </c>
       <c r="F254" s="5" t="n">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1478</v>
+        <v>1928</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="N254" s="5" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
       <c r="O254" s="5" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="Q254" s="5" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="R254" s="5" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="S254" s="5" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="T254" s="5" t="s">
-        <v>3230</v>
+        <v>106</v>
       </c>
       <c r="U254" s="5" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="V254" s="5" t="s">
-        <v>3231</v>
+        <v>106</v>
       </c>
       <c r="W254" s="5" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="X254" s="5"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1429</v>
+        <v>3237</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>26</v>
+        <v>3238</v>
       </c>
       <c r="F255" s="5" t="n">
-        <v>2015</v>
+        <v>1961</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>27</v>
+        <v>2051</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J255" s="5" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="K255" s="5" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="O255" s="5" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>157</v>
+        <v>462</v>
       </c>
       <c r="Q255" s="5" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="R255" s="5" t="s">
-        <v>3243</v>
+        <v>2622</v>
       </c>
       <c r="S255" s="5" t="s">
-        <v>3244</v>
-      </c>
-      <c r="T255" s="5" t="s">
-        <v>106</v>
+        <v>3247</v>
+      </c>
+      <c r="T255" s="10" t="s">
+        <v>3248</v>
       </c>
       <c r="U255" s="5" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="V255" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W255" s="4" t="s">
-        <v>3245</v>
-      </c>
-      <c r="X255" s="4"/>
+        <v>3249</v>
+      </c>
+      <c r="W255" s="5" t="s">
+        <v>3250</v>
+      </c>
+      <c r="X255" s="5"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>3246</v>
+        <v>3251</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>3247</v>
+        <v>3252</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>25</v>
@@ -28941,46 +29067,46 @@
         <v>26</v>
       </c>
       <c r="F256" s="5" t="n">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>2154</v>
+        <v>2116</v>
       </c>
       <c r="I256" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>3248</v>
+        <v>969</v>
       </c>
       <c r="K256" s="5" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>220</v>
+        <v>434</v>
       </c>
       <c r="Q256" s="5" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="R256" s="5" t="s">
-        <v>3255</v>
+        <v>38</v>
       </c>
       <c r="S256" s="5" t="s">
-        <v>3256</v>
+        <v>3259</v>
       </c>
       <c r="T256" s="5" t="s">
         <v>106</v>
@@ -28992,16 +29118,16 @@
         <v>106</v>
       </c>
       <c r="W256" s="5" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="X256" s="5"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>3258</v>
+        <v>3261</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>25</v>
@@ -29013,118 +29139,118 @@
         <v>26</v>
       </c>
       <c r="F257" s="5" t="n">
-        <v>1979</v>
+        <v>2008</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>3260</v>
+        <v>1478</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>638</v>
+        <v>3263</v>
       </c>
       <c r="K257" s="5" t="s">
-        <v>3261</v>
+        <v>3264</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>3262</v>
+        <v>3265</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>3263</v>
+        <v>3266</v>
       </c>
       <c r="N257" s="5" t="s">
-        <v>3264</v>
+        <v>3267</v>
       </c>
       <c r="O257" s="5" t="s">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>434</v>
+        <v>535</v>
       </c>
       <c r="Q257" s="5" t="s">
-        <v>3266</v>
+        <v>3269</v>
       </c>
       <c r="R257" s="5" t="s">
-        <v>38</v>
+        <v>3270</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="T257" s="5" t="s">
-        <v>106</v>
+        <v>3272</v>
       </c>
       <c r="U257" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V257" s="5" t="s">
-        <v>106</v>
+        <v>3273</v>
       </c>
       <c r="W257" s="5" t="s">
-        <v>3268</v>
+        <v>3274</v>
       </c>
       <c r="X257" s="5"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>3269</v>
+        <v>3275</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>3270</v>
+        <v>3276</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>3271</v>
+        <v>25</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>3272</v>
+        <v>1429</v>
       </c>
       <c r="E258" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F258" s="5" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>3273</v>
+        <v>27</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>3274</v>
+        <v>3277</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J258" s="5" t="s">
-        <v>3275</v>
+        <v>3278</v>
       </c>
       <c r="K258" s="5" t="s">
-        <v>3276</v>
+        <v>3279</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>3278</v>
+        <v>3281</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>3279</v>
+        <v>3282</v>
       </c>
       <c r="O258" s="5" t="s">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="P258" s="5" t="s">
-        <v>1171</v>
+        <v>157</v>
       </c>
       <c r="Q258" s="5" t="s">
-        <v>3281</v>
+        <v>3284</v>
       </c>
       <c r="R258" s="5" t="s">
-        <v>2235</v>
+        <v>3285</v>
       </c>
       <c r="S258" s="5" t="s">
-        <v>106</v>
+        <v>3286</v>
       </c>
       <c r="T258" s="5" t="s">
         <v>106</v>
@@ -29135,17 +29261,17 @@
       <c r="V258" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W258" s="5" t="s">
-        <v>3282</v>
-      </c>
-      <c r="X258" s="5"/>
+      <c r="W258" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="X258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>3283</v>
+        <v>3288</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>3284</v>
+        <v>3289</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>25</v>
@@ -29157,46 +29283,46 @@
         <v>26</v>
       </c>
       <c r="F259" s="5" t="n">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>2741</v>
+        <v>2154</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>1352</v>
+        <v>29</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>3285</v>
+        <v>3290</v>
       </c>
       <c r="K259" s="5" t="s">
-        <v>861</v>
+        <v>3291</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>3286</v>
+        <v>3292</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>3287</v>
+        <v>3293</v>
       </c>
       <c r="N259" s="5" t="s">
-        <v>3288</v>
+        <v>3294</v>
       </c>
       <c r="O259" s="5" t="s">
-        <v>3289</v>
+        <v>3295</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="Q259" s="5" t="s">
-        <v>3290</v>
+        <v>3296</v>
       </c>
       <c r="R259" s="5" t="s">
-        <v>174</v>
+        <v>3297</v>
       </c>
       <c r="S259" s="5" t="s">
-        <v>3291</v>
+        <v>3298</v>
       </c>
       <c r="T259" s="5" t="s">
         <v>106</v>
@@ -29208,16 +29334,16 @@
         <v>106</v>
       </c>
       <c r="W259" s="5" t="s">
-        <v>3292</v>
+        <v>3299</v>
       </c>
       <c r="X259" s="5"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>3293</v>
+        <v>3300</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>3294</v>
+        <v>3301</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>25</v>
@@ -29229,46 +29355,46 @@
         <v>26</v>
       </c>
       <c r="F260" s="5" t="n">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>2116</v>
+        <v>3302</v>
       </c>
       <c r="I260" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>3295</v>
+        <v>638</v>
       </c>
       <c r="K260" s="5" t="s">
-        <v>3296</v>
+        <v>3303</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>3297</v>
+        <v>3304</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>3298</v>
+        <v>3305</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>3299</v>
+        <v>3306</v>
       </c>
       <c r="O260" s="5" t="s">
-        <v>3300</v>
+        <v>3307</v>
       </c>
       <c r="P260" s="5" t="s">
-        <v>107</v>
+        <v>434</v>
       </c>
       <c r="Q260" s="5" t="s">
-        <v>3301</v>
+        <v>3308</v>
       </c>
       <c r="R260" s="5" t="s">
-        <v>2961</v>
+        <v>38</v>
       </c>
       <c r="S260" s="5" t="s">
-        <v>3302</v>
+        <v>3309</v>
       </c>
       <c r="T260" s="5" t="s">
         <v>106</v>
@@ -29280,88 +29406,88 @@
         <v>106</v>
       </c>
       <c r="W260" s="5" t="s">
-        <v>3303</v>
+        <v>3310</v>
       </c>
       <c r="X260" s="5"/>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>3304</v>
+        <v>3311</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>3305</v>
+        <v>3312</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>96</v>
+        <v>3313</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>3306</v>
-      </c>
-      <c r="E261" s="5" t="n">
-        <v>1</v>
+        <v>3314</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F261" s="5" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>487</v>
+        <v>3315</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>3307</v>
+        <v>3316</v>
       </c>
       <c r="I261" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J261" s="5" t="s">
-        <v>612</v>
+        <v>3317</v>
       </c>
       <c r="K261" s="5" t="s">
-        <v>3308</v>
+        <v>3318</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>3309</v>
+        <v>3319</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>3310</v>
+        <v>3320</v>
       </c>
       <c r="N261" s="5" t="s">
-        <v>3311</v>
+        <v>3321</v>
       </c>
       <c r="O261" s="5" t="s">
-        <v>3312</v>
+        <v>3322</v>
       </c>
       <c r="P261" s="5" t="s">
-        <v>3313</v>
+        <v>1171</v>
       </c>
       <c r="Q261" s="5" t="s">
-        <v>3314</v>
+        <v>3323</v>
       </c>
       <c r="R261" s="5" t="s">
-        <v>3315</v>
+        <v>2235</v>
       </c>
       <c r="S261" s="5" t="s">
-        <v>3316</v>
+        <v>106</v>
       </c>
       <c r="T261" s="5" t="s">
-        <v>3317</v>
+        <v>106</v>
       </c>
       <c r="U261" s="5" t="s">
-        <v>3318</v>
+        <v>106</v>
       </c>
       <c r="V261" s="5" t="s">
-        <v>3319</v>
+        <v>106</v>
       </c>
       <c r="W261" s="5" t="s">
-        <v>3320</v>
+        <v>3324</v>
       </c>
       <c r="X261" s="5"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>25</v>
@@ -29373,46 +29499,46 @@
         <v>26</v>
       </c>
       <c r="F262" s="5" t="n">
-        <v>2017</v>
+        <v>1988</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>3323</v>
+        <v>2741</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>64</v>
+        <v>1352</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>3324</v>
+        <v>3327</v>
       </c>
       <c r="K262" s="5" t="s">
-        <v>3325</v>
+        <v>861</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="N262" s="5" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
       <c r="O262" s="5" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="P262" s="5" t="s">
-        <v>1252</v>
+        <v>338</v>
       </c>
       <c r="Q262" s="5" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="R262" s="5" t="s">
-        <v>3331</v>
+        <v>174</v>
       </c>
       <c r="S262" s="5" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="T262" s="5" t="s">
         <v>106</v>
@@ -29424,67 +29550,67 @@
         <v>106</v>
       </c>
       <c r="W262" s="5" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="X262" s="5"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1429</v>
+        <v>26</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F263" s="5" t="n">
-        <v>2022</v>
+        <v>1971</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>2524</v>
+        <v>2116</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="K263" s="5" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="O263" s="5" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="P263" s="5" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="Q263" s="5" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="R263" s="5" t="s">
-        <v>2281</v>
+        <v>2973</v>
       </c>
       <c r="S263" s="5" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="T263" s="5" t="s">
         <v>106</v>
@@ -29495,140 +29621,140 @@
       <c r="V263" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W263" s="4" t="s">
-        <v>3344</v>
-      </c>
-      <c r="X263" s="4"/>
+      <c r="W263" s="5" t="s">
+        <v>3345</v>
+      </c>
+      <c r="X263" s="5"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>3346</v>
-      </c>
-      <c r="E264" s="6" t="n">
+        <v>3348</v>
+      </c>
+      <c r="E264" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F264" s="5" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>117</v>
+        <v>487</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>2741</v>
+        <v>3349</v>
       </c>
       <c r="I264" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>1012</v>
+        <v>612</v>
       </c>
       <c r="K264" s="5" t="s">
-        <v>3222</v>
+        <v>3350</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>3349</v>
+        <v>3353</v>
       </c>
       <c r="O264" s="5" t="s">
-        <v>3350</v>
+        <v>3354</v>
       </c>
       <c r="P264" s="5" t="s">
-        <v>1252</v>
+        <v>3355</v>
       </c>
       <c r="Q264" s="5" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="R264" s="5" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="S264" s="5" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T264" s="5" t="s">
-        <v>106</v>
+        <v>3359</v>
       </c>
       <c r="U264" s="5" t="s">
-        <v>106</v>
+        <v>3360</v>
       </c>
       <c r="V264" s="5" t="s">
-        <v>106</v>
+        <v>3361</v>
       </c>
       <c r="W264" s="5" t="s">
-        <v>3354</v>
+        <v>3362</v>
       </c>
       <c r="X264" s="5"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>3355</v>
+        <v>3363</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>3356</v>
+        <v>3364</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>3346</v>
-      </c>
-      <c r="E265" s="6" t="n">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F265" s="5" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="G265" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>3357</v>
+        <v>3365</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>969</v>
+        <v>3366</v>
       </c>
       <c r="K265" s="5" t="s">
-        <v>3222</v>
+        <v>3367</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>3358</v>
+        <v>3368</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>3359</v>
+        <v>3369</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>3360</v>
+        <v>3370</v>
       </c>
       <c r="O265" s="5" t="s">
-        <v>3361</v>
+        <v>3371</v>
       </c>
       <c r="P265" s="5" t="s">
-        <v>644</v>
+        <v>1252</v>
       </c>
       <c r="Q265" s="5" t="s">
-        <v>3362</v>
+        <v>3372</v>
       </c>
       <c r="R265" s="5" t="s">
-        <v>3363</v>
+        <v>3373</v>
       </c>
       <c r="S265" s="5" t="s">
-        <v>3364</v>
+        <v>3374</v>
       </c>
       <c r="T265" s="5" t="s">
         <v>106</v>
@@ -29640,67 +29766,67 @@
         <v>106</v>
       </c>
       <c r="W265" s="5" t="s">
-        <v>3365</v>
+        <v>3375</v>
       </c>
       <c r="X265" s="5"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>3366</v>
+        <v>3376</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>3367</v>
+        <v>3377</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>3346</v>
-      </c>
-      <c r="E266" s="6" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E266" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F266" s="5" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="G266" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>1797</v>
+        <v>2524</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>582</v>
+        <v>3378</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>82</v>
+        <v>3379</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>3368</v>
+        <v>3380</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>3369</v>
+        <v>3381</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>3370</v>
+        <v>3382</v>
       </c>
       <c r="O266" s="5" t="s">
-        <v>3371</v>
+        <v>3383</v>
       </c>
       <c r="P266" s="5" t="s">
-        <v>476</v>
+        <v>306</v>
       </c>
       <c r="Q266" s="5" t="s">
-        <v>3372</v>
+        <v>3384</v>
       </c>
       <c r="R266" s="5" t="s">
-        <v>3373</v>
+        <v>2281</v>
       </c>
       <c r="S266" s="5" t="s">
-        <v>3374</v>
+        <v>3385</v>
       </c>
       <c r="T266" s="5" t="s">
         <v>106</v>
@@ -29711,68 +29837,68 @@
       <c r="V266" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W266" s="5" t="s">
-        <v>3375</v>
-      </c>
-      <c r="X266" s="5"/>
+      <c r="W266" s="4" t="s">
+        <v>3386</v>
+      </c>
+      <c r="X266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>3376</v>
+        <v>3387</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>3377</v>
+        <v>3388</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>26</v>
+        <v>3388</v>
+      </c>
+      <c r="E267" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F267" s="5" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>1916</v>
+        <v>2741</v>
       </c>
       <c r="I267" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>3378</v>
+        <v>1012</v>
       </c>
       <c r="K267" s="5" t="s">
-        <v>3379</v>
+        <v>3264</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>3380</v>
+        <v>3389</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>3381</v>
+        <v>3390</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="O267" s="5" t="s">
-        <v>3383</v>
+        <v>3392</v>
       </c>
       <c r="P267" s="5" t="s">
-        <v>434</v>
+        <v>1252</v>
       </c>
       <c r="Q267" s="5" t="s">
-        <v>3384</v>
+        <v>3393</v>
       </c>
       <c r="R267" s="5" t="s">
-        <v>89</v>
+        <v>3394</v>
       </c>
       <c r="S267" s="5" t="s">
-        <v>3385</v>
+        <v>3395</v>
       </c>
       <c r="T267" s="5" t="s">
         <v>106</v>
@@ -29784,67 +29910,67 @@
         <v>106</v>
       </c>
       <c r="W267" s="5" t="s">
-        <v>3386</v>
+        <v>3396</v>
       </c>
       <c r="X267" s="5"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>3387</v>
+        <v>3397</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>3388</v>
+        <v>3398</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>26</v>
+        <v>3388</v>
+      </c>
+      <c r="E268" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F268" s="5" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>2638</v>
+        <v>3399</v>
       </c>
       <c r="I268" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>349</v>
+        <v>969</v>
       </c>
       <c r="K268" s="5" t="s">
-        <v>3389</v>
+        <v>3264</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>3390</v>
+        <v>3400</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>3391</v>
+        <v>3401</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>3392</v>
+        <v>3402</v>
       </c>
       <c r="O268" s="5" t="s">
-        <v>3393</v>
+        <v>3403</v>
       </c>
       <c r="P268" s="5" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="Q268" s="5" t="s">
-        <v>3394</v>
+        <v>3404</v>
       </c>
       <c r="R268" s="5" t="s">
-        <v>3395</v>
+        <v>3405</v>
       </c>
       <c r="S268" s="5" t="s">
-        <v>3396</v>
+        <v>3406</v>
       </c>
       <c r="T268" s="5" t="s">
         <v>106</v>
@@ -29856,111 +29982,327 @@
         <v>106</v>
       </c>
       <c r="W268" s="5" t="s">
-        <v>3397</v>
+        <v>3407</v>
       </c>
       <c r="X268" s="5"/>
     </row>
-    <row r="269" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="15" t="s">
-        <v>3398</v>
-      </c>
-      <c r="B269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="M269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="O269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="R269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="S269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="T269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="U269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="V269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="W269" s="15" t="s">
-        <v>106</v>
-      </c>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>3409</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F269" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="K269" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L269" s="5" t="s">
+        <v>3410</v>
+      </c>
+      <c r="M269" s="5" t="s">
+        <v>3411</v>
+      </c>
+      <c r="N269" s="5" t="s">
+        <v>3412</v>
+      </c>
+      <c r="O269" s="5" t="s">
+        <v>3413</v>
+      </c>
+      <c r="P269" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q269" s="5" t="s">
+        <v>3414</v>
+      </c>
+      <c r="R269" s="5" t="s">
+        <v>3415</v>
+      </c>
+      <c r="S269" s="5" t="s">
+        <v>3416</v>
+      </c>
+      <c r="T269" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U269" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V269" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W269" s="5" t="s">
+        <v>3417</v>
+      </c>
+      <c r="X269" s="5"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="16" t="s">
-        <v>3399</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>3400</v>
-      </c>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F270" s="5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>3420</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>3421</v>
+      </c>
+      <c r="L270" s="5" t="s">
+        <v>3422</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>3423</v>
+      </c>
+      <c r="N270" s="5" t="s">
+        <v>3424</v>
+      </c>
+      <c r="O270" s="5" t="s">
+        <v>3425</v>
+      </c>
+      <c r="P270" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q270" s="5" t="s">
+        <v>3426</v>
+      </c>
+      <c r="R270" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S270" s="5" t="s">
+        <v>3427</v>
+      </c>
+      <c r="T270" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U270" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V270" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W270" s="5" t="s">
+        <v>3428</v>
+      </c>
+      <c r="X270" s="5"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="16" t="s">
-        <v>3401</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>3402</v>
-      </c>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F271" s="5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K271" s="5" t="s">
+        <v>3431</v>
+      </c>
+      <c r="L271" s="5" t="s">
+        <v>3432</v>
+      </c>
+      <c r="M271" s="5" t="s">
+        <v>3433</v>
+      </c>
+      <c r="N271" s="5" t="s">
+        <v>3434</v>
+      </c>
+      <c r="O271" s="5" t="s">
+        <v>3435</v>
+      </c>
+      <c r="P271" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q271" s="5" t="s">
+        <v>3436</v>
+      </c>
+      <c r="R271" s="5" t="s">
+        <v>3437</v>
+      </c>
+      <c r="S271" s="5" t="s">
+        <v>3438</v>
+      </c>
+      <c r="T271" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U271" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V271" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W271" s="5" t="s">
+        <v>3439</v>
+      </c>
+      <c r="X271" s="5"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
-        <v>3403</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>3404</v>
+    <row r="272" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="T272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="U272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="V272" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="W272" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="17" t="s">
-        <v>3405</v>
+      <c r="A274" s="16" t="s">
+        <v>3441</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3406</v>
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="16" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="17" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>3448</v>
       </c>
     </row>
   </sheetData>
@@ -30107,14 +30449,24 @@
     <hyperlink ref="Q193" r:id="rId140" display="https://www.imdb.com/title/tt0795176/?ref_=fn_all_ttl_2"/>
     <hyperlink ref="T193" r:id="rId141" display="https://variety.com/2007/tv/reviews/planet-earth-1200509467/"/>
     <hyperlink ref="W193" r:id="rId142" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/mfXulHiALTloIqivuC4Q3lI3RGw.jpg"/>
-    <hyperlink ref="N223" r:id="rId143" display="https://youtu.be/6iB21hsprAQ?si=Fj5N_WkJr-xjMXr2"/>
-    <hyperlink ref="Q223" r:id="rId144" display="https://www.imdb.com/title/tt0102926/?ref_=nv_sr_srsg_0_tt_8_nm_0_in_0_q_silence%2520of%2520"/>
-    <hyperlink ref="S223" r:id="rId145" display="https://www.rottentomatoes.com/m/silence_of_the_lambs"/>
-    <hyperlink ref="T223" r:id="rId146" display="https://www.rogerebert.com/reviews/the-silence-of-the-lambs-1991"/>
-    <hyperlink ref="W223" r:id="rId147" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/uS9m8OBk1A8eM9I042bx8XXpqAq.jpg"/>
-    <hyperlink ref="W224" r:id="rId148" display="https://xl.movieposterdb.com/06_05/2002/0286106/xl_116531_0286106_64875aa4.jpg?v=2024-07-07%2004:58:53"/>
-    <hyperlink ref="Q254" r:id="rId149" display="https://www.imdb.com/title/tt0985699/?ref_=fn_all_ttl_1"/>
-    <hyperlink ref="Q261" r:id="rId150" display="https://www.imdb.com/title/tt0306414/"/>
+    <hyperlink ref="N216" r:id="rId143" display="https://youtu.be/ZCYnsUdO6H0?si=hXUI7OB-hlumoHWB"/>
+    <hyperlink ref="Q216" r:id="rId144" display="https://www.imdb.com/title/tt0130827/"/>
+    <hyperlink ref="S216" r:id="rId145" display="https://www.rottentomatoes.com/m/run_lola_run"/>
+    <hyperlink ref="T216" r:id="rId146" display="https://www.rogerebert.com/reviews/run-lola-run-1999"/>
+    <hyperlink ref="W216" r:id="rId147" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/v0giIi4bTILVhNhJajet3WWY3FA.jpg"/>
+    <hyperlink ref="N224" r:id="rId148" display="https://youtu.be/6iB21hsprAQ?si=Fj5N_WkJr-xjMXr2"/>
+    <hyperlink ref="Q224" r:id="rId149" display="https://www.imdb.com/title/tt0102926/?ref_=nv_sr_srsg_0_tt_8_nm_0_in_0_q_silence%2520of%2520"/>
+    <hyperlink ref="S224" r:id="rId150" display="https://www.rottentomatoes.com/m/silence_of_the_lambs"/>
+    <hyperlink ref="T224" r:id="rId151" display="https://www.rogerebert.com/reviews/the-silence-of-the-lambs-1991"/>
+    <hyperlink ref="W224" r:id="rId152" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/uS9m8OBk1A8eM9I042bx8XXpqAq.jpg"/>
+    <hyperlink ref="W225" r:id="rId153" display="https://xl.movieposterdb.com/06_05/2002/0286106/xl_116531_0286106_64875aa4.jpg?v=2024-07-07%2004:58:53"/>
+    <hyperlink ref="N255" r:id="rId154" display="https://youtu.be/ORbseYAkzRM?si=Kmi9lVFsGOqGC0qF"/>
+    <hyperlink ref="Q255" r:id="rId155" display="https://www.imdb.com/title/tt0052520/?ref_=fn_all_ttl_1"/>
+    <hyperlink ref="S255" r:id="rId156" display="https://www.rottentomatoes.com/tv/the_twilight_zone"/>
+    <hyperlink ref="T255" r:id="rId157" display="https://www.rogerebert.com/features/the-metaphor-years-writing-lessons-from-the-twilight-zone"/>
+    <hyperlink ref="W255" r:id="rId158" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/coWkN4uvxP41T0JFZHttUhS2PBj.jpg"/>
+    <hyperlink ref="Q257" r:id="rId159" display="https://www.imdb.com/title/tt0985699/?ref_=fn_all_ttl_1"/>
+    <hyperlink ref="Q264" r:id="rId160" display="https://www.imdb.com/title/tt0306414/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="3545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6084" uniqueCount="3573">
   <si>
     <t xml:space="preserve">Tag</t>
   </si>
@@ -7882,6 +7882,49 @@
     <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/tlbERIghrQ4oofqlbF7H0K0EYnx.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">poltergeist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poltergeist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horror, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobe Hooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JoBeth Willams, Heather O'Rourke, Craig T. Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A family's home becomes the center of paranormal activity that opens a doorway to the "other side." With help, they must cross over to get their daughter back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/9eZgEKjYJqA?si=Lho-X2Dasb8jOEQW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width=100%" height=250
+" src="https://www.youtube.com/embed/9eZgEKjYJqA?si=Lho-X2Dasb8jOEQW" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0084516/?ref_=fn_all_ttl_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critics 88% / Audience 79%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/1016513-poltergeist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/reviews/poltergeist-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 - But Poltergeist is an effective thriller, not so much because of the special effects, as because Hooper and Spielberg have tried to see the movie’s strange events through the eyes of the family members, instead of just standing back and letting the special effects overwhelm the cast along with the audience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/4eMN3GANH5GG4kXdHkrTZEUuQ9M.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">predator_1</t>
   </si>
   <si>
@@ -9039,6 +9082,48 @@
   </si>
   <si>
     <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/zjrpWniKbzu0zFR5sUI1Ptdfl9y.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sky_captain_world_tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky Captain and the World of Tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Adventure, Mystery, Sci-Fi, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerry Conran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwyneth Paltrow, Jude Law, Angelina Jolie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After New York City receives a series of attacks from giant flying robots, a reporter teams up with a pilot in search of their origin, as well as the reason for the disappearances of famous scientists around the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/5D-aYfrthJc?si=uGSiOrk-HP6Q2GJx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/5D-aYfrthJc?si=uGSiOrk-HP6Q2GJx" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0346156/?ref_=fn_all_ttl_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critics 71% / Audience 49%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/sky_captain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/reviews/sky-captain-and-the-world-of-tomorrow-2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/4 - It’s like a film that escaped from the imagination directly onto the screen, without having to pass through reality along the way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/x5rsaMRh3hziARHs9xrvfb0IaIC.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">sleepwalk_with_me</t>
@@ -10981,10 +11066,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO284"/>
+  <dimension ref="A1:BO286"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G189" activeCellId="0" sqref="G189"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O237" activeCellId="0" sqref="O237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25477,7 +25562,7 @@
       </c>
       <c r="X200" s="5"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>2618</v>
       </c>
@@ -25488,19 +25573,19 @@
         <v>25</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>2619</v>
-      </c>
-      <c r="E201" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F201" s="5" t="n">
-        <v>1987</v>
+        <v>26</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F201" s="6" t="n">
+        <v>1982</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>1982</v>
+        <v>229</v>
       </c>
       <c r="I201" s="5" t="s">
         <v>29</v>
@@ -25509,103 +25594,103 @@
         <v>2620</v>
       </c>
       <c r="K201" s="5" t="s">
-        <v>48</v>
+        <v>2621</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="M201" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="N201" s="5" t="s">
-        <v>2623</v>
-      </c>
-      <c r="O201" s="5" t="s">
         <v>2624</v>
       </c>
+      <c r="O201" s="8" t="s">
+        <v>2625</v>
+      </c>
       <c r="P201" s="5" t="s">
-        <v>107</v>
+        <v>1267</v>
       </c>
       <c r="Q201" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="R201" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="S201" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="T201" s="5" t="s">
-        <v>106</v>
+        <v>2629</v>
       </c>
       <c r="U201" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V201" s="5" t="s">
-        <v>106</v>
+        <v>2630</v>
       </c>
       <c r="W201" s="5" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="X201" s="5"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>2619</v>
+        <v>2633</v>
       </c>
       <c r="E202" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F202" s="5" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>2555</v>
+        <v>1982</v>
       </c>
       <c r="I202" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>230</v>
+        <v>2634</v>
       </c>
       <c r="K202" s="5" t="s">
-        <v>2631</v>
+        <v>48</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="M202" s="5" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
       <c r="N202" s="5" t="s">
-        <v>2634</v>
+        <v>2637</v>
       </c>
       <c r="O202" s="5" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="P202" s="5" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="Q202" s="5" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="R202" s="5" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="T202" s="5" t="s">
         <v>106</v>
@@ -25617,67 +25702,67 @@
         <v>106</v>
       </c>
       <c r="W202" s="5" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="X202" s="5"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>2619</v>
+        <v>2633</v>
       </c>
       <c r="E203" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F203" s="5" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>1982</v>
+        <v>2555</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>1154</v>
+        <v>230</v>
       </c>
       <c r="K203" s="5" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="M203" s="5" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="N203" s="5" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
       <c r="O203" s="5" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="P203" s="5" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="Q203" s="5" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="R203" s="5" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="S203" s="5" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="T203" s="5" t="s">
         <v>106</v>
@@ -25689,28 +25774,28 @@
         <v>106</v>
       </c>
       <c r="W203" s="5" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="X203" s="5"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>2619</v>
+        <v>2633</v>
       </c>
       <c r="E204" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F204" s="5" t="n">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>27</v>
@@ -25725,31 +25810,31 @@
         <v>1154</v>
       </c>
       <c r="K204" s="5" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
       <c r="M204" s="5" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="N204" s="5" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="O204" s="5" t="s">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="P204" s="5" t="s">
-        <v>1774</v>
+        <v>235</v>
       </c>
       <c r="Q204" s="5" t="s">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="R204" s="5" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="T204" s="5" t="s">
         <v>106</v>
@@ -25761,67 +25846,67 @@
         <v>106</v>
       </c>
       <c r="W204" s="5" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="X204" s="5"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>26</v>
+        <v>2633</v>
+      </c>
+      <c r="E205" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F205" s="5" t="n">
-        <v>1987</v>
+        <v>2018</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>2197</v>
+        <v>1982</v>
       </c>
       <c r="I205" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>2664</v>
+        <v>1154</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>2259</v>
+        <v>2667</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="M205" s="5" t="s">
-        <v>2666</v>
+        <v>2669</v>
       </c>
       <c r="N205" s="5" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="O205" s="5" t="s">
-        <v>2668</v>
+        <v>2671</v>
       </c>
       <c r="P205" s="5" t="s">
-        <v>36</v>
+        <v>1774</v>
       </c>
       <c r="Q205" s="5" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="R205" s="5" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="S205" s="5" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
       <c r="T205" s="5" t="s">
         <v>106</v>
@@ -25833,67 +25918,67 @@
         <v>106</v>
       </c>
       <c r="W205" s="5" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="X205" s="5"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="13" t="s">
-        <v>2673</v>
+      <c r="A206" s="1" t="s">
+        <v>2676</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>699</v>
+        <v>26</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F206" s="5" t="n">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>2495</v>
+        <v>2197</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>684</v>
+        <v>29</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>2676</v>
+        <v>2259</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="M206" s="5" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="N206" s="5" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="O206" s="5" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="P206" s="5" t="s">
-        <v>1119</v>
+        <v>36</v>
       </c>
       <c r="Q206" s="5" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="R206" s="5" t="s">
-        <v>207</v>
+        <v>2684</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="T206" s="5" t="s">
         <v>106</v>
@@ -25905,67 +25990,67 @@
         <v>106</v>
       </c>
       <c r="W206" s="5" t="s">
-        <v>2683</v>
+        <v>2686</v>
       </c>
       <c r="X206" s="5"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>2684</v>
+      <c r="A207" s="13" t="s">
+        <v>2687</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>997</v>
+        <v>699</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F207" s="5" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>2686</v>
+        <v>2495</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>29</v>
+        <v>684</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="K207" s="5" t="s">
-        <v>1000</v>
+        <v>2690</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="M207" s="5" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="N207" s="5" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
       <c r="O207" s="5" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="P207" s="5" t="s">
-        <v>1930</v>
+        <v>1119</v>
       </c>
       <c r="Q207" s="5" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="R207" s="5" t="s">
-        <v>2693</v>
+        <v>207</v>
       </c>
       <c r="S207" s="5" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="T207" s="5" t="s">
         <v>106</v>
@@ -25977,67 +26062,67 @@
         <v>106</v>
       </c>
       <c r="W207" s="5" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="X207" s="5"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>26</v>
+        <v>997</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F208" s="5" t="n">
-        <v>1981</v>
+        <v>1994</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>2159</v>
+        <v>2700</v>
       </c>
       <c r="I208" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J208" s="5" t="s">
-        <v>1074</v>
+        <v>2701</v>
       </c>
       <c r="K208" s="5" t="s">
-        <v>2698</v>
+        <v>1000</v>
       </c>
       <c r="L208" s="5" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
       <c r="M208" s="5" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="N208" s="5" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="O208" s="5" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
       <c r="P208" s="5" t="s">
-        <v>1267</v>
+        <v>1930</v>
       </c>
       <c r="Q208" s="5" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="R208" s="5" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="T208" s="5" t="s">
         <v>106</v>
@@ -26049,16 +26134,16 @@
         <v>106</v>
       </c>
       <c r="W208" s="5" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="X208" s="5"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>25</v>
@@ -26070,46 +26155,46 @@
         <v>26</v>
       </c>
       <c r="F209" s="5" t="n">
-        <v>2018</v>
+        <v>1981</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>2709</v>
+        <v>2159</v>
       </c>
       <c r="I209" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>2710</v>
+        <v>1074</v>
       </c>
       <c r="K209" s="5" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="M209" s="5" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="N209" s="5" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="O209" s="5" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="P209" s="5" t="s">
-        <v>434</v>
+        <v>1267</v>
       </c>
       <c r="Q209" s="5" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="R209" s="5" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="S209" s="5" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="T209" s="5" t="s">
         <v>106</v>
@@ -26121,19 +26206,19 @@
         <v>106</v>
       </c>
       <c r="W209" s="5" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="X209" s="5"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>1260</v>
+        <v>25</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>26</v>
@@ -26142,46 +26227,46 @@
         <v>26</v>
       </c>
       <c r="F210" s="5" t="n">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="I210" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>1260</v>
+        <v>2724</v>
       </c>
       <c r="K210" s="5" t="s">
-        <v>106</v>
+        <v>2725</v>
       </c>
       <c r="L210" s="5" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="M210" s="5" t="s">
-        <v>106</v>
+        <v>2727</v>
       </c>
       <c r="N210" s="5" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="O210" s="5" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="P210" s="5" t="s">
-        <v>106</v>
+        <v>434</v>
       </c>
       <c r="Q210" s="5" t="s">
-        <v>106</v>
+        <v>2730</v>
       </c>
       <c r="R210" s="5" t="s">
-        <v>2278</v>
+        <v>2731</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>2726</v>
+        <v>2732</v>
       </c>
       <c r="T210" s="5" t="s">
         <v>106</v>
@@ -26193,19 +26278,19 @@
         <v>106</v>
       </c>
       <c r="W210" s="5" t="s">
-        <v>2727</v>
+        <v>2733</v>
       </c>
       <c r="X210" s="5"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>2728</v>
+        <v>2734</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>2729</v>
+        <v>2735</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>25</v>
+        <v>1260</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>26</v>
@@ -26214,46 +26299,46 @@
         <v>26</v>
       </c>
       <c r="F211" s="5" t="n">
-        <v>1954</v>
+        <v>2011</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>331</v>
+        <v>106</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>2730</v>
+        <v>2736</v>
       </c>
       <c r="I211" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>2731</v>
+        <v>1260</v>
       </c>
       <c r="K211" s="5" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>2732</v>
+        <v>2737</v>
       </c>
       <c r="M211" s="5" t="s">
-        <v>2733</v>
+        <v>106</v>
       </c>
       <c r="N211" s="5" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="O211" s="5" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="P211" s="5" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="Q211" s="5" t="s">
-        <v>2736</v>
+        <v>106</v>
       </c>
       <c r="R211" s="5" t="s">
-        <v>2737</v>
+        <v>2278</v>
       </c>
       <c r="S211" s="5" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="T211" s="5" t="s">
         <v>106</v>
@@ -26264,17 +26349,17 @@
       <c r="V211" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W211" s="4" t="s">
-        <v>2739</v>
-      </c>
-      <c r="X211" s="4"/>
+      <c r="W211" s="5" t="s">
+        <v>2741</v>
+      </c>
+      <c r="X211" s="5"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>25</v>
@@ -26286,46 +26371,46 @@
         <v>26</v>
       </c>
       <c r="F212" s="5" t="n">
-        <v>2002</v>
+        <v>1954</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="I212" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J212" s="5" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="K212" s="5" t="s">
-        <v>2744</v>
+        <v>133</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="N212" s="5" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="O212" s="5" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="P212" s="5" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="Q212" s="5" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="R212" s="5" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="S212" s="5" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="T212" s="5" t="s">
         <v>106</v>
@@ -26336,68 +26421,68 @@
       <c r="V212" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W212" s="5" t="s">
-        <v>2752</v>
-      </c>
-      <c r="X212" s="5"/>
+      <c r="W212" s="4" t="s">
+        <v>2753</v>
+      </c>
+      <c r="X212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>997</v>
+        <v>26</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F213" s="5" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>2511</v>
+        <v>2756</v>
       </c>
       <c r="I213" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>152</v>
+        <v>2757</v>
       </c>
       <c r="K213" s="5" t="s">
-        <v>1000</v>
+        <v>2758</v>
       </c>
       <c r="L213" s="5" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="M213" s="5" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="N213" s="5" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="O213" s="5" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="P213" s="5" t="s">
-        <v>1119</v>
+        <v>250</v>
       </c>
       <c r="Q213" s="5" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="R213" s="5" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="S213" s="5" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="T213" s="5" t="s">
         <v>106</v>
@@ -26409,67 +26494,67 @@
         <v>106</v>
       </c>
       <c r="W213" s="5" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
       <c r="X213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>2765</v>
-      </c>
-      <c r="E214" s="6" t="n">
-        <v>1</v>
+        <v>997</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F214" s="5" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>63</v>
+        <v>2511</v>
       </c>
       <c r="I214" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="K214" s="5" t="s">
-        <v>2766</v>
+        <v>1000</v>
       </c>
       <c r="L214" s="5" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="M214" s="5" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="O214" s="5" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="P214" s="5" t="s">
-        <v>157</v>
+        <v>1119</v>
       </c>
       <c r="Q214" s="5" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="R214" s="5" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="S214" s="5" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="T214" s="5" t="s">
         <v>106</v>
@@ -26481,67 +26566,67 @@
         <v>106</v>
       </c>
       <c r="W214" s="5" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="X214" s="5"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>2765</v>
+        <v>2779</v>
       </c>
       <c r="E215" s="6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F215" s="5" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>1329</v>
+        <v>27</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>2777</v>
+        <v>63</v>
       </c>
       <c r="I215" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>2778</v>
+        <v>272</v>
       </c>
       <c r="K215" s="5" t="s">
-        <v>102</v>
+        <v>2780</v>
       </c>
       <c r="L215" s="5" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="M215" s="5" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="N215" s="5" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="O215" s="5" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="P215" s="5" t="s">
-        <v>306</v>
+        <v>157</v>
       </c>
       <c r="Q215" s="5" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="R215" s="5" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="S215" s="5" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="T215" s="5" t="s">
         <v>106</v>
@@ -26553,67 +26638,67 @@
         <v>106</v>
       </c>
       <c r="W215" s="5" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="X215" s="5"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>2765</v>
+        <v>2779</v>
       </c>
       <c r="E216" s="6" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F216" s="5" t="n">
         <v>2004</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>27</v>
+        <v>1329</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>1889</v>
+        <v>2791</v>
       </c>
       <c r="I216" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>1154</v>
+        <v>2792</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>2766</v>
+        <v>102</v>
       </c>
       <c r="L216" s="5" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="M216" s="5" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="N216" s="5" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
       <c r="O216" s="5" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
       <c r="P216" s="5" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="Q216" s="5" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="R216" s="5" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="S216" s="5" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="T216" s="5" t="s">
         <v>106</v>
@@ -26625,211 +26710,211 @@
         <v>106</v>
       </c>
       <c r="W216" s="5" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="X216" s="5"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>2797</v>
+        <v>2801</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>2798</v>
+        <v>2802</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>26</v>
+        <v>2779</v>
+      </c>
+      <c r="E217" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F217" s="5" t="n">
-        <v>1959</v>
+        <v>2004</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>715</v>
+        <v>1889</v>
       </c>
       <c r="I217" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>999</v>
+        <v>1154</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>518</v>
+        <v>2780</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="M217" s="5" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="N217" s="5" t="s">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="O217" s="5" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="P217" s="5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q217" s="5" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="R217" s="5" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="S217" s="5" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="T217" s="5" t="s">
-        <v>2806</v>
+        <v>106</v>
       </c>
       <c r="U217" s="5" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="V217" s="5" t="s">
-        <v>2807</v>
+        <v>106</v>
       </c>
       <c r="W217" s="5" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="X217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>2810</v>
-      </c>
-      <c r="E218" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F218" s="5" t="n">
-        <v>1987</v>
+        <v>1959</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>2811</v>
+        <v>715</v>
       </c>
       <c r="I218" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>2812</v>
+        <v>999</v>
       </c>
       <c r="K218" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="L218" s="5" t="s">
         <v>2813</v>
       </c>
-      <c r="L218" s="5" t="s">
+      <c r="M218" s="5" t="s">
         <v>2814</v>
       </c>
-      <c r="M218" s="5" t="s">
+      <c r="N218" s="5" t="s">
         <v>2815</v>
       </c>
-      <c r="N218" s="5" t="s">
+      <c r="O218" s="5" t="s">
         <v>2816</v>
       </c>
-      <c r="O218" s="5" t="s">
+      <c r="P218" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q218" s="5" t="s">
         <v>2817</v>
       </c>
-      <c r="P218" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q218" s="5" t="s">
+      <c r="R218" s="5" t="s">
         <v>2818</v>
       </c>
-      <c r="R218" s="5" t="s">
+      <c r="S218" s="5" t="s">
         <v>2819</v>
       </c>
-      <c r="S218" s="5" t="s">
+      <c r="T218" s="5" t="s">
         <v>2820</v>
       </c>
-      <c r="T218" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="U218" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V218" s="5" t="s">
-        <v>106</v>
+        <v>2821</v>
       </c>
       <c r="W218" s="5" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="X218" s="5"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>2810</v>
+        <v>2824</v>
       </c>
       <c r="E219" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F219" s="5" t="n">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="I219" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>2812</v>
+        <v>2826</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="L219" s="5" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="M219" s="5" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="N219" s="5" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="O219" s="5" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="P219" s="5" t="s">
-        <v>2830</v>
+        <v>87</v>
       </c>
       <c r="Q219" s="5" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="R219" s="5" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="S219" s="5" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="T219" s="5" t="s">
         <v>106</v>
@@ -26841,40 +26926,40 @@
         <v>106</v>
       </c>
       <c r="W219" s="5" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="X219" s="5"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>26</v>
+        <v>2824</v>
+      </c>
+      <c r="E220" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F220" s="5" t="n">
-        <v>2023</v>
+        <v>1993</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="I220" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>2838</v>
+        <v>2826</v>
       </c>
       <c r="K220" s="5" t="s">
         <v>2839</v>
@@ -26892,16 +26977,16 @@
         <v>2843</v>
       </c>
       <c r="P220" s="5" t="s">
-        <v>87</v>
+        <v>2844</v>
       </c>
       <c r="Q220" s="5" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="R220" s="5" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="S220" s="5" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="T220" s="5" t="s">
         <v>106</v>
@@ -26913,16 +26998,16 @@
         <v>106</v>
       </c>
       <c r="W220" s="5" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="X220" s="5"/>
     </row>
-    <row r="221" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>25</v>
@@ -26934,67 +27019,67 @@
         <v>26</v>
       </c>
       <c r="F221" s="5" t="n">
-        <v>1984</v>
+        <v>2023</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>1286</v>
+        <v>2851</v>
       </c>
       <c r="I221" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>861</v>
+        <v>2853</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="M221" s="5" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="N221" s="5" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="O221" s="5" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
       <c r="P221" s="5" t="s">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="Q221" s="5" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="R221" s="5" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="S221" s="5" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
       <c r="T221" s="5" t="s">
-        <v>2858</v>
+        <v>106</v>
       </c>
       <c r="U221" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V221" s="8" t="s">
-        <v>2859</v>
+        <v>106</v>
+      </c>
+      <c r="V221" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="W221" s="5" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="X221" s="5"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>25</v>
@@ -27006,67 +27091,67 @@
         <v>26</v>
       </c>
       <c r="F222" s="5" t="n">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>2022</v>
+        <v>1286</v>
       </c>
       <c r="I222" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J222" s="5" t="s">
-        <v>489</v>
+        <v>2864</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>2863</v>
+        <v>861</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="M222" s="5" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="N222" s="5" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="O222" s="5" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="P222" s="5" t="s">
-        <v>1267</v>
+        <v>291</v>
       </c>
       <c r="Q222" s="5" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="R222" s="5" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="S222" s="5" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="T222" s="5" t="s">
-        <v>106</v>
+        <v>2872</v>
       </c>
       <c r="U222" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V222" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
+      </c>
+      <c r="V222" s="8" t="s">
+        <v>2873</v>
       </c>
       <c r="W222" s="5" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="X222" s="5"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>25</v>
@@ -27084,184 +27169,184 @@
         <v>27</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>183</v>
+        <v>2022</v>
       </c>
       <c r="I223" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J223" s="10" t="s">
-        <v>638</v>
+      <c r="J223" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="K223" s="5" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="L223" s="5" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="M223" s="5" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="N223" s="5" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
       <c r="O223" s="5" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="P223" s="5" t="s">
-        <v>87</v>
+        <v>1267</v>
       </c>
       <c r="Q223" s="5" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="R223" s="5" t="s">
-        <v>692</v>
+        <v>2883</v>
       </c>
       <c r="S223" s="5" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="T223" s="5" t="s">
-        <v>2881</v>
+        <v>106</v>
       </c>
       <c r="U223" s="5" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="V223" s="5" t="s">
-        <v>2882</v>
+        <v>106</v>
       </c>
       <c r="W223" s="5" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="X223" s="5"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>2885</v>
-      </c>
-      <c r="E224" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F224" s="5" t="n">
         <v>1998</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>2197</v>
+        <v>183</v>
       </c>
       <c r="I224" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J224" s="5" t="s">
-        <v>2886</v>
+      <c r="J224" s="10" t="s">
+        <v>638</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="M224" s="5" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="N224" s="5" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="O224" s="5" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="P224" s="5" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="Q224" s="5" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="R224" s="5" t="s">
-        <v>2893</v>
+        <v>692</v>
       </c>
       <c r="S224" s="5" t="s">
         <v>2894</v>
       </c>
       <c r="T224" s="5" t="s">
-        <v>106</v>
+        <v>2895</v>
       </c>
       <c r="U224" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V224" s="5" t="s">
-        <v>106</v>
+        <v>2896</v>
       </c>
       <c r="W224" s="5" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="X224" s="5"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>2885</v>
+        <v>2899</v>
       </c>
       <c r="E225" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225" s="5" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>2709</v>
+        <v>2197</v>
       </c>
       <c r="I225" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J225" s="5" t="s">
-        <v>2886</v>
+        <v>2900</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>2887</v>
+        <v>2901</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="M225" s="5" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="N225" s="5" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="O225" s="5" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="P225" s="5" t="s">
-        <v>394</v>
+        <v>157</v>
       </c>
       <c r="Q225" s="5" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="R225" s="5" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="S225" s="5" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="T225" s="5" t="s">
         <v>106</v>
@@ -27273,67 +27358,67 @@
         <v>106</v>
       </c>
       <c r="W225" s="5" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="X225" s="5"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>2885</v>
+        <v>2899</v>
       </c>
       <c r="E226" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F226" s="5" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>2908</v>
+        <v>2723</v>
       </c>
       <c r="I226" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J226" s="5" t="s">
-        <v>2886</v>
+        <v>2900</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>2887</v>
+        <v>2901</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>2909</v>
+        <v>2912</v>
       </c>
       <c r="M226" s="5" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="N226" s="5" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="O226" s="5" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="P226" s="5" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="Q226" s="5" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
       <c r="R226" s="5" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="S226" s="5" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="T226" s="5" t="s">
         <v>106</v>
@@ -27345,67 +27430,67 @@
         <v>106</v>
       </c>
       <c r="W226" s="5" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="X226" s="5"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>2918</v>
+        <v>2921</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>26</v>
+        <v>2899</v>
+      </c>
+      <c r="E227" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F227" s="5" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>2340</v>
+        <v>2922</v>
       </c>
       <c r="I227" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J227" s="5" t="s">
-        <v>2919</v>
+        <v>2900</v>
       </c>
       <c r="K227" s="5" t="s">
-        <v>2920</v>
+        <v>2901</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="M227" s="5" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="N227" s="5" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="O227" s="5" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="P227" s="5" t="s">
-        <v>1726</v>
+        <v>250</v>
       </c>
       <c r="Q227" s="5" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="R227" s="5" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="S227" s="5" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="T227" s="5" t="s">
         <v>106</v>
@@ -27417,19 +27502,19 @@
         <v>106</v>
       </c>
       <c r="W227" s="5" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="X227" s="5"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>26</v>
@@ -27438,13 +27523,13 @@
         <v>26</v>
       </c>
       <c r="F228" s="5" t="n">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>2931</v>
+        <v>117</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>2932</v>
+        <v>2340</v>
       </c>
       <c r="I228" s="5" t="s">
         <v>29</v>
@@ -27453,31 +27538,31 @@
         <v>2933</v>
       </c>
       <c r="K228" s="5" t="s">
-        <v>106</v>
+        <v>2934</v>
       </c>
       <c r="L228" s="5" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="M228" s="5" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="N228" s="5" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="O228" s="5" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="P228" s="5" t="s">
-        <v>449</v>
+        <v>1726</v>
       </c>
       <c r="Q228" s="5" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="R228" s="5" t="s">
-        <v>2278</v>
+        <v>2940</v>
       </c>
       <c r="S228" s="5" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="T228" s="5" t="s">
         <v>106</v>
@@ -27489,19 +27574,19 @@
         <v>106</v>
       </c>
       <c r="W228" s="5" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="X228" s="5"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>26</v>
@@ -27510,46 +27595,46 @@
         <v>26</v>
       </c>
       <c r="F229" s="5" t="n">
-        <v>2010</v>
+        <v>1973</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>117</v>
+        <v>2945</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>2730</v>
+        <v>2946</v>
       </c>
       <c r="I229" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>2943</v>
+        <v>2947</v>
       </c>
       <c r="K229" s="5" t="s">
-        <v>2944</v>
+        <v>106</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>2945</v>
+        <v>2948</v>
       </c>
       <c r="M229" s="5" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="N229" s="5" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="O229" s="5" t="s">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="P229" s="5" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="Q229" s="5" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="R229" s="5" t="s">
-        <v>2950</v>
+        <v>2278</v>
       </c>
       <c r="S229" s="5" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="T229" s="5" t="s">
         <v>106</v>
@@ -27561,16 +27646,16 @@
         <v>106</v>
       </c>
       <c r="W229" s="5" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="X229" s="5"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>25</v>
@@ -27582,46 +27667,46 @@
         <v>26</v>
       </c>
       <c r="F230" s="5" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>2022</v>
+        <v>2744</v>
       </c>
       <c r="I230" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J230" s="5" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="K230" s="5" t="s">
-        <v>376</v>
+        <v>2958</v>
       </c>
       <c r="L230" s="5" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="M230" s="5" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="N230" s="5" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="O230" s="5" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="P230" s="5" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="Q230" s="5" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="R230" s="5" t="s">
-        <v>766</v>
+        <v>2964</v>
       </c>
       <c r="S230" s="5" t="s">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="T230" s="5" t="s">
         <v>106</v>
@@ -27633,160 +27718,160 @@
         <v>106</v>
       </c>
       <c r="W230" s="5" t="s">
-        <v>2962</v>
+        <v>2966</v>
       </c>
       <c r="X230" s="5"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>2963</v>
+        <v>2967</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>2964</v>
+        <v>2968</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>2965</v>
+        <v>26</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F231" s="5" t="n">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>429</v>
+        <v>2022</v>
       </c>
       <c r="I231" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>2966</v>
+        <v>2969</v>
       </c>
       <c r="K231" s="5" t="s">
-        <v>2967</v>
+        <v>376</v>
       </c>
       <c r="L231" s="5" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="M231" s="5" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="N231" s="5" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
       <c r="O231" s="5" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
       <c r="P231" s="5" t="s">
-        <v>2972</v>
+        <v>338</v>
       </c>
       <c r="Q231" s="5" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="R231" s="5" t="s">
-        <v>1943</v>
+        <v>766</v>
       </c>
       <c r="S231" s="5" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="T231" s="5" t="s">
-        <v>2975</v>
+        <v>106</v>
       </c>
       <c r="U231" s="5" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="V231" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W231" s="5" t="s">
         <v>2976</v>
-      </c>
-      <c r="W231" s="5" t="s">
-        <v>2977</v>
       </c>
       <c r="X231" s="5"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>2978</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>2979</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>26</v>
+        <v>2979</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F232" s="5" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>2980</v>
+        <v>429</v>
       </c>
       <c r="I232" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J232" s="5" t="s">
+        <v>2980</v>
+      </c>
+      <c r="K232" s="5" t="s">
         <v>2981</v>
       </c>
-      <c r="K232" s="5" t="s">
+      <c r="L232" s="5" t="s">
         <v>2982</v>
       </c>
-      <c r="L232" s="5" t="s">
+      <c r="M232" s="5" t="s">
         <v>2983</v>
       </c>
-      <c r="M232" s="5" t="s">
+      <c r="N232" s="5" t="s">
         <v>2984</v>
       </c>
-      <c r="N232" s="5" t="s">
+      <c r="O232" s="5" t="s">
         <v>2985</v>
       </c>
-      <c r="O232" s="5" t="s">
+      <c r="P232" s="5" t="s">
         <v>2986</v>
-      </c>
-      <c r="P232" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="Q232" s="5" t="s">
         <v>2987</v>
       </c>
       <c r="R232" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="S232" s="5" t="s">
         <v>2988</v>
       </c>
-      <c r="S232" s="5" t="s">
+      <c r="T232" s="5" t="s">
         <v>2989</v>
-      </c>
-      <c r="T232" s="5" t="s">
-        <v>2990</v>
       </c>
       <c r="U232" s="5" t="s">
         <v>41</v>
       </c>
       <c r="V232" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="W232" s="5" t="s">
         <v>2991</v>
-      </c>
-      <c r="W232" s="5" t="s">
-        <v>2992</v>
       </c>
       <c r="X232" s="5"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B233" s="5" t="s">
         <v>2993</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>2994</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>25</v>
@@ -27798,13 +27883,13 @@
         <v>26</v>
       </c>
       <c r="F233" s="5" t="n">
-        <v>1952</v>
+        <v>2002</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>2837</v>
+        <v>2994</v>
       </c>
       <c r="I233" s="5" t="s">
         <v>29</v>
@@ -27828,37 +27913,37 @@
         <v>3000</v>
       </c>
       <c r="P233" s="5" t="s">
-        <v>1119</v>
+        <v>321</v>
       </c>
       <c r="Q233" s="5" t="s">
         <v>3001</v>
       </c>
       <c r="R233" s="5" t="s">
-        <v>356</v>
+        <v>3002</v>
       </c>
       <c r="S233" s="5" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="T233" s="5" t="s">
-        <v>106</v>
+        <v>3004</v>
       </c>
       <c r="U233" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V233" s="5" t="s">
-        <v>106</v>
+        <v>3005</v>
       </c>
       <c r="W233" s="5" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="X233" s="5"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>25</v>
@@ -27870,46 +27955,46 @@
         <v>26</v>
       </c>
       <c r="F234" s="5" t="n">
-        <v>2012</v>
+        <v>1952</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>3006</v>
+        <v>2851</v>
       </c>
       <c r="I234" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J234" s="5" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="K234" s="5" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="L234" s="5" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="M234" s="5" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="N234" s="5" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="O234" s="5" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="P234" s="5" t="s">
-        <v>394</v>
+        <v>1119</v>
       </c>
       <c r="Q234" s="5" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="R234" s="5" t="s">
-        <v>3014</v>
+        <v>356</v>
       </c>
       <c r="S234" s="5" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="T234" s="5" t="s">
         <v>106</v>
@@ -27921,16 +28006,16 @@
         <v>106</v>
       </c>
       <c r="W234" s="5" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="X234" s="5"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>25</v>
@@ -27942,70 +28027,70 @@
         <v>26</v>
       </c>
       <c r="F235" s="5" t="n">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>2307</v>
+        <v>1286</v>
       </c>
       <c r="I235" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>984</v>
+        <v>3020</v>
       </c>
       <c r="K235" s="5" t="s">
-        <v>2220</v>
+        <v>3021</v>
       </c>
       <c r="L235" s="5" t="s">
-        <v>3019</v>
+        <v>3022</v>
       </c>
       <c r="M235" s="5" t="s">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>3021</v>
+        <v>3024</v>
       </c>
       <c r="O235" s="5" t="s">
-        <v>3022</v>
+        <v>3025</v>
       </c>
       <c r="P235" s="5" t="s">
-        <v>535</v>
+        <v>1726</v>
       </c>
       <c r="Q235" s="5" t="s">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="R235" s="5" t="s">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="S235" s="5" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="T235" s="5" t="s">
-        <v>106</v>
+        <v>3029</v>
       </c>
       <c r="U235" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V235" s="5" t="s">
-        <v>106</v>
+        <v>3030</v>
       </c>
       <c r="W235" s="5" t="s">
-        <v>3026</v>
+        <v>3031</v>
       </c>
       <c r="X235" s="5"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>3027</v>
+        <v>3032</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>3028</v>
+        <v>3033</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>26</v>
@@ -28014,46 +28099,46 @@
         <v>26</v>
       </c>
       <c r="F236" s="5" t="n">
-        <v>1967</v>
+        <v>2012</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>3029</v>
+        <v>117</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>3030</v>
+        <v>3034</v>
       </c>
       <c r="I236" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="K236" s="5" t="s">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>3033</v>
+        <v>3037</v>
       </c>
       <c r="M236" s="5" t="s">
-        <v>3034</v>
+        <v>3038</v>
       </c>
       <c r="N236" s="5" t="s">
-        <v>3035</v>
+        <v>3039</v>
       </c>
       <c r="O236" s="5" t="s">
-        <v>3036</v>
+        <v>3040</v>
       </c>
       <c r="P236" s="5" t="s">
-        <v>71</v>
+        <v>394</v>
       </c>
       <c r="Q236" s="5" t="s">
-        <v>3037</v>
+        <v>3041</v>
       </c>
       <c r="R236" s="5" t="s">
-        <v>2704</v>
+        <v>3042</v>
       </c>
       <c r="S236" s="5" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
       <c r="T236" s="5" t="s">
         <v>106</v>
@@ -28065,67 +28150,67 @@
         <v>106</v>
       </c>
       <c r="W236" s="5" t="s">
-        <v>3039</v>
+        <v>3044</v>
       </c>
       <c r="X236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>3040</v>
+        <v>3045</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>3041</v>
+        <v>3046</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>3041</v>
-      </c>
-      <c r="E237" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F237" s="6" t="n">
-        <v>2002</v>
+        <v>26</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F237" s="5" t="n">
+        <v>2013</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>2022</v>
+        <v>2307</v>
       </c>
       <c r="I237" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>1027</v>
+        <v>984</v>
       </c>
       <c r="K237" s="5" t="s">
-        <v>3042</v>
+        <v>2220</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>3043</v>
+        <v>3047</v>
       </c>
       <c r="M237" s="5" t="s">
-        <v>3044</v>
+        <v>3048</v>
       </c>
       <c r="N237" s="5" t="s">
-        <v>3045</v>
+        <v>3049</v>
       </c>
       <c r="O237" s="5" t="s">
-        <v>3046</v>
+        <v>3050</v>
       </c>
       <c r="P237" s="5" t="s">
-        <v>644</v>
+        <v>535</v>
       </c>
       <c r="Q237" s="5" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="R237" s="5" t="s">
-        <v>3048</v>
+        <v>3052</v>
       </c>
       <c r="S237" s="5" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
       <c r="T237" s="5" t="s">
         <v>106</v>
@@ -28137,67 +28222,67 @@
         <v>106</v>
       </c>
       <c r="W237" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
       </c>
       <c r="X237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>3041</v>
-      </c>
-      <c r="E238" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F238" s="6" t="n">
-        <v>2004</v>
+        <v>26</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F238" s="5" t="n">
+        <v>1967</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>117</v>
+        <v>3057</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>2439</v>
+        <v>3058</v>
       </c>
       <c r="I238" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J238" s="5" t="s">
-        <v>1027</v>
+        <v>3059</v>
       </c>
       <c r="K238" s="5" t="s">
-        <v>3042</v>
+        <v>3060</v>
       </c>
       <c r="L238" s="5" t="s">
-        <v>3053</v>
+        <v>3061</v>
       </c>
       <c r="M238" s="5" t="s">
-        <v>3054</v>
+        <v>3062</v>
       </c>
       <c r="N238" s="5" t="s">
-        <v>3055</v>
+        <v>3063</v>
       </c>
       <c r="O238" s="5" t="s">
-        <v>3056</v>
+        <v>3064</v>
       </c>
       <c r="P238" s="5" t="s">
-        <v>434</v>
+        <v>71</v>
       </c>
       <c r="Q238" s="5" t="s">
-        <v>3057</v>
+        <v>3065</v>
       </c>
       <c r="R238" s="5" t="s">
-        <v>1907</v>
+        <v>2718</v>
       </c>
       <c r="S238" s="5" t="s">
-        <v>3058</v>
+        <v>3066</v>
       </c>
       <c r="T238" s="5" t="s">
         <v>106</v>
@@ -28209,67 +28294,67 @@
         <v>106</v>
       </c>
       <c r="W238" s="5" t="s">
-        <v>3059</v>
+        <v>3067</v>
       </c>
       <c r="X238" s="5"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>3060</v>
+        <v>3068</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>3061</v>
+        <v>3069</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>3062</v>
+        <v>3069</v>
       </c>
       <c r="E239" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F239" s="5" t="n">
-        <v>2017</v>
+      <c r="F239" s="6" t="n">
+        <v>2002</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>2495</v>
+        <v>2022</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>1367</v>
+        <v>29</v>
       </c>
       <c r="J239" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="K239" s="5" t="s">
-        <v>3063</v>
+        <v>3070</v>
       </c>
       <c r="L239" s="5" t="s">
-        <v>3064</v>
+        <v>3071</v>
       </c>
       <c r="M239" s="5" t="s">
-        <v>3065</v>
+        <v>3072</v>
       </c>
       <c r="N239" s="5" t="s">
-        <v>3066</v>
+        <v>3073</v>
       </c>
       <c r="O239" s="5" t="s">
-        <v>3067</v>
+        <v>3074</v>
       </c>
       <c r="P239" s="5" t="s">
         <v>644</v>
       </c>
       <c r="Q239" s="5" t="s">
-        <v>3068</v>
+        <v>3075</v>
       </c>
       <c r="R239" s="5" t="s">
-        <v>3069</v>
+        <v>3076</v>
       </c>
       <c r="S239" s="5" t="s">
-        <v>3070</v>
+        <v>3077</v>
       </c>
       <c r="T239" s="5" t="s">
         <v>106</v>
@@ -28281,67 +28366,67 @@
         <v>106</v>
       </c>
       <c r="W239" s="5" t="s">
-        <v>3071</v>
+        <v>3078</v>
       </c>
       <c r="X239" s="5"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>3072</v>
+        <v>3079</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>3073</v>
+        <v>3080</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>3074</v>
+        <v>3069</v>
       </c>
       <c r="E240" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F240" s="5" t="n">
-        <v>2018</v>
+        <v>2</v>
+      </c>
+      <c r="F240" s="6" t="n">
+        <v>2004</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>199</v>
+        <v>2439</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>1367</v>
+        <v>29</v>
       </c>
       <c r="J240" s="5" t="s">
-        <v>2160</v>
+        <v>1027</v>
       </c>
       <c r="K240" s="5" t="s">
-        <v>3075</v>
+        <v>3070</v>
       </c>
       <c r="L240" s="5" t="s">
-        <v>3076</v>
+        <v>3081</v>
       </c>
       <c r="M240" s="5" t="s">
-        <v>3077</v>
+        <v>3082</v>
       </c>
       <c r="N240" s="5" t="s">
-        <v>3078</v>
+        <v>3083</v>
       </c>
       <c r="O240" s="5" t="s">
-        <v>3079</v>
+        <v>3084</v>
       </c>
       <c r="P240" s="5" t="s">
-        <v>220</v>
+        <v>434</v>
       </c>
       <c r="Q240" s="5" t="s">
-        <v>3080</v>
+        <v>3085</v>
       </c>
       <c r="R240" s="5" t="s">
-        <v>3081</v>
+        <v>1907</v>
       </c>
       <c r="S240" s="5" t="s">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="T240" s="5" t="s">
         <v>106</v>
@@ -28353,67 +28438,67 @@
         <v>106</v>
       </c>
       <c r="W240" s="5" t="s">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="X240" s="5"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>26</v>
+        <v>3090</v>
+      </c>
+      <c r="E241" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F241" s="5" t="n">
-        <v>1994</v>
+        <v>2017</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>2451</v>
+        <v>2495</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>29</v>
+        <v>1367</v>
       </c>
       <c r="J241" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="K241" s="5" t="s">
-        <v>3086</v>
+        <v>3091</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>3087</v>
+        <v>3092</v>
       </c>
       <c r="M241" s="5" t="s">
-        <v>3088</v>
+        <v>3093</v>
       </c>
       <c r="N241" s="5" t="s">
-        <v>3089</v>
+        <v>3094</v>
       </c>
       <c r="O241" s="5" t="s">
-        <v>3090</v>
+        <v>3095</v>
       </c>
       <c r="P241" s="5" t="s">
-        <v>157</v>
+        <v>644</v>
       </c>
       <c r="Q241" s="5" t="s">
-        <v>3091</v>
+        <v>3096</v>
       </c>
       <c r="R241" s="5" t="s">
-        <v>3092</v>
+        <v>3097</v>
       </c>
       <c r="S241" s="5" t="s">
-        <v>3093</v>
+        <v>3098</v>
       </c>
       <c r="T241" s="5" t="s">
         <v>106</v>
@@ -28425,67 +28510,67 @@
         <v>106</v>
       </c>
       <c r="W241" s="5" t="s">
-        <v>3094</v>
+        <v>3099</v>
       </c>
       <c r="X241" s="5"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>3095</v>
+        <v>3100</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>3096</v>
+        <v>3101</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>3097</v>
-      </c>
-      <c r="E242" s="5" t="s">
-        <v>346</v>
+        <v>3102</v>
+      </c>
+      <c r="E242" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F242" s="5" t="n">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>2094</v>
+        <v>331</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>3098</v>
+        <v>199</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>29</v>
+        <v>1367</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>3099</v>
+        <v>2160</v>
       </c>
       <c r="K242" s="5" t="s">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="L242" s="5" t="s">
-        <v>3101</v>
+        <v>3104</v>
       </c>
       <c r="M242" s="5" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="N242" s="5" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="O242" s="5" t="s">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="P242" s="5" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="Q242" s="5" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="R242" s="5" t="s">
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="S242" s="5" t="s">
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="T242" s="5" t="s">
         <v>106</v>
@@ -28497,67 +28582,67 @@
         <v>106</v>
       </c>
       <c r="W242" s="5" t="s">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="X242" s="5"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>3109</v>
+        <v>3112</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>3110</v>
+        <v>3113</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>3110</v>
-      </c>
-      <c r="E243" s="5" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F243" s="5" t="n">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>2149</v>
+        <v>2451</v>
       </c>
       <c r="I243" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J243" s="5" t="s">
-        <v>1154</v>
+        <v>1027</v>
       </c>
       <c r="K243" s="5" t="s">
-        <v>2813</v>
+        <v>3114</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="M243" s="5" t="s">
-        <v>3112</v>
+        <v>3116</v>
       </c>
       <c r="N243" s="5" t="s">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="O243" s="5" t="s">
-        <v>3114</v>
+        <v>3118</v>
       </c>
       <c r="P243" s="5" t="s">
-        <v>1267</v>
+        <v>157</v>
       </c>
       <c r="Q243" s="5" t="s">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="R243" s="5" t="s">
-        <v>3116</v>
+        <v>3120</v>
       </c>
       <c r="S243" s="5" t="s">
-        <v>3117</v>
+        <v>3121</v>
       </c>
       <c r="T243" s="5" t="s">
         <v>106</v>
@@ -28569,67 +28654,67 @@
         <v>106</v>
       </c>
       <c r="W243" s="5" t="s">
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="X243" s="5"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>3119</v>
+        <v>3123</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>26</v>
+        <v>3125</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F244" s="6" t="n">
+        <v>346</v>
+      </c>
+      <c r="F244" s="5" t="n">
         <v>2009</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>117</v>
+        <v>2094</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>2439</v>
+        <v>3126</v>
       </c>
       <c r="I244" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J244" s="5" t="s">
-        <v>1027</v>
+        <v>3127</v>
       </c>
       <c r="K244" s="5" t="s">
-        <v>2308</v>
+        <v>3128</v>
       </c>
       <c r="L244" s="5" t="s">
-        <v>3121</v>
+        <v>3129</v>
       </c>
       <c r="M244" s="5" t="s">
-        <v>3122</v>
+        <v>3130</v>
       </c>
       <c r="N244" s="5" t="s">
-        <v>3123</v>
+        <v>3131</v>
       </c>
       <c r="O244" s="5" t="s">
-        <v>3124</v>
+        <v>3132</v>
       </c>
       <c r="P244" s="5" t="s">
-        <v>380</v>
+        <v>87</v>
       </c>
       <c r="Q244" s="5" t="s">
-        <v>3125</v>
+        <v>3133</v>
       </c>
       <c r="R244" s="5" t="s">
-        <v>3126</v>
+        <v>3134</v>
       </c>
       <c r="S244" s="5" t="s">
-        <v>3127</v>
+        <v>3135</v>
       </c>
       <c r="T244" s="5" t="s">
         <v>106</v>
@@ -28641,67 +28726,67 @@
         <v>106</v>
       </c>
       <c r="W244" s="5" t="s">
-        <v>3128</v>
+        <v>3136</v>
       </c>
       <c r="X244" s="5"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>3129</v>
+        <v>3137</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>3130</v>
+        <v>3138</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>3131</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>26</v>
+        <v>3138</v>
+      </c>
+      <c r="E245" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F245" s="5" t="n">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>3132</v>
+        <v>2149</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J245" s="5" t="s">
-        <v>1027</v>
+        <v>1154</v>
       </c>
       <c r="K245" s="5" t="s">
-        <v>1369</v>
+        <v>2827</v>
       </c>
       <c r="L245" s="5" t="s">
-        <v>3133</v>
+        <v>3139</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>3134</v>
+        <v>3140</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>3135</v>
+        <v>3141</v>
       </c>
       <c r="O245" s="5" t="s">
-        <v>3136</v>
+        <v>3142</v>
       </c>
       <c r="P245" s="5" t="s">
-        <v>107</v>
+        <v>1267</v>
       </c>
       <c r="Q245" s="5" t="s">
-        <v>3137</v>
+        <v>3143</v>
       </c>
       <c r="R245" s="5" t="s">
-        <v>1614</v>
+        <v>3144</v>
       </c>
       <c r="S245" s="5" t="s">
-        <v>3138</v>
+        <v>3145</v>
       </c>
       <c r="T245" s="5" t="s">
         <v>106</v>
@@ -28713,67 +28798,67 @@
         <v>106</v>
       </c>
       <c r="W245" s="5" t="s">
-        <v>3139</v>
+        <v>3146</v>
       </c>
       <c r="X245" s="5"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>3140</v>
+        <v>3147</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>3141</v>
+        <v>3148</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>3131</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>3142</v>
-      </c>
-      <c r="F246" s="5" t="n">
-        <v>1977</v>
+        <v>26</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F246" s="6" t="n">
+        <v>2009</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>2022</v>
+        <v>2439</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>3143</v>
+        <v>29</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>3144</v>
+        <v>1027</v>
       </c>
       <c r="K246" s="5" t="s">
-        <v>3145</v>
+        <v>2308</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="O246" s="5" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="P246" s="5" t="s">
-        <v>2972</v>
+        <v>380</v>
       </c>
       <c r="Q246" s="5" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="R246" s="5" t="s">
-        <v>2503</v>
+        <v>3154</v>
       </c>
       <c r="S246" s="5" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="T246" s="5" t="s">
         <v>106</v>
@@ -28785,67 +28870,67 @@
         <v>106</v>
       </c>
       <c r="W246" s="5" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="X246" s="5"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>3131</v>
+        <v>3159</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>3155</v>
+        <v>26</v>
       </c>
       <c r="F247" s="5" t="n">
-        <v>1980</v>
+        <v>2016</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>2340</v>
+        <v>3160</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>3143</v>
+        <v>64</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>3144</v>
+        <v>1027</v>
       </c>
       <c r="K247" s="5" t="s">
-        <v>3156</v>
+        <v>1369</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>3146</v>
+        <v>3161</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>3157</v>
+        <v>3162</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>3158</v>
+        <v>3163</v>
       </c>
       <c r="O247" s="5" t="s">
-        <v>3159</v>
+        <v>3164</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>354</v>
+        <v>107</v>
       </c>
       <c r="Q247" s="5" t="s">
-        <v>3160</v>
+        <v>3165</v>
       </c>
       <c r="R247" s="5" t="s">
-        <v>3161</v>
+        <v>1614</v>
       </c>
       <c r="S247" s="5" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="T247" s="5" t="s">
         <v>106</v>
@@ -28857,67 +28942,67 @@
         <v>106</v>
       </c>
       <c r="W247" s="5" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="X247" s="5"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>3131</v>
+        <v>3159</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="F248" s="5" t="n">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>331</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>2377</v>
+        <v>2022</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>3143</v>
+        <v>3171</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>3144</v>
+        <v>3172</v>
       </c>
       <c r="K248" s="5" t="s">
-        <v>3167</v>
+        <v>3173</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>3146</v>
+        <v>3174</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>3168</v>
+        <v>3175</v>
       </c>
       <c r="N248" s="5" t="s">
-        <v>3169</v>
+        <v>3176</v>
       </c>
       <c r="O248" s="5" t="s">
-        <v>3170</v>
+        <v>3177</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>1119</v>
+        <v>2986</v>
       </c>
       <c r="Q248" s="5" t="s">
-        <v>3171</v>
+        <v>3178</v>
       </c>
       <c r="R248" s="5" t="s">
-        <v>3172</v>
+        <v>2503</v>
       </c>
       <c r="S248" s="5" t="s">
-        <v>3173</v>
+        <v>3179</v>
       </c>
       <c r="T248" s="5" t="s">
         <v>106</v>
@@ -28929,67 +29014,67 @@
         <v>106</v>
       </c>
       <c r="W248" s="5" t="s">
-        <v>3174</v>
+        <v>3180</v>
       </c>
       <c r="X248" s="5"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>3175</v>
+        <v>3181</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>3176</v>
+        <v>3182</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>3131</v>
+        <v>3159</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>3177</v>
+        <v>3183</v>
       </c>
       <c r="F249" s="5" t="n">
-        <v>2015</v>
+        <v>1980</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>2114</v>
+        <v>2340</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>29</v>
+        <v>3171</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>1027</v>
+        <v>3172</v>
       </c>
       <c r="K249" s="5" t="s">
-        <v>2308</v>
+        <v>3184</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="M249" s="5" t="s">
-        <v>3179</v>
+        <v>3185</v>
       </c>
       <c r="N249" s="5" t="s">
-        <v>3180</v>
+        <v>3186</v>
       </c>
       <c r="O249" s="5" t="s">
-        <v>3181</v>
+        <v>3187</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>107</v>
+        <v>354</v>
       </c>
       <c r="Q249" s="5" t="s">
-        <v>3182</v>
+        <v>3188</v>
       </c>
       <c r="R249" s="5" t="s">
-        <v>3183</v>
+        <v>3189</v>
       </c>
       <c r="S249" s="5" t="s">
-        <v>3184</v>
+        <v>3190</v>
       </c>
       <c r="T249" s="5" t="s">
         <v>106</v>
@@ -29001,67 +29086,67 @@
         <v>106</v>
       </c>
       <c r="W249" s="5" t="s">
-        <v>3185</v>
+        <v>3191</v>
       </c>
       <c r="X249" s="5"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>3186</v>
+        <v>3192</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>3187</v>
+        <v>3193</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>1700</v>
+        <v>25</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>3131</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>106</v>
+        <v>3159</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F250" s="5" t="n">
+        <v>1983</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>106</v>
+        <v>331</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>106</v>
+        <v>2377</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>29</v>
+        <v>3171</v>
       </c>
       <c r="J250" s="5" t="s">
-        <v>106</v>
+        <v>3172</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>106</v>
+        <v>3195</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>106</v>
+        <v>3174</v>
       </c>
       <c r="M250" s="5" t="s">
-        <v>106</v>
+        <v>3196</v>
       </c>
       <c r="N250" s="5" t="s">
-        <v>3188</v>
+        <v>3197</v>
       </c>
       <c r="O250" s="5" t="s">
-        <v>3189</v>
+        <v>3198</v>
       </c>
       <c r="P250" s="5" t="s">
-        <v>106</v>
+        <v>1119</v>
       </c>
       <c r="Q250" s="5" t="s">
-        <v>106</v>
+        <v>3199</v>
       </c>
       <c r="R250" s="5" t="s">
-        <v>2278</v>
+        <v>3200</v>
       </c>
       <c r="S250" s="5" t="s">
-        <v>3151</v>
+        <v>3201</v>
       </c>
       <c r="T250" s="5" t="s">
         <v>106</v>
@@ -29073,67 +29158,67 @@
         <v>106</v>
       </c>
       <c r="W250" s="5" t="s">
-        <v>3190</v>
+        <v>3202</v>
       </c>
       <c r="X250" s="5"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>3191</v>
+        <v>3203</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>3192</v>
+        <v>3204</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>3193</v>
-      </c>
-      <c r="E251" s="5" t="s">
-        <v>26</v>
+        <v>3159</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>3205</v>
       </c>
       <c r="F251" s="5" t="n">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1329</v>
+        <v>117</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>3194</v>
+        <v>2114</v>
       </c>
       <c r="I251" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>404</v>
+        <v>1027</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>3195</v>
+        <v>2308</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>3196</v>
+        <v>3206</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>3197</v>
+        <v>3207</v>
       </c>
       <c r="N251" s="5" t="s">
-        <v>3198</v>
+        <v>3208</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>3199</v>
+        <v>3209</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="Q251" s="5" t="s">
-        <v>3200</v>
+        <v>3210</v>
       </c>
       <c r="R251" s="5" t="s">
-        <v>3201</v>
+        <v>3211</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>3202</v>
+        <v>3212</v>
       </c>
       <c r="T251" s="5" t="s">
         <v>106</v>
@@ -29145,67 +29230,67 @@
         <v>106</v>
       </c>
       <c r="W251" s="5" t="s">
-        <v>3203</v>
+        <v>3213</v>
       </c>
       <c r="X251" s="5"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>3204</v>
+        <v>3214</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>3205</v>
+        <v>3215</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>25</v>
+        <v>1700</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>26</v>
+        <v>3159</v>
       </c>
       <c r="E252" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F252" s="5" t="n">
-        <v>1983</v>
+      <c r="F252" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>331</v>
+        <v>106</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>2709</v>
+        <v>106</v>
       </c>
       <c r="I252" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>3206</v>
+        <v>106</v>
       </c>
       <c r="K252" s="5" t="s">
-        <v>3207</v>
+        <v>106</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>3208</v>
+        <v>106</v>
       </c>
       <c r="M252" s="5" t="s">
-        <v>3209</v>
+        <v>106</v>
       </c>
       <c r="N252" s="5" t="s">
-        <v>3210</v>
+        <v>3216</v>
       </c>
       <c r="O252" s="5" t="s">
-        <v>3211</v>
+        <v>3217</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>3212</v>
+        <v>106</v>
       </c>
       <c r="R252" s="5" t="s">
-        <v>3213</v>
+        <v>2278</v>
       </c>
       <c r="S252" s="5" t="s">
-        <v>3214</v>
+        <v>3179</v>
       </c>
       <c r="T252" s="5" t="s">
         <v>106</v>
@@ -29217,139 +29302,139 @@
         <v>106</v>
       </c>
       <c r="W252" s="5" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="X252" s="5"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>26</v>
+        <v>3221</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F253" s="5" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>27</v>
+        <v>1329</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="I253" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>3219</v>
+        <v>404</v>
       </c>
       <c r="K253" s="5" t="s">
-        <v>2609</v>
+        <v>3223</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="N253" s="5" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="O253" s="5" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="Q253" s="5" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="R253" s="5" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
       <c r="S253" s="5" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="T253" s="5" t="s">
-        <v>3227</v>
+        <v>106</v>
       </c>
       <c r="U253" s="5" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="V253" s="5" t="s">
-        <v>3228</v>
+        <v>106</v>
       </c>
       <c r="W253" s="5" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="X253" s="5"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>3232</v>
-      </c>
-      <c r="E254" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F254" s="5" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1982</v>
+        <v>2723</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>1027</v>
+        <v>3234</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>216</v>
+        <v>3235</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>3234</v>
+        <v>3237</v>
       </c>
       <c r="N254" s="5" t="s">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="O254" s="5" t="s">
-        <v>3236</v>
+        <v>3239</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>476</v>
+        <v>53</v>
       </c>
       <c r="Q254" s="5" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="R254" s="5" t="s">
-        <v>3238</v>
+        <v>3241</v>
       </c>
       <c r="S254" s="5" t="s">
-        <v>3239</v>
+        <v>3242</v>
       </c>
       <c r="T254" s="5" t="s">
         <v>106</v>
@@ -29361,322 +29446,322 @@
         <v>106</v>
       </c>
       <c r="W254" s="5" t="s">
-        <v>3240</v>
+        <v>3243</v>
       </c>
       <c r="X254" s="5"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>3241</v>
+        <v>3244</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>3242</v>
+        <v>3245</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>3232</v>
-      </c>
-      <c r="E255" s="6" t="n">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F255" s="5" t="n">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>1840</v>
+        <v>3246</v>
       </c>
       <c r="I255" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J255" s="5" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="K255" s="5" t="s">
-        <v>216</v>
+        <v>2609</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="O255" s="5" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>2972</v>
+        <v>71</v>
       </c>
       <c r="Q255" s="5" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="R255" s="5" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="S255" s="5" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="T255" s="5" t="s">
-        <v>106</v>
+        <v>3255</v>
       </c>
       <c r="U255" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V255" s="5" t="s">
-        <v>106</v>
+        <v>3256</v>
       </c>
       <c r="W255" s="5" t="s">
-        <v>3251</v>
+        <v>3257</v>
       </c>
       <c r="X255" s="5"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>3252</v>
+        <v>3258</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>3253</v>
+        <v>3259</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>3254</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>26</v>
+        <v>3260</v>
+      </c>
+      <c r="E256" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F256" s="5" t="n">
-        <v>1951</v>
+        <v>1984</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>3255</v>
+        <v>1982</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>200</v>
+        <v>1027</v>
       </c>
       <c r="K256" s="5" t="s">
-        <v>3256</v>
+        <v>216</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>157</v>
+        <v>476</v>
       </c>
       <c r="Q256" s="5" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="R256" s="5" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="S256" s="5" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="T256" s="5" t="s">
-        <v>3264</v>
+        <v>106</v>
       </c>
       <c r="U256" s="5" t="s">
-        <v>3265</v>
+        <v>106</v>
       </c>
       <c r="V256" s="5" t="s">
-        <v>3266</v>
+        <v>106</v>
       </c>
       <c r="W256" s="5" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="X256" s="5"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>3254</v>
+        <v>3270</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>3254</v>
-      </c>
-      <c r="E257" s="10" t="s">
-        <v>26</v>
+        <v>3260</v>
+      </c>
+      <c r="E257" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F257" s="5" t="n">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>245</v>
+        <v>1840</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="K257" s="5" t="s">
-        <v>3270</v>
+        <v>216</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="N257" s="5" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="O257" s="5" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>449</v>
+        <v>2986</v>
       </c>
       <c r="Q257" s="5" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="R257" s="5" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="T257" s="5" t="s">
-        <v>3278</v>
+        <v>106</v>
       </c>
       <c r="U257" s="5" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="V257" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W257" s="5" t="s">
         <v>3279</v>
-      </c>
-      <c r="W257" s="5" t="s">
-        <v>3280</v>
       </c>
       <c r="X257" s="5"/>
     </row>
-    <row r="258" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>3281</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>3254</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>3254</v>
+        <v>3282</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F258" s="5" t="n">
-        <v>2011</v>
+        <v>1951</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>815</v>
+        <v>3283</v>
       </c>
       <c r="I258" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J258" s="5" t="s">
-        <v>3269</v>
+        <v>200</v>
       </c>
       <c r="K258" s="5" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="O258" s="5" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="P258" s="5" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="Q258" s="5" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="R258" s="5" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="S258" s="5" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="T258" s="5" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="U258" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V258" s="8" t="s">
-        <v>3291</v>
+        <v>3293</v>
+      </c>
+      <c r="V258" s="5" t="s">
+        <v>3294</v>
       </c>
       <c r="W258" s="5" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="X258" s="5"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>3293</v>
+        <v>3296</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>3294</v>
+        <v>3282</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>3295</v>
-      </c>
-      <c r="E259" s="5" t="n">
-        <v>3</v>
+        <v>3282</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F259" s="5" t="n">
-        <v>2017</v>
+        <v>1982</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>3296</v>
+        <v>245</v>
       </c>
       <c r="I259" s="5" t="s">
         <v>29</v>
@@ -29700,7 +29785,7 @@
         <v>3302</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="Q259" s="5" t="s">
         <v>3303</v>
@@ -29712,148 +29797,148 @@
         <v>3305</v>
       </c>
       <c r="T259" s="5" t="s">
-        <v>106</v>
+        <v>3306</v>
       </c>
       <c r="U259" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V259" s="5" t="s">
-        <v>106</v>
+        <v>3307</v>
       </c>
       <c r="W259" s="5" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="X259" s="5"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>3308</v>
+        <v>3282</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D260" s="5" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E260" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E260" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F260" s="5" t="n">
-        <v>1990</v>
+        <v>2011</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>3309</v>
+        <v>815</v>
       </c>
       <c r="I260" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>1027</v>
+        <v>3297</v>
       </c>
       <c r="K260" s="5" t="s">
-        <v>2813</v>
+        <v>3310</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="O260" s="5" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="P260" s="5" t="s">
-        <v>434</v>
+        <v>250</v>
       </c>
       <c r="Q260" s="5" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="R260" s="5" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="S260" s="5" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="T260" s="5" t="s">
-        <v>106</v>
+        <v>3318</v>
       </c>
       <c r="U260" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V260" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
+      </c>
+      <c r="V260" s="8" t="s">
+        <v>3319</v>
       </c>
       <c r="W260" s="5" t="s">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="X260" s="5"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E261" s="5" t="s">
-        <v>26</v>
+        <v>3323</v>
+      </c>
+      <c r="E261" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F261" s="5" t="n">
-        <v>1990</v>
+        <v>2017</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>1971</v>
+        <v>3324</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J261" s="5" t="s">
-        <v>3320</v>
+        <v>3325</v>
       </c>
       <c r="K261" s="5" t="s">
-        <v>3321</v>
+        <v>3326</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>3322</v>
+        <v>3327</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>3323</v>
+        <v>3328</v>
       </c>
       <c r="N261" s="5" t="s">
-        <v>3324</v>
+        <v>3329</v>
       </c>
       <c r="O261" s="5" t="s">
-        <v>3325</v>
+        <v>3330</v>
       </c>
       <c r="P261" s="5" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="Q261" s="5" t="s">
-        <v>3326</v>
+        <v>3331</v>
       </c>
       <c r="R261" s="5" t="s">
-        <v>3327</v>
+        <v>3332</v>
       </c>
       <c r="S261" s="5" t="s">
-        <v>3328</v>
+        <v>3333</v>
       </c>
       <c r="T261" s="5" t="s">
         <v>106</v>
@@ -29865,76 +29950,76 @@
         <v>106</v>
       </c>
       <c r="W261" s="5" t="s">
-        <v>3329</v>
+        <v>3334</v>
       </c>
       <c r="X261" s="5"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>3330</v>
+        <v>3335</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>3331</v>
+        <v>3336</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>3332</v>
+        <v>26</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>3333</v>
+        <v>26</v>
       </c>
       <c r="F262" s="5" t="n">
-        <v>1961</v>
+        <v>1990</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>2094</v>
+        <v>27</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
       <c r="I262" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>3335</v>
+        <v>1027</v>
       </c>
       <c r="K262" s="5" t="s">
-        <v>3336</v>
+        <v>2827</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="N262" s="5" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="O262" s="5" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="P262" s="5" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="Q262" s="5" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="R262" s="5" t="s">
-        <v>2693</v>
+        <v>3343</v>
       </c>
       <c r="S262" s="5" t="s">
-        <v>3342</v>
-      </c>
-      <c r="T262" s="10" t="s">
-        <v>3343</v>
+        <v>3344</v>
+      </c>
+      <c r="T262" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="U262" s="5" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="V262" s="5" t="s">
-        <v>3344</v>
+        <v>106</v>
       </c>
       <c r="W262" s="5" t="s">
         <v>3345</v>
@@ -29958,46 +30043,46 @@
         <v>26</v>
       </c>
       <c r="F263" s="5" t="n">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>2159</v>
+        <v>1971</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>984</v>
+        <v>3348</v>
       </c>
       <c r="K263" s="5" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="O263" s="5" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="P263" s="5" t="s">
-        <v>434</v>
+        <v>71</v>
       </c>
       <c r="Q263" s="5" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="R263" s="5" t="s">
-        <v>38</v>
+        <v>3355</v>
       </c>
       <c r="S263" s="5" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="T263" s="5" t="s">
         <v>106</v>
@@ -30009,139 +30094,139 @@
         <v>106</v>
       </c>
       <c r="W263" s="5" t="s">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="X263" s="5"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>3356</v>
+        <v>3358</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>26</v>
+        <v>3360</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>26</v>
+        <v>3361</v>
       </c>
       <c r="F264" s="5" t="n">
-        <v>2008</v>
+        <v>1961</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>117</v>
+        <v>2094</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>1493</v>
+        <v>3362</v>
       </c>
       <c r="I264" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>3358</v>
+        <v>3363</v>
       </c>
       <c r="K264" s="5" t="s">
-        <v>3359</v>
+        <v>3364</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>3360</v>
+        <v>3365</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>3361</v>
+        <v>3366</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>3362</v>
+        <v>3367</v>
       </c>
       <c r="O264" s="5" t="s">
-        <v>3363</v>
+        <v>3368</v>
       </c>
       <c r="P264" s="5" t="s">
-        <v>535</v>
+        <v>462</v>
       </c>
       <c r="Q264" s="5" t="s">
-        <v>3364</v>
+        <v>3369</v>
       </c>
       <c r="R264" s="5" t="s">
-        <v>3365</v>
+        <v>2707</v>
       </c>
       <c r="S264" s="5" t="s">
-        <v>3366</v>
-      </c>
-      <c r="T264" s="5" t="s">
-        <v>3367</v>
+        <v>3370</v>
+      </c>
+      <c r="T264" s="10" t="s">
+        <v>3371</v>
       </c>
       <c r="U264" s="5" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="V264" s="5" t="s">
-        <v>3368</v>
+        <v>3372</v>
       </c>
       <c r="W264" s="5" t="s">
-        <v>3369</v>
+        <v>3373</v>
       </c>
       <c r="X264" s="5"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>3370</v>
+        <v>3374</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>3371</v>
+        <v>3375</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>1444</v>
+        <v>26</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F265" s="5" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="G265" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>3372</v>
+        <v>2159</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>3373</v>
+        <v>984</v>
       </c>
       <c r="K265" s="5" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="O265" s="5" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="P265" s="5" t="s">
-        <v>157</v>
+        <v>434</v>
       </c>
       <c r="Q265" s="5" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="R265" s="5" t="s">
-        <v>3380</v>
+        <v>38</v>
       </c>
       <c r="S265" s="5" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="T265" s="5" t="s">
         <v>106</v>
@@ -30152,17 +30237,17 @@
       <c r="V265" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W265" s="4" t="s">
-        <v>3382</v>
-      </c>
-      <c r="X265" s="4"/>
+      <c r="W265" s="5" t="s">
+        <v>3383</v>
+      </c>
+      <c r="X265" s="5"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>25</v>
@@ -30177,115 +30262,115 @@
         <v>2008</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>2197</v>
+        <v>1493</v>
       </c>
       <c r="I266" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="O266" s="5" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="P266" s="5" t="s">
-        <v>220</v>
+        <v>535</v>
       </c>
       <c r="Q266" s="5" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="R266" s="5" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="S266" s="5" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="T266" s="5" t="s">
-        <v>106</v>
+        <v>3395</v>
       </c>
       <c r="U266" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V266" s="5" t="s">
-        <v>106</v>
+        <v>3396</v>
       </c>
       <c r="W266" s="5" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="X266" s="5"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>26</v>
+        <v>1444</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F267" s="5" t="n">
-        <v>1979</v>
+        <v>2015</v>
       </c>
       <c r="G267" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>638</v>
+        <v>3401</v>
       </c>
       <c r="K267" s="5" t="s">
-        <v>3398</v>
+        <v>3402</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>3399</v>
+        <v>3403</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>3400</v>
+        <v>3404</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>3401</v>
+        <v>3405</v>
       </c>
       <c r="O267" s="5" t="s">
-        <v>3402</v>
+        <v>3406</v>
       </c>
       <c r="P267" s="5" t="s">
-        <v>434</v>
+        <v>157</v>
       </c>
       <c r="Q267" s="5" t="s">
-        <v>3403</v>
+        <v>3407</v>
       </c>
       <c r="R267" s="5" t="s">
-        <v>38</v>
+        <v>3408</v>
       </c>
       <c r="S267" s="5" t="s">
-        <v>3404</v>
+        <v>3409</v>
       </c>
       <c r="T267" s="5" t="s">
         <v>106</v>
@@ -30296,23 +30381,23 @@
       <c r="V267" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W267" s="5" t="s">
-        <v>3405</v>
-      </c>
-      <c r="X267" s="5"/>
+      <c r="W267" s="4" t="s">
+        <v>3410</v>
+      </c>
+      <c r="X267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>3406</v>
+        <v>3411</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>3407</v>
+        <v>3412</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>3408</v>
+        <v>25</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>3409</v>
+        <v>26</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>26</v>
@@ -30321,43 +30406,43 @@
         <v>2008</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>3410</v>
+        <v>285</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>3411</v>
+        <v>2197</v>
       </c>
       <c r="I268" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="K268" s="5" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="O268" s="5" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="P268" s="5" t="s">
-        <v>1186</v>
+        <v>220</v>
       </c>
       <c r="Q268" s="5" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="R268" s="5" t="s">
-        <v>2278</v>
+        <v>3420</v>
       </c>
       <c r="S268" s="5" t="s">
-        <v>106</v>
+        <v>3421</v>
       </c>
       <c r="T268" s="5" t="s">
         <v>106</v>
@@ -30369,16 +30454,16 @@
         <v>106</v>
       </c>
       <c r="W268" s="5" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="X268" s="5"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>25</v>
@@ -30390,46 +30475,46 @@
         <v>26</v>
       </c>
       <c r="F269" s="5" t="n">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>2824</v>
+        <v>3425</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>1367</v>
+        <v>29</v>
       </c>
       <c r="J269" s="5" t="s">
-        <v>3422</v>
+        <v>638</v>
       </c>
       <c r="K269" s="5" t="s">
-        <v>861</v>
+        <v>3426</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>3423</v>
+        <v>3427</v>
       </c>
       <c r="M269" s="5" t="s">
-        <v>3424</v>
+        <v>3428</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>3425</v>
+        <v>3429</v>
       </c>
       <c r="O269" s="5" t="s">
-        <v>3426</v>
+        <v>3430</v>
       </c>
       <c r="P269" s="5" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="Q269" s="5" t="s">
-        <v>3427</v>
+        <v>3431</v>
       </c>
       <c r="R269" s="5" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="S269" s="5" t="s">
-        <v>3428</v>
+        <v>3432</v>
       </c>
       <c r="T269" s="5" t="s">
         <v>106</v>
@@ -30441,67 +30526,67 @@
         <v>106</v>
       </c>
       <c r="W269" s="5" t="s">
-        <v>3429</v>
+        <v>3433</v>
       </c>
       <c r="X269" s="5"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>3430</v>
+        <v>3434</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>3431</v>
+        <v>3435</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>25</v>
+        <v>3436</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>26</v>
+        <v>3437</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F270" s="5" t="n">
-        <v>1971</v>
+        <v>2008</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>285</v>
+        <v>3438</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>2159</v>
+        <v>3439</v>
       </c>
       <c r="I270" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J270" s="5" t="s">
-        <v>3432</v>
+        <v>3440</v>
       </c>
       <c r="K270" s="5" t="s">
-        <v>3433</v>
+        <v>3441</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>3434</v>
+        <v>3442</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>3435</v>
+        <v>3443</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>3436</v>
+        <v>3444</v>
       </c>
       <c r="O270" s="5" t="s">
-        <v>3437</v>
+        <v>3445</v>
       </c>
       <c r="P270" s="5" t="s">
-        <v>107</v>
+        <v>1186</v>
       </c>
       <c r="Q270" s="5" t="s">
-        <v>3438</v>
+        <v>3446</v>
       </c>
       <c r="R270" s="5" t="s">
-        <v>3069</v>
+        <v>2278</v>
       </c>
       <c r="S270" s="5" t="s">
-        <v>3439</v>
+        <v>106</v>
       </c>
       <c r="T270" s="5" t="s">
         <v>106</v>
@@ -30513,88 +30598,88 @@
         <v>106</v>
       </c>
       <c r="W270" s="5" t="s">
-        <v>3440</v>
+        <v>3447</v>
       </c>
       <c r="X270" s="5"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>3441</v>
+        <v>3448</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>3442</v>
+        <v>3449</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>3443</v>
+        <v>26</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>3444</v>
+        <v>26</v>
       </c>
       <c r="F271" s="5" t="n">
-        <v>2002</v>
+        <v>1988</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>487</v>
+        <v>331</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>3445</v>
+        <v>2838</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>29</v>
+        <v>1367</v>
       </c>
       <c r="J271" s="5" t="s">
-        <v>612</v>
+        <v>3450</v>
       </c>
       <c r="K271" s="5" t="s">
-        <v>3446</v>
+        <v>861</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>3447</v>
+        <v>3451</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>3448</v>
+        <v>3452</v>
       </c>
       <c r="N271" s="5" t="s">
-        <v>3449</v>
+        <v>3453</v>
       </c>
       <c r="O271" s="5" t="s">
-        <v>3450</v>
+        <v>3454</v>
       </c>
       <c r="P271" s="5" t="s">
-        <v>3451</v>
+        <v>338</v>
       </c>
       <c r="Q271" s="5" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="R271" s="5" t="s">
-        <v>3453</v>
+        <v>174</v>
       </c>
       <c r="S271" s="5" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="T271" s="5" t="s">
-        <v>3455</v>
+        <v>106</v>
       </c>
       <c r="U271" s="5" t="s">
-        <v>3456</v>
+        <v>106</v>
       </c>
       <c r="V271" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W271" s="5" t="s">
         <v>3457</v>
-      </c>
-      <c r="W271" s="5" t="s">
-        <v>3458</v>
       </c>
       <c r="X271" s="5"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B272" s="5" t="s">
         <v>3459</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>3460</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>25</v>
@@ -30606,190 +30691,190 @@
         <v>26</v>
       </c>
       <c r="F272" s="5" t="n">
-        <v>2017</v>
+        <v>1971</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="H272" s="5" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>3460</v>
+      </c>
+      <c r="K272" s="5" t="s">
         <v>3461</v>
       </c>
-      <c r="I272" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J272" s="5" t="s">
+      <c r="L272" s="5" t="s">
         <v>3462</v>
       </c>
-      <c r="K272" s="5" t="s">
+      <c r="M272" s="5" t="s">
         <v>3463</v>
       </c>
-      <c r="L272" s="5" t="s">
+      <c r="N272" s="5" t="s">
         <v>3464</v>
       </c>
-      <c r="M272" s="5" t="s">
+      <c r="O272" s="5" t="s">
         <v>3465</v>
       </c>
-      <c r="N272" s="5" t="s">
+      <c r="P272" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q272" s="5" t="s">
         <v>3466</v>
       </c>
-      <c r="O272" s="5" t="s">
+      <c r="R272" s="5" t="s">
+        <v>3097</v>
+      </c>
+      <c r="S272" s="5" t="s">
         <v>3467</v>
       </c>
-      <c r="P272" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="Q272" s="5" t="s">
+      <c r="T272" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U272" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V272" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W272" s="5" t="s">
         <v>3468</v>
-      </c>
-      <c r="R272" s="5" t="s">
-        <v>3469</v>
-      </c>
-      <c r="S272" s="5" t="s">
-        <v>3470</v>
-      </c>
-      <c r="T272" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U272" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V272" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W272" s="5" t="s">
-        <v>3471</v>
       </c>
       <c r="X272" s="5"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E273" s="5" t="s">
         <v>3472</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="F273" s="5" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H273" s="5" t="s">
         <v>3473</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F273" s="5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G273" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H273" s="5" t="s">
-        <v>2596</v>
-      </c>
       <c r="I273" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J273" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="K273" s="5" t="s">
         <v>3474</v>
       </c>
-      <c r="K273" s="5" t="s">
+      <c r="L273" s="5" t="s">
         <v>3475</v>
       </c>
-      <c r="L273" s="5" t="s">
+      <c r="M273" s="5" t="s">
         <v>3476</v>
       </c>
-      <c r="M273" s="5" t="s">
+      <c r="N273" s="5" t="s">
         <v>3477</v>
       </c>
-      <c r="N273" s="5" t="s">
+      <c r="O273" s="5" t="s">
         <v>3478</v>
       </c>
-      <c r="O273" s="5" t="s">
+      <c r="P273" s="5" t="s">
         <v>3479</v>
-      </c>
-      <c r="P273" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="Q273" s="5" t="s">
         <v>3480</v>
       </c>
       <c r="R273" s="5" t="s">
-        <v>2324</v>
+        <v>3481</v>
       </c>
       <c r="S273" s="5" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="T273" s="5" t="s">
-        <v>106</v>
+        <v>3483</v>
       </c>
       <c r="U273" s="5" t="s">
-        <v>106</v>
+        <v>3484</v>
       </c>
       <c r="V273" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W273" s="4" t="s">
-        <v>3482</v>
-      </c>
-      <c r="X273" s="4"/>
+        <v>3485</v>
+      </c>
+      <c r="W273" s="5" t="s">
+        <v>3486</v>
+      </c>
+      <c r="X273" s="5"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>3483</v>
+        <v>3487</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>3484</v>
+        <v>3488</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>3484</v>
-      </c>
-      <c r="E274" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F274" s="5" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="G274" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>2824</v>
+        <v>3489</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J274" s="5" t="s">
-        <v>1027</v>
+        <v>3490</v>
       </c>
       <c r="K274" s="5" t="s">
-        <v>3359</v>
+        <v>3491</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>3485</v>
+        <v>3492</v>
       </c>
       <c r="M274" s="5" t="s">
-        <v>3486</v>
+        <v>3493</v>
       </c>
       <c r="N274" s="5" t="s">
-        <v>3487</v>
+        <v>3494</v>
       </c>
       <c r="O274" s="5" t="s">
-        <v>3488</v>
+        <v>3495</v>
       </c>
       <c r="P274" s="5" t="s">
         <v>1267</v>
       </c>
       <c r="Q274" s="5" t="s">
-        <v>3489</v>
+        <v>3496</v>
       </c>
       <c r="R274" s="5" t="s">
-        <v>3490</v>
+        <v>3497</v>
       </c>
       <c r="S274" s="5" t="s">
-        <v>3491</v>
+        <v>3498</v>
       </c>
       <c r="T274" s="5" t="s">
         <v>106</v>
@@ -30801,67 +30886,67 @@
         <v>106</v>
       </c>
       <c r="W274" s="5" t="s">
-        <v>3492</v>
+        <v>3499</v>
       </c>
       <c r="X274" s="5"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>3493</v>
+        <v>3500</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>3494</v>
+        <v>3501</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>3484</v>
-      </c>
-      <c r="E275" s="6" t="n">
-        <v>2</v>
+        <v>1444</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F275" s="5" t="n">
-        <v>2003</v>
+        <v>2022</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>3495</v>
+        <v>2596</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J275" s="5" t="s">
-        <v>984</v>
+        <v>3502</v>
       </c>
       <c r="K275" s="5" t="s">
-        <v>3359</v>
+        <v>3503</v>
       </c>
       <c r="L275" s="5" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="M275" s="5" t="s">
-        <v>3497</v>
+        <v>3505</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>3498</v>
+        <v>3506</v>
       </c>
       <c r="O275" s="5" t="s">
-        <v>3499</v>
+        <v>3507</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>644</v>
+        <v>306</v>
       </c>
       <c r="Q275" s="5" t="s">
-        <v>3500</v>
+        <v>3508</v>
       </c>
       <c r="R275" s="5" t="s">
-        <v>3501</v>
+        <v>2324</v>
       </c>
       <c r="S275" s="5" t="s">
-        <v>3502</v>
+        <v>3509</v>
       </c>
       <c r="T275" s="5" t="s">
         <v>106</v>
@@ -30872,68 +30957,68 @@
       <c r="V275" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W275" s="5" t="s">
-        <v>3503</v>
-      </c>
-      <c r="X275" s="5"/>
+      <c r="W275" s="4" t="s">
+        <v>3510</v>
+      </c>
+      <c r="X275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>3504</v>
+        <v>3511</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>3505</v>
+        <v>3512</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>3484</v>
-      </c>
-      <c r="E276" s="6" t="s">
-        <v>26</v>
+        <v>3512</v>
+      </c>
+      <c r="E276" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F276" s="5" t="n">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>1840</v>
+        <v>2838</v>
       </c>
       <c r="I276" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>582</v>
+        <v>1027</v>
       </c>
       <c r="K276" s="5" t="s">
-        <v>82</v>
+        <v>3387</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>3506</v>
+        <v>3513</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>3507</v>
+        <v>3514</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>3508</v>
+        <v>3515</v>
       </c>
       <c r="O276" s="5" t="s">
-        <v>3509</v>
+        <v>3516</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>476</v>
+        <v>1267</v>
       </c>
       <c r="Q276" s="5" t="s">
-        <v>3510</v>
+        <v>3517</v>
       </c>
       <c r="R276" s="5" t="s">
-        <v>3511</v>
+        <v>3518</v>
       </c>
       <c r="S276" s="5" t="s">
-        <v>3512</v>
+        <v>3519</v>
       </c>
       <c r="T276" s="5" t="s">
         <v>106</v>
@@ -30945,67 +31030,67 @@
         <v>106</v>
       </c>
       <c r="W276" s="5" t="s">
-        <v>3513</v>
+        <v>3520</v>
       </c>
       <c r="X276" s="5"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>3514</v>
+        <v>3521</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>3515</v>
+        <v>3522</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E277" s="5" t="s">
-        <v>26</v>
+        <v>3512</v>
+      </c>
+      <c r="E277" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F277" s="5" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>1959</v>
+        <v>3523</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>3516</v>
+        <v>984</v>
       </c>
       <c r="K277" s="5" t="s">
-        <v>3517</v>
+        <v>3387</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>3518</v>
+        <v>3524</v>
       </c>
       <c r="M277" s="5" t="s">
-        <v>3519</v>
+        <v>3525</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>3520</v>
+        <v>3526</v>
       </c>
       <c r="O277" s="5" t="s">
-        <v>3521</v>
+        <v>3527</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>434</v>
+        <v>644</v>
       </c>
       <c r="Q277" s="5" t="s">
-        <v>3522</v>
+        <v>3528</v>
       </c>
       <c r="R277" s="5" t="s">
-        <v>89</v>
+        <v>3529</v>
       </c>
       <c r="S277" s="5" t="s">
-        <v>3523</v>
+        <v>3530</v>
       </c>
       <c r="T277" s="5" t="s">
         <v>106</v>
@@ -31017,67 +31102,67 @@
         <v>106</v>
       </c>
       <c r="W277" s="5" t="s">
-        <v>3524</v>
+        <v>3531</v>
       </c>
       <c r="X277" s="5"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>3525</v>
+        <v>3532</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>3526</v>
+        <v>3533</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D278" s="5" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E278" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E278" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F278" s="5" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="G278" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>2709</v>
+        <v>1840</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>349</v>
+        <v>582</v>
       </c>
       <c r="K278" s="5" t="s">
-        <v>3527</v>
+        <v>82</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>3528</v>
+        <v>3534</v>
       </c>
       <c r="M278" s="5" t="s">
-        <v>3529</v>
+        <v>3535</v>
       </c>
       <c r="N278" s="5" t="s">
-        <v>3530</v>
+        <v>3536</v>
       </c>
       <c r="O278" s="5" t="s">
-        <v>3531</v>
+        <v>3537</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="Q278" s="5" t="s">
-        <v>3532</v>
+        <v>3538</v>
       </c>
       <c r="R278" s="5" t="s">
-        <v>3533</v>
+        <v>3539</v>
       </c>
       <c r="S278" s="5" t="s">
-        <v>3534</v>
+        <v>3540</v>
       </c>
       <c r="T278" s="5" t="s">
         <v>106</v>
@@ -31089,111 +31174,255 @@
         <v>106</v>
       </c>
       <c r="W278" s="5" t="s">
-        <v>3535</v>
+        <v>3541</v>
       </c>
       <c r="X278" s="5"/>
     </row>
-    <row r="279" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="14" t="s">
-        <v>3536</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="S279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="V279" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="W279" s="14" t="s">
-        <v>106</v>
-      </c>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F279" s="5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I279" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J279" s="5" t="s">
+        <v>3544</v>
+      </c>
+      <c r="K279" s="5" t="s">
+        <v>3545</v>
+      </c>
+      <c r="L279" s="5" t="s">
+        <v>3546</v>
+      </c>
+      <c r="M279" s="5" t="s">
+        <v>3547</v>
+      </c>
+      <c r="N279" s="5" t="s">
+        <v>3548</v>
+      </c>
+      <c r="O279" s="5" t="s">
+        <v>3549</v>
+      </c>
+      <c r="P279" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q279" s="5" t="s">
+        <v>3550</v>
+      </c>
+      <c r="R279" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S279" s="5" t="s">
+        <v>3551</v>
+      </c>
+      <c r="T279" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U279" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V279" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W279" s="5" t="s">
+        <v>3552</v>
+      </c>
+      <c r="X279" s="5"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="15" t="s">
-        <v>3537</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>3538</v>
-      </c>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F280" s="5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>2723</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>3555</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>3556</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>3557</v>
+      </c>
+      <c r="N280" s="5" t="s">
+        <v>3558</v>
+      </c>
+      <c r="O280" s="5" t="s">
+        <v>3559</v>
+      </c>
+      <c r="P280" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q280" s="5" t="s">
+        <v>3560</v>
+      </c>
+      <c r="R280" s="5" t="s">
+        <v>3561</v>
+      </c>
+      <c r="S280" s="5" t="s">
+        <v>3562</v>
+      </c>
+      <c r="T280" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U280" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V280" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W280" s="5" t="s">
+        <v>3563</v>
+      </c>
+      <c r="X280" s="5"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="15" t="s">
-        <v>3539</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>3540</v>
+    <row r="281" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="14" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="T281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="U281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="V281" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="W281" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>3541</v>
+      <c r="A283" s="15" t="s">
+        <v>3565</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3542</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="14" t="s">
-        <v>3543</v>
+      <c r="A284" s="15" t="s">
+        <v>3567</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3544</v>
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A286" s="14" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>3572</v>
       </c>
     </row>
   </sheetData>
@@ -31341,24 +31570,24 @@
     <hyperlink ref="Q198" r:id="rId141" display="https://www.imdb.com/title/tt0795176/?ref_=fn_all_ttl_2"/>
     <hyperlink ref="T198" r:id="rId142" display="https://variety.com/2007/tv/reviews/planet-earth-1200509467/"/>
     <hyperlink ref="W198" r:id="rId143" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/mfXulHiALTloIqivuC4Q3lI3RGw.jpg"/>
-    <hyperlink ref="N223" r:id="rId144" display="https://youtu.be/ZCYnsUdO6H0?si=hXUI7OB-hlumoHWB"/>
-    <hyperlink ref="Q223" r:id="rId145" display="https://www.imdb.com/title/tt0130827/"/>
-    <hyperlink ref="S223" r:id="rId146" display="https://www.rottentomatoes.com/m/run_lola_run"/>
-    <hyperlink ref="T223" r:id="rId147" display="https://www.rogerebert.com/reviews/run-lola-run-1999"/>
-    <hyperlink ref="W223" r:id="rId148" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/v0giIi4bTILVhNhJajet3WWY3FA.jpg"/>
-    <hyperlink ref="N231" r:id="rId149" display="https://youtu.be/6iB21hsprAQ?si=Fj5N_WkJr-xjMXr2"/>
-    <hyperlink ref="Q231" r:id="rId150" display="https://www.imdb.com/title/tt0102926/?ref_=nv_sr_srsg_0_tt_8_nm_0_in_0_q_silence%2520of%2520"/>
-    <hyperlink ref="S231" r:id="rId151" display="https://www.rottentomatoes.com/m/silence_of_the_lambs"/>
-    <hyperlink ref="T231" r:id="rId152" display="https://www.rogerebert.com/reviews/the-silence-of-the-lambs-1991"/>
-    <hyperlink ref="W231" r:id="rId153" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/uS9m8OBk1A8eM9I042bx8XXpqAq.jpg"/>
-    <hyperlink ref="W232" r:id="rId154" display="https://xl.movieposterdb.com/06_05/2002/0286106/xl_116531_0286106_64875aa4.jpg?v=2024-07-07%2004:58:53"/>
-    <hyperlink ref="N262" r:id="rId155" display="https://youtu.be/ORbseYAkzRM?si=Kmi9lVFsGOqGC0qF"/>
-    <hyperlink ref="Q262" r:id="rId156" display="https://www.imdb.com/title/tt0052520/?ref_=fn_all_ttl_1"/>
-    <hyperlink ref="S262" r:id="rId157" display="https://www.rottentomatoes.com/tv/the_twilight_zone"/>
-    <hyperlink ref="T262" r:id="rId158" display="https://www.rogerebert.com/features/the-metaphor-years-writing-lessons-from-the-twilight-zone"/>
-    <hyperlink ref="W262" r:id="rId159" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/coWkN4uvxP41T0JFZHttUhS2PBj.jpg"/>
-    <hyperlink ref="Q264" r:id="rId160" display="https://www.imdb.com/title/tt0985699/?ref_=fn_all_ttl_1"/>
-    <hyperlink ref="Q271" r:id="rId161" display="https://www.imdb.com/title/tt0306414/"/>
+    <hyperlink ref="N224" r:id="rId144" display="https://youtu.be/ZCYnsUdO6H0?si=hXUI7OB-hlumoHWB"/>
+    <hyperlink ref="Q224" r:id="rId145" display="https://www.imdb.com/title/tt0130827/"/>
+    <hyperlink ref="S224" r:id="rId146" display="https://www.rottentomatoes.com/m/run_lola_run"/>
+    <hyperlink ref="T224" r:id="rId147" display="https://www.rogerebert.com/reviews/run-lola-run-1999"/>
+    <hyperlink ref="W224" r:id="rId148" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/v0giIi4bTILVhNhJajet3WWY3FA.jpg"/>
+    <hyperlink ref="N232" r:id="rId149" display="https://youtu.be/6iB21hsprAQ?si=Fj5N_WkJr-xjMXr2"/>
+    <hyperlink ref="Q232" r:id="rId150" display="https://www.imdb.com/title/tt0102926/?ref_=nv_sr_srsg_0_tt_8_nm_0_in_0_q_silence%2520of%2520"/>
+    <hyperlink ref="S232" r:id="rId151" display="https://www.rottentomatoes.com/m/silence_of_the_lambs"/>
+    <hyperlink ref="T232" r:id="rId152" display="https://www.rogerebert.com/reviews/the-silence-of-the-lambs-1991"/>
+    <hyperlink ref="W232" r:id="rId153" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/uS9m8OBk1A8eM9I042bx8XXpqAq.jpg"/>
+    <hyperlink ref="W233" r:id="rId154" display="https://xl.movieposterdb.com/06_05/2002/0286106/xl_116531_0286106_64875aa4.jpg?v=2024-07-07%2004:58:53"/>
+    <hyperlink ref="N264" r:id="rId155" display="https://youtu.be/ORbseYAkzRM?si=Kmi9lVFsGOqGC0qF"/>
+    <hyperlink ref="Q264" r:id="rId156" display="https://www.imdb.com/title/tt0052520/?ref_=fn_all_ttl_1"/>
+    <hyperlink ref="S264" r:id="rId157" display="https://www.rottentomatoes.com/tv/the_twilight_zone"/>
+    <hyperlink ref="T264" r:id="rId158" display="https://www.rogerebert.com/features/the-metaphor-years-writing-lessons-from-the-twilight-zone"/>
+    <hyperlink ref="W264" r:id="rId159" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/coWkN4uvxP41T0JFZHttUhS2PBj.jpg"/>
+    <hyperlink ref="Q266" r:id="rId160" display="https://www.imdb.com/title/tt0985699/?ref_=fn_all_ttl_1"/>
+    <hyperlink ref="Q273" r:id="rId161" display="https://www.imdb.com/title/tt0306414/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6084" uniqueCount="3573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="3587">
   <si>
     <t xml:space="preserve">Tag</t>
   </si>
@@ -9868,6 +9868,48 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.themoviedb.org/t/p/w600_and_h900_bestv2/5M0j0B18abtBI5gi2RhfjjurTqb.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there_will_be_blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There Will Be Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 38m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Thomas Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Day-Lewis, Paul Dano, Ciarán Hinds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A story of family, religion, hatred, oil and madness, focusing on a turn-of-the-century prospector in the early days of the business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/FeSLPELpMeM?si=HBmM3L7nAy4c-0nX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe width="100%" height="250" src="https://www.youtube.com/embed/FeSLPELpMeM?si=HBmM3L7nAy4c-0nX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/title/tt0469494/?ref_=nv_sr_srsg_0_tt_8_nm_0_in_0_q_there%2520will%2520b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critics 91% / Audience 86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com/m/there_will_be_blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rogerebert.com/reviews/there-will-be-blood-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5/4 - Watching the movie is like viewing a natural disaster that you cannot turn away from. By that I do not mean that the movie is bad, any more than it is good. It is a force beyond categories. It has scenes of terror and poignancy, scenes of ruthless chicanery, scenes awesome for their scope, moments echoing with whispers and an ending that in some peculiar way this material demands, because it could not conclude on an appropriate note — there has been nothing appropriate about it. Those who hate the ending, and there may be many, might be asked to dictate a different one. Something bittersweet, perhaps? Grandly tragic? Only madness can supply a termination for this story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.tmdb.org/t/p/w600_and_h900_bestv2/4ayObDELZfIXxVviT4GKTNc81wl.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">the_thing_from_another_world</t>
@@ -11066,10 +11108,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO286"/>
+  <dimension ref="A1:BO287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O237" activeCellId="0" sqref="O237"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D258" activeCellId="0" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16012,7 +16054,7 @@
         <v>998</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>29</v>
+        <v>684</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>999</v>
@@ -25562,7 +25604,7 @@
       </c>
       <c r="X200" s="5"/>
     </row>
-    <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="311.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>2618</v>
       </c>
@@ -29677,97 +29719,97 @@
         <v>25</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>3282</v>
+        <v>26</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F258" s="5" t="n">
-        <v>1951</v>
+        <v>2007</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="I258" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J258" s="5" t="s">
-        <v>200</v>
+        <v>2496</v>
       </c>
       <c r="K258" s="5" t="s">
+        <v>3283</v>
+      </c>
+      <c r="L258" s="5" t="s">
         <v>3284</v>
       </c>
-      <c r="L258" s="5" t="s">
+      <c r="M258" s="5" t="s">
         <v>3285</v>
       </c>
-      <c r="M258" s="5" t="s">
+      <c r="N258" s="5" t="s">
         <v>3286</v>
       </c>
-      <c r="N258" s="5" t="s">
+      <c r="O258" s="5" t="s">
         <v>3287</v>
       </c>
-      <c r="O258" s="5" t="s">
+      <c r="P258" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q258" s="5" t="s">
         <v>3288</v>
       </c>
-      <c r="P258" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q258" s="5" t="s">
+      <c r="R258" s="5" t="s">
         <v>3289</v>
       </c>
-      <c r="R258" s="5" t="s">
+      <c r="S258" s="5" t="s">
         <v>3290</v>
       </c>
-      <c r="S258" s="5" t="s">
+      <c r="T258" s="5" t="s">
         <v>3291</v>
       </c>
-      <c r="T258" s="5" t="s">
+      <c r="U258" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V258" s="5" t="s">
         <v>3292</v>
       </c>
-      <c r="U258" s="5" t="s">
+      <c r="W258" s="5" t="s">
         <v>3293</v>
-      </c>
-      <c r="V258" s="5" t="s">
-        <v>3294</v>
-      </c>
-      <c r="W258" s="5" t="s">
-        <v>3295</v>
       </c>
       <c r="X258" s="5"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>3282</v>
+        <v>3295</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>3282</v>
-      </c>
-      <c r="E259" s="10" t="s">
+        <v>3296</v>
+      </c>
+      <c r="E259" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F259" s="5" t="n">
-        <v>1982</v>
+        <v>1951</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>245</v>
+        <v>3297</v>
       </c>
       <c r="I259" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>3297</v>
+        <v>200</v>
       </c>
       <c r="K259" s="5" t="s">
         <v>3298</v>
@@ -29785,7 +29827,7 @@
         <v>3302</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>449</v>
+        <v>157</v>
       </c>
       <c r="Q259" s="5" t="s">
         <v>3303</v>
@@ -29800,154 +29842,154 @@
         <v>3306</v>
       </c>
       <c r="U259" s="5" t="s">
-        <v>41</v>
+        <v>3307</v>
       </c>
       <c r="V259" s="5" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="W259" s="5" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="X259" s="5"/>
     </row>
-    <row r="260" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>3282</v>
+        <v>3296</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>3282</v>
-      </c>
-      <c r="E260" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="E260" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F260" s="5" t="n">
-        <v>2011</v>
+        <v>1982</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>815</v>
+        <v>245</v>
       </c>
       <c r="I260" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>3297</v>
+        <v>3311</v>
       </c>
       <c r="K260" s="5" t="s">
-        <v>3310</v>
+        <v>3312</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="O260" s="5" t="s">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="P260" s="5" t="s">
-        <v>250</v>
+        <v>449</v>
       </c>
       <c r="Q260" s="5" t="s">
-        <v>3315</v>
+        <v>3317</v>
       </c>
       <c r="R260" s="5" t="s">
-        <v>3316</v>
+        <v>3318</v>
       </c>
       <c r="S260" s="5" t="s">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="T260" s="5" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
       <c r="U260" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V260" s="8" t="s">
-        <v>3319</v>
+      <c r="V260" s="5" t="s">
+        <v>3321</v>
       </c>
       <c r="W260" s="5" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="X260" s="5"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>3322</v>
+        <v>3296</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>3323</v>
-      </c>
-      <c r="E261" s="5" t="n">
-        <v>3</v>
+        <v>3296</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F261" s="5" t="n">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>3324</v>
+        <v>815</v>
       </c>
       <c r="I261" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J261" s="5" t="s">
+        <v>3311</v>
+      </c>
+      <c r="K261" s="5" t="s">
+        <v>3324</v>
+      </c>
+      <c r="L261" s="5" t="s">
         <v>3325</v>
       </c>
-      <c r="K261" s="5" t="s">
+      <c r="M261" s="5" t="s">
         <v>3326</v>
       </c>
-      <c r="L261" s="5" t="s">
+      <c r="N261" s="5" t="s">
         <v>3327</v>
       </c>
-      <c r="M261" s="5" t="s">
+      <c r="O261" s="5" t="s">
         <v>3328</v>
       </c>
-      <c r="N261" s="5" t="s">
+      <c r="P261" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q261" s="5" t="s">
         <v>3329</v>
       </c>
-      <c r="O261" s="5" t="s">
+      <c r="R261" s="5" t="s">
         <v>3330</v>
       </c>
-      <c r="P261" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q261" s="5" t="s">
+      <c r="S261" s="5" t="s">
         <v>3331</v>
       </c>
-      <c r="R261" s="5" t="s">
+      <c r="T261" s="5" t="s">
         <v>3332</v>
       </c>
-      <c r="S261" s="5" t="s">
+      <c r="U261" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V261" s="8" t="s">
         <v>3333</v>
-      </c>
-      <c r="T261" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U261" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V261" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="W261" s="5" t="s">
         <v>3334</v>
@@ -29965,52 +30007,52 @@
         <v>25</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>26</v>
+        <v>3337</v>
+      </c>
+      <c r="E262" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F262" s="5" t="n">
-        <v>1990</v>
+        <v>2017</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="I262" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>1027</v>
+        <v>3339</v>
       </c>
       <c r="K262" s="5" t="s">
-        <v>2827</v>
+        <v>3340</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="N262" s="5" t="s">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="O262" s="5" t="s">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="P262" s="5" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="Q262" s="5" t="s">
-        <v>3342</v>
+        <v>3345</v>
       </c>
       <c r="R262" s="5" t="s">
-        <v>3343</v>
+        <v>3346</v>
       </c>
       <c r="S262" s="5" t="s">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="T262" s="5" t="s">
         <v>106</v>
@@ -30022,16 +30064,16 @@
         <v>106</v>
       </c>
       <c r="W262" s="5" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="X262" s="5"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>3347</v>
+        <v>3350</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>25</v>
@@ -30046,43 +30088,43 @@
         <v>1990</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>1971</v>
+        <v>3351</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>3348</v>
+        <v>1027</v>
       </c>
       <c r="K263" s="5" t="s">
-        <v>3349</v>
+        <v>2827</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>3352</v>
+        <v>3354</v>
       </c>
       <c r="O263" s="5" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="P263" s="5" t="s">
-        <v>71</v>
+        <v>434</v>
       </c>
       <c r="Q263" s="5" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="R263" s="5" t="s">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="S263" s="5" t="s">
-        <v>3356</v>
+        <v>3358</v>
       </c>
       <c r="T263" s="5" t="s">
         <v>106</v>
@@ -30094,160 +30136,160 @@
         <v>106</v>
       </c>
       <c r="W263" s="5" t="s">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="X263" s="5"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>3360</v>
+        <v>26</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>3361</v>
+        <v>26</v>
       </c>
       <c r="F264" s="5" t="n">
-        <v>1961</v>
+        <v>1990</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>2094</v>
+        <v>117</v>
       </c>
       <c r="H264" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J264" s="5" t="s">
         <v>3362</v>
       </c>
-      <c r="I264" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J264" s="5" t="s">
+      <c r="K264" s="5" t="s">
         <v>3363</v>
       </c>
-      <c r="K264" s="5" t="s">
+      <c r="L264" s="5" t="s">
         <v>3364</v>
       </c>
-      <c r="L264" s="5" t="s">
+      <c r="M264" s="5" t="s">
         <v>3365</v>
       </c>
-      <c r="M264" s="5" t="s">
+      <c r="N264" s="5" t="s">
         <v>3366</v>
       </c>
-      <c r="N264" s="5" t="s">
+      <c r="O264" s="5" t="s">
         <v>3367</v>
       </c>
-      <c r="O264" s="5" t="s">
+      <c r="P264" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q264" s="5" t="s">
         <v>3368</v>
       </c>
-      <c r="P264" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q264" s="5" t="s">
+      <c r="R264" s="5" t="s">
         <v>3369</v>
-      </c>
-      <c r="R264" s="5" t="s">
-        <v>2707</v>
       </c>
       <c r="S264" s="5" t="s">
         <v>3370</v>
       </c>
-      <c r="T264" s="10" t="s">
+      <c r="T264" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U264" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V264" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W264" s="5" t="s">
         <v>3371</v>
-      </c>
-      <c r="U264" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="V264" s="5" t="s">
-        <v>3372</v>
-      </c>
-      <c r="W264" s="5" t="s">
-        <v>3373</v>
       </c>
       <c r="X264" s="5"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D265" s="5" t="s">
         <v>3374</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="E265" s="5" t="s">
         <v>3375</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F265" s="5" t="n">
-        <v>2018</v>
+        <v>1961</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>27</v>
+        <v>2094</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>2159</v>
+        <v>3376</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>984</v>
+        <v>3377</v>
       </c>
       <c r="K265" s="5" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="O265" s="5" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="P265" s="5" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="Q265" s="5" t="s">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="R265" s="5" t="s">
-        <v>38</v>
+        <v>2707</v>
       </c>
       <c r="S265" s="5" t="s">
-        <v>3382</v>
-      </c>
-      <c r="T265" s="5" t="s">
-        <v>106</v>
+        <v>3384</v>
+      </c>
+      <c r="T265" s="10" t="s">
+        <v>3385</v>
       </c>
       <c r="U265" s="5" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="V265" s="5" t="s">
-        <v>106</v>
+        <v>3386</v>
       </c>
       <c r="W265" s="5" t="s">
-        <v>3383</v>
+        <v>3387</v>
       </c>
       <c r="X265" s="5"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>3384</v>
+        <v>3388</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>3385</v>
+        <v>3389</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>25</v>
@@ -30259,55 +30301,55 @@
         <v>26</v>
       </c>
       <c r="F266" s="5" t="n">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>1493</v>
+        <v>2159</v>
       </c>
       <c r="I266" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>3386</v>
+        <v>984</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>3387</v>
+        <v>3390</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>3388</v>
+        <v>3391</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="O266" s="5" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
       <c r="P266" s="5" t="s">
-        <v>535</v>
+        <v>434</v>
       </c>
       <c r="Q266" s="5" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="R266" s="5" t="s">
-        <v>3393</v>
+        <v>38</v>
       </c>
       <c r="S266" s="5" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="T266" s="5" t="s">
-        <v>3395</v>
+        <v>106</v>
       </c>
       <c r="U266" s="5" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="V266" s="5" t="s">
-        <v>3396</v>
+        <v>106</v>
       </c>
       <c r="W266" s="5" t="s">
         <v>3397</v>
@@ -30325,124 +30367,124 @@
         <v>25</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1444</v>
+        <v>26</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F267" s="5" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H267" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J267" s="5" t="s">
         <v>3400</v>
       </c>
-      <c r="I267" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J267" s="5" t="s">
+      <c r="K267" s="5" t="s">
         <v>3401</v>
       </c>
-      <c r="K267" s="5" t="s">
+      <c r="L267" s="5" t="s">
         <v>3402</v>
       </c>
-      <c r="L267" s="5" t="s">
+      <c r="M267" s="5" t="s">
         <v>3403</v>
       </c>
-      <c r="M267" s="5" t="s">
+      <c r="N267" s="5" t="s">
         <v>3404</v>
       </c>
-      <c r="N267" s="5" t="s">
+      <c r="O267" s="5" t="s">
         <v>3405</v>
       </c>
-      <c r="O267" s="5" t="s">
+      <c r="P267" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q267" s="5" t="s">
         <v>3406</v>
       </c>
-      <c r="P267" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q267" s="5" t="s">
+      <c r="R267" s="5" t="s">
         <v>3407</v>
       </c>
-      <c r="R267" s="5" t="s">
+      <c r="S267" s="5" t="s">
         <v>3408</v>
       </c>
-      <c r="S267" s="5" t="s">
+      <c r="T267" s="5" t="s">
         <v>3409</v>
       </c>
-      <c r="T267" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="U267" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="V267" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W267" s="4" t="s">
         <v>3410</v>
       </c>
-      <c r="X267" s="4"/>
+      <c r="W267" s="5" t="s">
+        <v>3411</v>
+      </c>
+      <c r="X267" s="5"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>26</v>
+        <v>1444</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F268" s="5" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>2197</v>
+        <v>3414</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="K268" s="5" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="O268" s="5" t="s">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="P268" s="5" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="Q268" s="5" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="R268" s="5" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="S268" s="5" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="T268" s="5" t="s">
         <v>106</v>
@@ -30453,17 +30495,17 @@
       <c r="V268" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W268" s="5" t="s">
-        <v>3422</v>
-      </c>
-      <c r="X268" s="5"/>
+      <c r="W268" s="4" t="s">
+        <v>3424</v>
+      </c>
+      <c r="X268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>25</v>
@@ -30475,46 +30517,46 @@
         <v>26</v>
       </c>
       <c r="F269" s="5" t="n">
-        <v>1979</v>
+        <v>2008</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>3425</v>
+        <v>2197</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J269" s="5" t="s">
-        <v>638</v>
+        <v>3427</v>
       </c>
       <c r="K269" s="5" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="M269" s="5" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="O269" s="5" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
       <c r="P269" s="5" t="s">
-        <v>434</v>
+        <v>220</v>
       </c>
       <c r="Q269" s="5" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="R269" s="5" t="s">
-        <v>38</v>
+        <v>3434</v>
       </c>
       <c r="S269" s="5" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
       <c r="T269" s="5" t="s">
         <v>106</v>
@@ -30526,31 +30568,31 @@
         <v>106</v>
       </c>
       <c r="W269" s="5" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="X269" s="5"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>3436</v>
+        <v>25</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>3437</v>
+        <v>26</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F270" s="5" t="n">
-        <v>2008</v>
+        <v>1979</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>3438</v>
+        <v>27</v>
       </c>
       <c r="H270" s="5" t="s">
         <v>3439</v>
@@ -30559,34 +30601,34 @@
         <v>29</v>
       </c>
       <c r="J270" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="K270" s="5" t="s">
         <v>3440</v>
       </c>
-      <c r="K270" s="5" t="s">
+      <c r="L270" s="5" t="s">
         <v>3441</v>
       </c>
-      <c r="L270" s="5" t="s">
+      <c r="M270" s="5" t="s">
         <v>3442</v>
       </c>
-      <c r="M270" s="5" t="s">
+      <c r="N270" s="5" t="s">
         <v>3443</v>
       </c>
-      <c r="N270" s="5" t="s">
+      <c r="O270" s="5" t="s">
         <v>3444</v>
       </c>
-      <c r="O270" s="5" t="s">
+      <c r="P270" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q270" s="5" t="s">
         <v>3445</v>
       </c>
-      <c r="P270" s="5" t="s">
-        <v>1186</v>
-      </c>
-      <c r="Q270" s="5" t="s">
+      <c r="R270" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S270" s="5" t="s">
         <v>3446</v>
-      </c>
-      <c r="R270" s="5" t="s">
-        <v>2278</v>
-      </c>
-      <c r="S270" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="T270" s="5" t="s">
         <v>106</v>
@@ -30610,55 +30652,55 @@
         <v>3449</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>25</v>
+        <v>3450</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>26</v>
+        <v>3451</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F271" s="5" t="n">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>331</v>
+        <v>3452</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>2838</v>
+        <v>3453</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>1367</v>
+        <v>29</v>
       </c>
       <c r="J271" s="5" t="s">
-        <v>3450</v>
+        <v>3454</v>
       </c>
       <c r="K271" s="5" t="s">
-        <v>861</v>
+        <v>3455</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>3451</v>
+        <v>3456</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>3452</v>
+        <v>3457</v>
       </c>
       <c r="N271" s="5" t="s">
-        <v>3453</v>
+        <v>3458</v>
       </c>
       <c r="O271" s="5" t="s">
-        <v>3454</v>
+        <v>3459</v>
       </c>
       <c r="P271" s="5" t="s">
-        <v>338</v>
+        <v>1186</v>
       </c>
       <c r="Q271" s="5" t="s">
-        <v>3455</v>
+        <v>3460</v>
       </c>
       <c r="R271" s="5" t="s">
-        <v>174</v>
+        <v>2278</v>
       </c>
       <c r="S271" s="5" t="s">
-        <v>3456</v>
+        <v>106</v>
       </c>
       <c r="T271" s="5" t="s">
         <v>106</v>
@@ -30670,16 +30712,16 @@
         <v>106</v>
       </c>
       <c r="W271" s="5" t="s">
-        <v>3457</v>
+        <v>3461</v>
       </c>
       <c r="X271" s="5"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>3458</v>
+        <v>3462</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>3459</v>
+        <v>3463</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>25</v>
@@ -30691,46 +30733,46 @@
         <v>26</v>
       </c>
       <c r="F272" s="5" t="n">
-        <v>1971</v>
+        <v>1988</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>2159</v>
+        <v>2838</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>29</v>
+        <v>1367</v>
       </c>
       <c r="J272" s="5" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
       <c r="K272" s="5" t="s">
-        <v>3461</v>
+        <v>861</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="N272" s="5" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="O272" s="5" t="s">
-        <v>3465</v>
+        <v>3468</v>
       </c>
       <c r="P272" s="5" t="s">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="Q272" s="5" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="R272" s="5" t="s">
-        <v>3097</v>
+        <v>174</v>
       </c>
       <c r="S272" s="5" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
       <c r="T272" s="5" t="s">
         <v>106</v>
@@ -30742,211 +30784,211 @@
         <v>106</v>
       </c>
       <c r="W272" s="5" t="s">
-        <v>3468</v>
+        <v>3471</v>
       </c>
       <c r="X272" s="5"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>3471</v>
+        <v>26</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>3472</v>
+        <v>26</v>
       </c>
       <c r="F273" s="5" t="n">
-        <v>2002</v>
+        <v>1971</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>487</v>
+        <v>285</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>3473</v>
+        <v>2159</v>
       </c>
       <c r="I273" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>612</v>
+        <v>3474</v>
       </c>
       <c r="K273" s="5" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="N273" s="5" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="O273" s="5" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>3479</v>
+        <v>107</v>
       </c>
       <c r="Q273" s="5" t="s">
         <v>3480</v>
       </c>
       <c r="R273" s="5" t="s">
+        <v>3097</v>
+      </c>
+      <c r="S273" s="5" t="s">
         <v>3481</v>
       </c>
-      <c r="S273" s="5" t="s">
+      <c r="T273" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U273" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V273" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W273" s="5" t="s">
         <v>3482</v>
-      </c>
-      <c r="T273" s="5" t="s">
-        <v>3483</v>
-      </c>
-      <c r="U273" s="5" t="s">
-        <v>3484</v>
-      </c>
-      <c r="V273" s="5" t="s">
-        <v>3485</v>
-      </c>
-      <c r="W273" s="5" t="s">
-        <v>3486</v>
       </c>
       <c r="X273" s="5"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F274" s="5" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H274" s="5" t="s">
         <v>3487</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="I274" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="K274" s="5" t="s">
         <v>3488</v>
       </c>
-      <c r="C274" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F274" s="5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="G274" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H274" s="5" t="s">
+      <c r="L274" s="5" t="s">
         <v>3489</v>
       </c>
-      <c r="I274" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J274" s="5" t="s">
+      <c r="M274" s="5" t="s">
         <v>3490</v>
       </c>
-      <c r="K274" s="5" t="s">
+      <c r="N274" s="5" t="s">
         <v>3491</v>
       </c>
-      <c r="L274" s="5" t="s">
+      <c r="O274" s="5" t="s">
         <v>3492</v>
       </c>
-      <c r="M274" s="5" t="s">
+      <c r="P274" s="5" t="s">
         <v>3493</v>
       </c>
-      <c r="N274" s="5" t="s">
+      <c r="Q274" s="5" t="s">
         <v>3494</v>
       </c>
-      <c r="O274" s="5" t="s">
+      <c r="R274" s="5" t="s">
         <v>3495</v>
       </c>
-      <c r="P274" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="Q274" s="5" t="s">
+      <c r="S274" s="5" t="s">
         <v>3496</v>
       </c>
-      <c r="R274" s="5" t="s">
+      <c r="T274" s="5" t="s">
         <v>3497</v>
       </c>
-      <c r="S274" s="5" t="s">
+      <c r="U274" s="5" t="s">
         <v>3498</v>
       </c>
-      <c r="T274" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U274" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="V274" s="5" t="s">
-        <v>106</v>
+        <v>3499</v>
       </c>
       <c r="W274" s="5" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="X274" s="5"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>1444</v>
+        <v>26</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F275" s="5" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>2596</v>
+        <v>3503</v>
       </c>
       <c r="I275" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J275" s="5" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="K275" s="5" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="L275" s="5" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="M275" s="5" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="O275" s="5" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>306</v>
+        <v>1267</v>
       </c>
       <c r="Q275" s="5" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="R275" s="5" t="s">
-        <v>2324</v>
+        <v>3511</v>
       </c>
       <c r="S275" s="5" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
       <c r="T275" s="5" t="s">
         <v>106</v>
@@ -30957,68 +30999,68 @@
       <c r="V275" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W275" s="4" t="s">
-        <v>3510</v>
-      </c>
-      <c r="X275" s="4"/>
+      <c r="W275" s="5" t="s">
+        <v>3513</v>
+      </c>
+      <c r="X275" s="5"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>3512</v>
-      </c>
-      <c r="E276" s="6" t="n">
-        <v>1</v>
+        <v>1444</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F276" s="5" t="n">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>2838</v>
+        <v>2596</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>1027</v>
+        <v>3516</v>
       </c>
       <c r="K276" s="5" t="s">
-        <v>3387</v>
+        <v>3517</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>3513</v>
+        <v>3518</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>3514</v>
+        <v>3519</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>3515</v>
+        <v>3520</v>
       </c>
       <c r="O276" s="5" t="s">
-        <v>3516</v>
+        <v>3521</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>1267</v>
+        <v>306</v>
       </c>
       <c r="Q276" s="5" t="s">
-        <v>3517</v>
+        <v>3522</v>
       </c>
       <c r="R276" s="5" t="s">
-        <v>3518</v>
+        <v>2324</v>
       </c>
       <c r="S276" s="5" t="s">
-        <v>3519</v>
+        <v>3523</v>
       </c>
       <c r="T276" s="5" t="s">
         <v>106</v>
@@ -31029,68 +31071,68 @@
       <c r="V276" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W276" s="5" t="s">
-        <v>3520</v>
-      </c>
-      <c r="X276" s="5"/>
+      <c r="W276" s="4" t="s">
+        <v>3524</v>
+      </c>
+      <c r="X276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>3521</v>
+        <v>3525</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>3522</v>
+        <v>3526</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>3512</v>
+        <v>3526</v>
       </c>
       <c r="E277" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F277" s="5" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G277" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>3523</v>
+        <v>2838</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>984</v>
+        <v>1027</v>
       </c>
       <c r="K277" s="5" t="s">
-        <v>3387</v>
+        <v>3401</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>3524</v>
+        <v>3527</v>
       </c>
       <c r="M277" s="5" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
       <c r="O277" s="5" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>644</v>
+        <v>1267</v>
       </c>
       <c r="Q277" s="5" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="R277" s="5" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="S277" s="5" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="T277" s="5" t="s">
         <v>106</v>
@@ -31102,67 +31144,67 @@
         <v>106</v>
       </c>
       <c r="W277" s="5" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="X277" s="5"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>3512</v>
-      </c>
-      <c r="E278" s="6" t="s">
-        <v>26</v>
+        <v>3526</v>
+      </c>
+      <c r="E278" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F278" s="5" t="n">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>1840</v>
+        <v>3537</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>582</v>
+        <v>984</v>
       </c>
       <c r="K278" s="5" t="s">
-        <v>82</v>
+        <v>3401</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
       <c r="M278" s="5" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
       <c r="N278" s="5" t="s">
-        <v>3536</v>
+        <v>3540</v>
       </c>
       <c r="O278" s="5" t="s">
-        <v>3537</v>
+        <v>3541</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="Q278" s="5" t="s">
-        <v>3538</v>
+        <v>3542</v>
       </c>
       <c r="R278" s="5" t="s">
-        <v>3539</v>
+        <v>3543</v>
       </c>
       <c r="S278" s="5" t="s">
-        <v>3540</v>
+        <v>3544</v>
       </c>
       <c r="T278" s="5" t="s">
         <v>106</v>
@@ -31174,67 +31216,67 @@
         <v>106</v>
       </c>
       <c r="W278" s="5" t="s">
-        <v>3541</v>
+        <v>3545</v>
       </c>
       <c r="X278" s="5"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>3543</v>
+        <v>3547</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D279" s="5" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E279" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E279" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F279" s="5" t="n">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="G279" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>1959</v>
+        <v>1840</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J279" s="5" t="s">
-        <v>3544</v>
+        <v>582</v>
       </c>
       <c r="K279" s="5" t="s">
-        <v>3545</v>
+        <v>82</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="M279" s="5" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="N279" s="5" t="s">
-        <v>3548</v>
+        <v>3550</v>
       </c>
       <c r="O279" s="5" t="s">
-        <v>3549</v>
+        <v>3551</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="Q279" s="5" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="R279" s="5" t="s">
-        <v>89</v>
+        <v>3553</v>
       </c>
       <c r="S279" s="5" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="T279" s="5" t="s">
         <v>106</v>
@@ -31246,16 +31288,16 @@
         <v>106</v>
       </c>
       <c r="W279" s="5" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="X279" s="5"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>25</v>
@@ -31267,46 +31309,46 @@
         <v>26</v>
       </c>
       <c r="F280" s="5" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="G280" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>2723</v>
+        <v>1959</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>349</v>
+        <v>3558</v>
       </c>
       <c r="K280" s="5" t="s">
-        <v>3555</v>
+        <v>3559</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>3556</v>
+        <v>3560</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>3557</v>
+        <v>3561</v>
       </c>
       <c r="N280" s="5" t="s">
-        <v>3558</v>
+        <v>3562</v>
       </c>
       <c r="O280" s="5" t="s">
-        <v>3559</v>
+        <v>3563</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>306</v>
+        <v>434</v>
       </c>
       <c r="Q280" s="5" t="s">
-        <v>3560</v>
+        <v>3564</v>
       </c>
       <c r="R280" s="5" t="s">
-        <v>3561</v>
+        <v>89</v>
       </c>
       <c r="S280" s="5" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="T280" s="5" t="s">
         <v>106</v>
@@ -31318,111 +31360,183 @@
         <v>106</v>
       </c>
       <c r="W280" s="5" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="X280" s="5"/>
     </row>
-    <row r="281" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="14" t="s">
-        <v>3564</v>
-      </c>
-      <c r="B281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="S281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="V281" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="W281" s="14" t="s">
-        <v>106</v>
-      </c>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F281" s="5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>2723</v>
+      </c>
+      <c r="I281" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J281" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K281" s="5" t="s">
+        <v>3569</v>
+      </c>
+      <c r="L281" s="5" t="s">
+        <v>3570</v>
+      </c>
+      <c r="M281" s="5" t="s">
+        <v>3571</v>
+      </c>
+      <c r="N281" s="5" t="s">
+        <v>3572</v>
+      </c>
+      <c r="O281" s="5" t="s">
+        <v>3573</v>
+      </c>
+      <c r="P281" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q281" s="5" t="s">
+        <v>3574</v>
+      </c>
+      <c r="R281" s="5" t="s">
+        <v>3575</v>
+      </c>
+      <c r="S281" s="5" t="s">
+        <v>3576</v>
+      </c>
+      <c r="T281" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U281" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V281" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W281" s="5" t="s">
+        <v>3577</v>
+      </c>
+      <c r="X281" s="5"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="15" t="s">
-        <v>3565</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>3566</v>
+    <row r="282" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A282" s="14" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="T282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="U282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="V282" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="W282" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="15" t="s">
-        <v>3567</v>
+        <v>3579</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3568</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
-        <v>3569</v>
+      <c r="A285" s="15" t="s">
+        <v>3581</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3570</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="14" t="s">
-        <v>3571</v>
+      <c r="A286" s="1" t="s">
+        <v>3583</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>3572</v>
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A287" s="14" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>3586</v>
       </c>
     </row>
   </sheetData>
@@ -31581,13 +31695,18 @@
     <hyperlink ref="T232" r:id="rId152" display="https://www.rogerebert.com/reviews/the-silence-of-the-lambs-1991"/>
     <hyperlink ref="W232" r:id="rId153" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/uS9m8OBk1A8eM9I042bx8XXpqAq.jpg"/>
     <hyperlink ref="W233" r:id="rId154" display="https://xl.movieposterdb.com/06_05/2002/0286106/xl_116531_0286106_64875aa4.jpg?v=2024-07-07%2004:58:53"/>
-    <hyperlink ref="N264" r:id="rId155" display="https://youtu.be/ORbseYAkzRM?si=Kmi9lVFsGOqGC0qF"/>
-    <hyperlink ref="Q264" r:id="rId156" display="https://www.imdb.com/title/tt0052520/?ref_=fn_all_ttl_1"/>
-    <hyperlink ref="S264" r:id="rId157" display="https://www.rottentomatoes.com/tv/the_twilight_zone"/>
-    <hyperlink ref="T264" r:id="rId158" display="https://www.rogerebert.com/features/the-metaphor-years-writing-lessons-from-the-twilight-zone"/>
-    <hyperlink ref="W264" r:id="rId159" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/coWkN4uvxP41T0JFZHttUhS2PBj.jpg"/>
-    <hyperlink ref="Q266" r:id="rId160" display="https://www.imdb.com/title/tt0985699/?ref_=fn_all_ttl_1"/>
-    <hyperlink ref="Q273" r:id="rId161" display="https://www.imdb.com/title/tt0306414/"/>
+    <hyperlink ref="N258" r:id="rId155" display="https://youtu.be/FeSLPELpMeM?si=HBmM3L7nAy4c-0nX"/>
+    <hyperlink ref="Q258" r:id="rId156" display="https://www.imdb.com/title/tt0469494/?ref_=nv_sr_srsg_0_tt_8_nm_0_in_0_q_there%2520will%2520b"/>
+    <hyperlink ref="S258" r:id="rId157" display="https://www.rottentomatoes.com/m/there_will_be_blood"/>
+    <hyperlink ref="T258" r:id="rId158" display="https://www.rogerebert.com/reviews/there-will-be-blood-2008"/>
+    <hyperlink ref="W258" r:id="rId159" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/4ayObDELZfIXxVviT4GKTNc81wl.jpg"/>
+    <hyperlink ref="N265" r:id="rId160" display="https://youtu.be/ORbseYAkzRM?si=Kmi9lVFsGOqGC0qF"/>
+    <hyperlink ref="Q265" r:id="rId161" display="https://www.imdb.com/title/tt0052520/?ref_=fn_all_ttl_1"/>
+    <hyperlink ref="S265" r:id="rId162" display="https://www.rottentomatoes.com/tv/the_twilight_zone"/>
+    <hyperlink ref="T265" r:id="rId163" display="https://www.rogerebert.com/features/the-metaphor-years-writing-lessons-from-the-twilight-zone"/>
+    <hyperlink ref="W265" r:id="rId164" display="https://image.tmdb.org/t/p/w600_and_h900_bestv2/coWkN4uvxP41T0JFZHttUhS2PBj.jpg"/>
+    <hyperlink ref="Q267" r:id="rId165" display="https://www.imdb.com/title/tt0985699/?ref_=fn_all_ttl_1"/>
+    <hyperlink ref="Q274" r:id="rId166" display="https://www.imdb.com/title/tt0306414/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
